--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['59', '81']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -563,6 +566,9 @@
   </si>
   <si>
     <t>['32', '50', '69']</t>
+  </si>
+  <si>
+    <t>['41', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1189,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1389,7 +1395,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1470,7 +1476,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1801,7 +1807,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -2007,7 +2013,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2419,7 +2425,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2625,7 +2631,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2831,7 +2837,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3037,7 +3043,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3243,7 +3249,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3861,7 +3867,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4067,7 +4073,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4273,7 +4279,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4560,7 +4566,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4685,7 +4691,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4891,7 +4897,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5097,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5303,7 +5309,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5381,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -5715,7 +5721,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5921,7 +5927,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6539,7 +6545,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6951,7 +6957,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7363,7 +7369,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7569,7 +7575,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7775,7 +7781,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7856,7 +7862,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -7981,7 +7987,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8265,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8393,7 +8399,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8599,7 +8605,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8805,7 +8811,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9629,7 +9635,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9710,7 +9716,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -9835,7 +9841,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10453,7 +10459,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10659,7 +10665,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10737,7 +10743,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -10865,7 +10871,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11358,7 +11364,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11483,7 +11489,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11895,7 +11901,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12101,7 +12107,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12513,7 +12519,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12719,7 +12725,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12925,7 +12931,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13543,7 +13549,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13749,7 +13755,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13955,7 +13961,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14033,7 +14039,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14242,7 +14248,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14367,7 +14373,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14445,7 +14451,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66">
         <v>1.6</v>
@@ -14573,7 +14579,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14779,7 +14785,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14985,7 +14991,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15191,7 +15197,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15809,7 +15815,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16221,7 +16227,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16427,7 +16433,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16839,7 +16845,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -16996,6 +17002,212 @@
       </c>
       <c r="BP78">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7537367</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45618.60416666666</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>134</v>
+      </c>
+      <c r="P79" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.1</v>
+      </c>
+      <c r="AA79">
+        <v>3.25</v>
+      </c>
+      <c r="AB79">
+        <v>3.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.08</v>
+      </c>
+      <c r="AD79">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE79">
+        <v>1.39</v>
+      </c>
+      <c r="AF79">
+        <v>3.05</v>
+      </c>
+      <c r="AG79">
+        <v>2.12</v>
+      </c>
+      <c r="AH79">
+        <v>1.64</v>
+      </c>
+      <c r="AI79">
+        <v>1.91</v>
+      </c>
+      <c r="AJ79">
+        <v>1.91</v>
+      </c>
+      <c r="AK79">
+        <v>1.29</v>
+      </c>
+      <c r="AL79">
+        <v>1.31</v>
+      </c>
+      <c r="AM79">
+        <v>1.58</v>
+      </c>
+      <c r="AN79">
+        <v>0.6</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>0.5</v>
+      </c>
+      <c r="AQ79">
+        <v>1.29</v>
+      </c>
+      <c r="AR79">
+        <v>1.38</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
+        <v>2.67</v>
+      </c>
+      <c r="AU79">
+        <v>8</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>12</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>22</v>
+      </c>
+      <c r="AZ79">
+        <v>16</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>1</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>1.75</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.5</v>
+      </c>
+      <c r="BH79">
+        <v>2.52</v>
+      </c>
+      <c r="BI79">
+        <v>1.85</v>
+      </c>
+      <c r="BJ79">
+        <v>1.95</v>
+      </c>
+      <c r="BK79">
+        <v>2.37</v>
+      </c>
+      <c r="BL79">
+        <v>1.55</v>
+      </c>
+      <c r="BM79">
+        <v>3.14</v>
+      </c>
+      <c r="BN79">
+        <v>1.25</v>
+      </c>
+      <c r="BO79">
+        <v>4.3</v>
+      </c>
+      <c r="BP79">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -569,6 +572,12 @@
   </si>
   <si>
     <t>['41', '90+2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1198,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1395,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1807,7 +1816,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -2013,7 +2022,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2300,7 +2309,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2425,7 +2434,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2631,7 +2640,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2837,7 +2846,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3043,7 +3052,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3249,7 +3258,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3330,7 +3339,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3867,7 +3876,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4073,7 +4082,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4151,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1.67</v>
@@ -4279,7 +4288,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4357,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4691,7 +4700,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4897,7 +4906,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4978,7 +4987,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5103,7 +5112,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5309,7 +5318,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5593,7 +5602,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>0.67</v>
@@ -5721,7 +5730,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5927,7 +5936,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6545,7 +6554,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6832,7 +6841,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6957,7 +6966,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7241,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>1.67</v>
@@ -7369,7 +7378,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7575,7 +7584,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7656,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7781,7 +7790,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7987,7 +7996,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8399,7 +8408,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8605,7 +8614,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8811,7 +8820,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9635,7 +9644,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9713,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -9841,7 +9850,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9922,7 +9931,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10331,7 +10340,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -10459,7 +10468,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10540,7 +10549,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -10665,7 +10674,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10871,7 +10880,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11489,7 +11498,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11773,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -11901,7 +11910,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12107,7 +12116,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12391,7 +12400,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12519,7 +12528,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12725,7 +12734,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12806,7 +12815,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -12931,7 +12940,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13549,7 +13558,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13755,7 +13764,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13836,7 +13845,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -13961,7 +13970,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14373,7 +14382,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14579,7 +14588,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14657,7 +14666,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ67">
         <v>0.6</v>
@@ -14785,7 +14794,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14991,7 +15000,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15197,7 +15206,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15275,7 +15284,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ70">
         <v>2.6</v>
@@ -15484,7 +15493,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
         <v>1.51</v>
@@ -15815,7 +15824,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16227,7 +16236,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16433,7 +16442,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16514,7 +16523,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -16845,7 +16854,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17051,7 +17060,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17208,6 +17217,418 @@
       </c>
       <c r="BP79">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7537372</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>135</v>
+      </c>
+      <c r="P80" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q80">
+        <v>3.4</v>
+      </c>
+      <c r="R80">
+        <v>2.05</v>
+      </c>
+      <c r="S80">
+        <v>3.4</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
+        <v>2.63</v>
+      </c>
+      <c r="V80">
+        <v>3.25</v>
+      </c>
+      <c r="W80">
+        <v>1.33</v>
+      </c>
+      <c r="X80">
+        <v>10</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>2.63</v>
+      </c>
+      <c r="AA80">
+        <v>3.04</v>
+      </c>
+      <c r="AB80">
+        <v>2.42</v>
+      </c>
+      <c r="AC80">
+        <v>1.07</v>
+      </c>
+      <c r="AD80">
+        <v>8.6</v>
+      </c>
+      <c r="AE80">
+        <v>1.37</v>
+      </c>
+      <c r="AF80">
+        <v>3.15</v>
+      </c>
+      <c r="AG80">
+        <v>2.11</v>
+      </c>
+      <c r="AH80">
+        <v>1.76</v>
+      </c>
+      <c r="AI80">
+        <v>1.91</v>
+      </c>
+      <c r="AJ80">
+        <v>1.91</v>
+      </c>
+      <c r="AK80">
+        <v>1.44</v>
+      </c>
+      <c r="AL80">
+        <v>1.31</v>
+      </c>
+      <c r="AM80">
+        <v>1.41</v>
+      </c>
+      <c r="AN80">
+        <v>0.4</v>
+      </c>
+      <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>0.5</v>
+      </c>
+      <c r="AQ80">
+        <v>1.57</v>
+      </c>
+      <c r="AR80">
+        <v>1.08</v>
+      </c>
+      <c r="AS80">
+        <v>1.03</v>
+      </c>
+      <c r="AT80">
+        <v>2.11</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>5</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>12</v>
+      </c>
+      <c r="AZ80">
+        <v>14</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>11</v>
+      </c>
+      <c r="BD80">
+        <v>2.29</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>1.85</v>
+      </c>
+      <c r="BG80">
+        <v>1.38</v>
+      </c>
+      <c r="BH80">
+        <v>2.62</v>
+      </c>
+      <c r="BI80">
+        <v>1.85</v>
+      </c>
+      <c r="BJ80">
+        <v>1.95</v>
+      </c>
+      <c r="BK80">
+        <v>2.25</v>
+      </c>
+      <c r="BL80">
+        <v>1.63</v>
+      </c>
+      <c r="BM80">
+        <v>2.94</v>
+      </c>
+      <c r="BN80">
+        <v>1.28</v>
+      </c>
+      <c r="BO80">
+        <v>3.8</v>
+      </c>
+      <c r="BP80">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7537368</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q81">
+        <v>2.1</v>
+      </c>
+      <c r="R81">
+        <v>2.25</v>
+      </c>
+      <c r="S81">
+        <v>6.5</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>1.52</v>
+      </c>
+      <c r="AA81">
+        <v>4.1</v>
+      </c>
+      <c r="AB81">
+        <v>5.6</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.3</v>
+      </c>
+      <c r="AF81">
+        <v>3.6</v>
+      </c>
+      <c r="AG81">
+        <v>1.97</v>
+      </c>
+      <c r="AH81">
+        <v>1.91</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.75</v>
+      </c>
+      <c r="AK81">
+        <v>1.11</v>
+      </c>
+      <c r="AL81">
+        <v>1.18</v>
+      </c>
+      <c r="AM81">
+        <v>2.41</v>
+      </c>
+      <c r="AN81">
+        <v>2.6</v>
+      </c>
+      <c r="AO81">
+        <v>1.8</v>
+      </c>
+      <c r="AP81">
+        <v>2.17</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.51</v>
+      </c>
+      <c r="AS81">
+        <v>1.02</v>
+      </c>
+      <c r="AT81">
+        <v>2.53</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>8</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>17</v>
+      </c>
+      <c r="AZ81">
+        <v>5</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>3</v>
+      </c>
+      <c r="BD81">
+        <v>1.31</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>4.43</v>
+      </c>
+      <c r="BG81">
+        <v>1.51</v>
+      </c>
+      <c r="BH81">
+        <v>2.51</v>
+      </c>
+      <c r="BI81">
+        <v>1.9</v>
+      </c>
+      <c r="BJ81">
+        <v>1.9</v>
+      </c>
+      <c r="BK81">
+        <v>2.44</v>
+      </c>
+      <c r="BL81">
+        <v>1.53</v>
+      </c>
+      <c r="BM81">
+        <v>3.14</v>
+      </c>
+      <c r="BN81">
+        <v>1.25</v>
+      </c>
+      <c r="BO81">
+        <v>4</v>
+      </c>
+      <c r="BP81">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['7', '49', '51', '62']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['54', '88']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -578,6 +587,12 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['68', '85']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1213,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1404,7 +1419,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1816,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -2022,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2100,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2434,7 +2449,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2640,7 +2655,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2846,7 +2861,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3052,7 +3067,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3258,7 +3273,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3336,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3751,7 +3766,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3876,7 +3891,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3954,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4082,7 +4097,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4288,7 +4303,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4700,7 +4715,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4781,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4906,7 +4921,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5112,7 +5127,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5190,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5318,7 +5333,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5730,7 +5745,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5808,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5936,7 +5951,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6017,7 +6032,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6220,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6554,7 +6569,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6966,7 +6981,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7047,7 +7062,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ30">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7378,7 +7393,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7584,7 +7599,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7790,7 +7805,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7996,7 +8011,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8074,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8283,7 +8298,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8408,7 +8423,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8614,7 +8629,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8692,10 +8707,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8820,7 +8835,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9104,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9644,7 +9659,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9850,7 +9865,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9928,7 +9943,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10137,7 +10152,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10468,7 +10483,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10674,7 +10689,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10880,7 +10895,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10961,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11498,7 +11513,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11576,7 +11591,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.6</v>
@@ -11910,7 +11925,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -11988,10 +12003,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12116,7 +12131,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12528,7 +12543,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12609,7 +12624,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -12734,7 +12749,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12940,7 +12955,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13227,7 +13242,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13430,7 +13445,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61">
         <v>1.67</v>
@@ -13558,7 +13573,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13764,7 +13779,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13970,7 +13985,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14254,7 +14269,7 @@
         <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ65">
         <v>1.29</v>
@@ -14382,7 +14397,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14588,7 +14603,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14669,7 +14684,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -14794,7 +14809,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15000,7 +15015,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15078,10 +15093,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15206,7 +15221,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15287,7 +15302,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ70">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR70">
         <v>1.11</v>
@@ -15490,7 +15505,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ71">
         <v>1.57</v>
@@ -15824,7 +15839,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16236,7 +16251,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16442,7 +16457,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16854,7 +16869,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17060,7 +17075,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17233,7 +17248,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F80">
         <v>12</v>
@@ -17266,7 +17281,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17472,7 +17487,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>2.1</v>
@@ -17629,6 +17644,624 @@
       </c>
       <c r="BP81">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7537370</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>136</v>
+      </c>
+      <c r="P82" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q82">
+        <v>2.88</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.63</v>
+      </c>
+      <c r="V82">
+        <v>3.25</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.09</v>
+      </c>
+      <c r="AA82">
+        <v>3.14</v>
+      </c>
+      <c r="AB82">
+        <v>3.07</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>9</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3.35</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1.82</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.29</v>
+      </c>
+      <c r="AL82">
+        <v>1.29</v>
+      </c>
+      <c r="AM82">
+        <v>1.6</v>
+      </c>
+      <c r="AN82">
+        <v>2.2</v>
+      </c>
+      <c r="AO82">
+        <v>1.4</v>
+      </c>
+      <c r="AP82">
+        <v>2.33</v>
+      </c>
+      <c r="AQ82">
+        <v>1.17</v>
+      </c>
+      <c r="AR82">
+        <v>2.03</v>
+      </c>
+      <c r="AS82">
+        <v>1.78</v>
+      </c>
+      <c r="AT82">
+        <v>3.81</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>13</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>1.82</v>
+      </c>
+      <c r="BE82">
+        <v>8</v>
+      </c>
+      <c r="BF82">
+        <v>2.39</v>
+      </c>
+      <c r="BG82">
+        <v>1.37</v>
+      </c>
+      <c r="BH82">
+        <v>2.82</v>
+      </c>
+      <c r="BI82">
+        <v>1.7</v>
+      </c>
+      <c r="BJ82">
+        <v>2.05</v>
+      </c>
+      <c r="BK82">
+        <v>2.05</v>
+      </c>
+      <c r="BL82">
+        <v>1.7</v>
+      </c>
+      <c r="BM82">
+        <v>3</v>
+      </c>
+      <c r="BN82">
+        <v>1.32</v>
+      </c>
+      <c r="BO82">
+        <v>3.7</v>
+      </c>
+      <c r="BP82">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7537366</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>137</v>
+      </c>
+      <c r="P83" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>2.2</v>
+      </c>
+      <c r="S83">
+        <v>2.2</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.25</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>5</v>
+      </c>
+      <c r="AA83">
+        <v>3.51</v>
+      </c>
+      <c r="AB83">
+        <v>1.57</v>
+      </c>
+      <c r="AC83">
+        <v>1.07</v>
+      </c>
+      <c r="AD83">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE83">
+        <v>1.35</v>
+      </c>
+      <c r="AF83">
+        <v>3.25</v>
+      </c>
+      <c r="AG83">
+        <v>1.98</v>
+      </c>
+      <c r="AH83">
+        <v>1.71</v>
+      </c>
+      <c r="AI83">
+        <v>2.05</v>
+      </c>
+      <c r="AJ83">
+        <v>1.7</v>
+      </c>
+      <c r="AK83">
+        <v>2.08</v>
+      </c>
+      <c r="AL83">
+        <v>1.24</v>
+      </c>
+      <c r="AM83">
+        <v>1.13</v>
+      </c>
+      <c r="AN83">
+        <v>1.4</v>
+      </c>
+      <c r="AO83">
+        <v>2.6</v>
+      </c>
+      <c r="AP83">
+        <v>1.17</v>
+      </c>
+      <c r="AQ83">
+        <v>2.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.54</v>
+      </c>
+      <c r="AS83">
+        <v>1.34</v>
+      </c>
+      <c r="AT83">
+        <v>2.88</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>16</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>8</v>
+      </c>
+      <c r="BD83">
+        <v>2.9</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>1.59</v>
+      </c>
+      <c r="BG83">
+        <v>1.35</v>
+      </c>
+      <c r="BH83">
+        <v>2.88</v>
+      </c>
+      <c r="BI83">
+        <v>1.88</v>
+      </c>
+      <c r="BJ83">
+        <v>1.92</v>
+      </c>
+      <c r="BK83">
+        <v>2.05</v>
+      </c>
+      <c r="BL83">
+        <v>1.7</v>
+      </c>
+      <c r="BM83">
+        <v>3.05</v>
+      </c>
+      <c r="BN83">
+        <v>1.31</v>
+      </c>
+      <c r="BO83">
+        <v>4.35</v>
+      </c>
+      <c r="BP83">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7537369</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45621.54166666666</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84">
+        <v>2.4</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>5.5</v>
+      </c>
+      <c r="T84">
+        <v>1.44</v>
+      </c>
+      <c r="U84">
+        <v>2.63</v>
+      </c>
+      <c r="V84">
+        <v>3.4</v>
+      </c>
+      <c r="W84">
+        <v>1.3</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>1.7</v>
+      </c>
+      <c r="AA84">
+        <v>3.45</v>
+      </c>
+      <c r="AB84">
+        <v>5</v>
+      </c>
+      <c r="AC84">
+        <v>1.08</v>
+      </c>
+      <c r="AD84">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>1.39</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+      <c r="AG84">
+        <v>2.1</v>
+      </c>
+      <c r="AH84">
+        <v>1.65</v>
+      </c>
+      <c r="AI84">
+        <v>2.05</v>
+      </c>
+      <c r="AJ84">
+        <v>1.7</v>
+      </c>
+      <c r="AK84">
+        <v>1.16</v>
+      </c>
+      <c r="AL84">
+        <v>1.26</v>
+      </c>
+      <c r="AM84">
+        <v>1.93</v>
+      </c>
+      <c r="AN84">
+        <v>0.67</v>
+      </c>
+      <c r="AO84">
+        <v>0.6</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.32</v>
+      </c>
+      <c r="AS84">
+        <v>0.97</v>
+      </c>
+      <c r="AT84">
+        <v>2.29</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>6</v>
+      </c>
+      <c r="BC84">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <v>1.64</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>2.77</v>
+      </c>
+      <c r="BG84">
+        <v>1.36</v>
+      </c>
+      <c r="BH84">
+        <v>2.85</v>
+      </c>
+      <c r="BI84">
+        <v>1.7</v>
+      </c>
+      <c r="BJ84">
+        <v>2.1</v>
+      </c>
+      <c r="BK84">
+        <v>2.05</v>
+      </c>
+      <c r="BL84">
+        <v>1.7</v>
+      </c>
+      <c r="BM84">
+        <v>3.1</v>
+      </c>
+      <c r="BN84">
+        <v>1.31</v>
+      </c>
+      <c r="BO84">
+        <v>4.35</v>
+      </c>
+      <c r="BP84">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,12 +424,15 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['7', '49', '51', '62']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['54', '88']</t>
   </si>
   <si>
@@ -439,9 +442,6 @@
     <t>['31', '49']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['66']</t>
   </si>
   <si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['10', '90+2']</t>
   </si>
   <si>
     <t>['68', '85']</t>
@@ -954,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1216,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1419,7 +1422,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1831,7 +1834,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -2527,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -4587,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18">
         <v>1.29</v>
@@ -5414,7 +5417,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6444,7 +6447,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
         <v>1.95</v>
@@ -7471,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -9534,7 +9537,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -10149,7 +10152,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
         <v>1.17</v>
@@ -12212,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12827,7 +12830,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -14890,7 +14893,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
         <v>1.45</v>
@@ -15711,7 +15714,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -17651,7 +17654,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7537370</v>
+        <v>7537371</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17666,190 +17669,190 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O82" t="s">
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="Q82">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>2.3</v>
+      </c>
+      <c r="T82">
+        <v>1.5</v>
+      </c>
+      <c r="U82">
+        <v>2.5</v>
+      </c>
+      <c r="V82">
+        <v>3.4</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>4.77</v>
+      </c>
+      <c r="AA82">
+        <v>3.25</v>
+      </c>
+      <c r="AB82">
+        <v>1.59</v>
+      </c>
+      <c r="AC82">
+        <v>1.08</v>
+      </c>
+      <c r="AD82">
+        <v>7.8</v>
+      </c>
+      <c r="AE82">
+        <v>1.42</v>
+      </c>
+      <c r="AF82">
+        <v>2.9</v>
+      </c>
+      <c r="AG82">
+        <v>2.15</v>
+      </c>
+      <c r="AH82">
+        <v>1.6</v>
+      </c>
+      <c r="AI82">
         <v>2.1</v>
       </c>
-      <c r="S82">
+      <c r="AJ82">
+        <v>1.67</v>
+      </c>
+      <c r="AK82">
+        <v>1.99</v>
+      </c>
+      <c r="AL82">
+        <v>1.26</v>
+      </c>
+      <c r="AM82">
+        <v>1.14</v>
+      </c>
+      <c r="AN82">
+        <v>1.67</v>
+      </c>
+      <c r="AO82">
+        <v>1.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.43</v>
+      </c>
+      <c r="AQ82">
+        <v>1.83</v>
+      </c>
+      <c r="AR82">
+        <v>1.27</v>
+      </c>
+      <c r="AS82">
+        <v>1.31</v>
+      </c>
+      <c r="AT82">
+        <v>2.58</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>10</v>
+      </c>
+      <c r="AW82">
         <v>4</v>
       </c>
-      <c r="T82">
-        <v>1.44</v>
-      </c>
-      <c r="U82">
-        <v>2.63</v>
-      </c>
-      <c r="V82">
-        <v>3.25</v>
-      </c>
-      <c r="W82">
-        <v>1.33</v>
-      </c>
-      <c r="X82">
-        <v>9</v>
-      </c>
-      <c r="Y82">
-        <v>1.07</v>
-      </c>
-      <c r="Z82">
-        <v>2.09</v>
-      </c>
-      <c r="AA82">
-        <v>3.14</v>
-      </c>
-      <c r="AB82">
-        <v>3.07</v>
-      </c>
-      <c r="AC82">
-        <v>1.06</v>
-      </c>
-      <c r="AD82">
-        <v>9</v>
-      </c>
-      <c r="AE82">
-        <v>1.33</v>
-      </c>
-      <c r="AF82">
-        <v>3.35</v>
-      </c>
-      <c r="AG82">
-        <v>2</v>
-      </c>
-      <c r="AH82">
-        <v>1.82</v>
-      </c>
-      <c r="AI82">
-        <v>1.8</v>
-      </c>
-      <c r="AJ82">
-        <v>1.95</v>
-      </c>
-      <c r="AK82">
-        <v>1.29</v>
-      </c>
-      <c r="AL82">
-        <v>1.29</v>
-      </c>
-      <c r="AM82">
-        <v>1.6</v>
-      </c>
-      <c r="AN82">
-        <v>2.2</v>
-      </c>
-      <c r="AO82">
-        <v>1.4</v>
-      </c>
-      <c r="AP82">
-        <v>2.33</v>
-      </c>
-      <c r="AQ82">
-        <v>1.17</v>
-      </c>
-      <c r="AR82">
-        <v>2.03</v>
-      </c>
-      <c r="AS82">
-        <v>1.78</v>
-      </c>
-      <c r="AT82">
-        <v>3.81</v>
-      </c>
-      <c r="AU82">
-        <v>8</v>
-      </c>
-      <c r="AV82">
-        <v>5</v>
-      </c>
-      <c r="AW82">
-        <v>3</v>
-      </c>
       <c r="AX82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY82">
         <v>13</v>
       </c>
       <c r="AZ82">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA82">
         <v>2</v>
       </c>
       <c r="BB82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC82">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD82">
-        <v>1.82</v>
+        <v>3.46</v>
       </c>
       <c r="BE82">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF82">
-        <v>2.39</v>
+        <v>1.45</v>
       </c>
       <c r="BG82">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BH82">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="BI82">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BJ82">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BK82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BL82">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BM82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BN82">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="BO82">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BP82">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17899,7 +17902,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18063,7 +18066,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7537369</v>
+        <v>7537370</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18072,49 +18075,49 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45621.54166666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84" t="s">
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="Q84">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R84">
         <v>2.1</v>
       </c>
       <c r="S84">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T84">
         <v>1.44</v>
@@ -18123,127 +18126,127 @@
         <v>2.63</v>
       </c>
       <c r="V84">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W84">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y84">
+        <v>1.07</v>
+      </c>
+      <c r="Z84">
+        <v>2.09</v>
+      </c>
+      <c r="AA84">
+        <v>3.14</v>
+      </c>
+      <c r="AB84">
+        <v>3.07</v>
+      </c>
+      <c r="AC84">
         <v>1.06</v>
       </c>
-      <c r="Z84">
-        <v>1.7</v>
-      </c>
-      <c r="AA84">
-        <v>3.45</v>
-      </c>
-      <c r="AB84">
-        <v>5</v>
-      </c>
-      <c r="AC84">
-        <v>1.08</v>
-      </c>
       <c r="AD84">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AE84">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AF84">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AG84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH84">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AI84">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AJ84">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AK84">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AL84">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AM84">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="AN84">
-        <v>0.67</v>
+        <v>2.2</v>
       </c>
       <c r="AO84">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="AS84">
-        <v>0.97</v>
+        <v>1.78</v>
       </c>
       <c r="AT84">
-        <v>2.29</v>
+        <v>3.81</v>
       </c>
       <c r="AU84">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV84">
         <v>5</v>
       </c>
       <c r="AW84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY84">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC84">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD84">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE84">
         <v>8</v>
       </c>
       <c r="BF84">
-        <v>2.77</v>
+        <v>2.39</v>
       </c>
       <c r="BG84">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BH84">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="BI84">
         <v>1.7</v>
       </c>
       <c r="BJ84">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BK84">
         <v>2.05</v>
@@ -18252,15 +18255,221 @@
         <v>1.7</v>
       </c>
       <c r="BM84">
+        <v>3</v>
+      </c>
+      <c r="BN84">
+        <v>1.32</v>
+      </c>
+      <c r="BO84">
+        <v>3.7</v>
+      </c>
+      <c r="BP84">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7537369</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45620.875</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q85">
+        <v>2.4</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>5.5</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.4</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>1.7</v>
+      </c>
+      <c r="AA85">
+        <v>3.45</v>
+      </c>
+      <c r="AB85">
+        <v>5</v>
+      </c>
+      <c r="AC85">
+        <v>1.08</v>
+      </c>
+      <c r="AD85">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE85">
+        <v>1.39</v>
+      </c>
+      <c r="AF85">
+        <v>3</v>
+      </c>
+      <c r="AG85">
+        <v>2.1</v>
+      </c>
+      <c r="AH85">
+        <v>1.65</v>
+      </c>
+      <c r="AI85">
+        <v>2.05</v>
+      </c>
+      <c r="AJ85">
+        <v>1.7</v>
+      </c>
+      <c r="AK85">
+        <v>1.16</v>
+      </c>
+      <c r="AL85">
+        <v>1.26</v>
+      </c>
+      <c r="AM85">
+        <v>1.93</v>
+      </c>
+      <c r="AN85">
+        <v>0.67</v>
+      </c>
+      <c r="AO85">
+        <v>0.6</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AR85">
+        <v>1.32</v>
+      </c>
+      <c r="AS85">
+        <v>0.97</v>
+      </c>
+      <c r="AT85">
+        <v>2.29</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>1</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.64</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>2.77</v>
+      </c>
+      <c r="BG85">
+        <v>1.36</v>
+      </c>
+      <c r="BH85">
+        <v>2.85</v>
+      </c>
+      <c r="BI85">
+        <v>1.7</v>
+      </c>
+      <c r="BJ85">
+        <v>2.1</v>
+      </c>
+      <c r="BK85">
+        <v>2.05</v>
+      </c>
+      <c r="BL85">
+        <v>1.7</v>
+      </c>
+      <c r="BM85">
         <v>3.1</v>
       </c>
-      <c r="BN84">
+      <c r="BN85">
         <v>1.31</v>
       </c>
-      <c r="BO84">
+      <c r="BO85">
         <v>4.35</v>
       </c>
-      <c r="BP84">
+      <c r="BP85">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -17251,7 +17251,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F80">
         <v>12</v>
@@ -17377,22 +17377,22 @@
         <v>2.11</v>
       </c>
       <c r="AU80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>5</v>
@@ -17460,7 +17460,7 @@
         <v>45619.60416666666</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -17583,22 +17583,22 @@
         <v>2.53</v>
       </c>
       <c r="AU81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>13</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>16</v>
+      </c>
+      <c r="AZ81">
         <v>4</v>
-      </c>
-      <c r="AW81">
-        <v>8</v>
-      </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>17</v>
-      </c>
-      <c r="AZ81">
-        <v>5</v>
       </c>
       <c r="BA81">
         <v>3</v>
@@ -17663,7 +17663,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45619.875</v>
+        <v>45620.5</v>
       </c>
       <c r="F82">
         <v>12</v>
@@ -17792,19 +17792,19 @@
         <v>3</v>
       </c>
       <c r="AV82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW82">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX82">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AY82">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA82">
         <v>2</v>
@@ -17869,7 +17869,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45619.875</v>
+        <v>45620.60416666666</v>
       </c>
       <c r="F83">
         <v>12</v>
@@ -17995,22 +17995,22 @@
         <v>2.88</v>
       </c>
       <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>8</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>10</v>
+      </c>
+      <c r="AY83">
         <v>5</v>
       </c>
-      <c r="AV83">
-        <v>6</v>
-      </c>
-      <c r="AW83">
-        <v>2</v>
-      </c>
-      <c r="AX83">
-        <v>5</v>
-      </c>
-      <c r="AY83">
-        <v>9</v>
-      </c>
       <c r="AZ83">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18075,7 +18075,7 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45619.875</v>
+        <v>45620.64583333334</v>
       </c>
       <c r="F84">
         <v>12</v>
@@ -18204,19 +18204,19 @@
         <v>8</v>
       </c>
       <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
         <v>5</v>
       </c>
-      <c r="AW84">
-        <v>3</v>
-      </c>
       <c r="AX84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY84">
         <v>13</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18281,10 +18281,10 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45620.875</v>
+        <v>45621.54166666666</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
         <v>74</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['54', '88']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['17', '45', '58', '89']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -553,9 +559,6 @@
     <t>['45', '53', '90+4']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['30']</t>
   </si>
   <si>
@@ -596,6 +599,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1222,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1422,7 +1428,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2040,7 +2046,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2121,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ7">
         <v>1.57</v>
@@ -2452,7 +2458,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2533,7 +2539,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2658,7 +2664,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2864,7 +2870,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2945,7 +2951,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3070,7 +3076,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3148,10 +3154,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3276,7 +3282,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3563,7 +3569,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3894,7 +3900,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4100,7 +4106,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4306,7 +4312,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4718,7 +4724,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4924,7 +4930,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ20">
         <v>1.57</v>
@@ -5130,7 +5136,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5336,7 +5342,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5748,7 +5754,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5954,7 +5960,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6241,7 +6247,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6572,7 +6578,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6653,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1</v>
@@ -6856,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6984,7 +6990,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7062,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ30">
         <v>2.67</v>
@@ -7396,7 +7402,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7602,7 +7608,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7808,7 +7814,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8014,7 +8020,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8095,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8426,7 +8432,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8504,7 +8510,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8632,7 +8638,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8838,7 +8844,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8919,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -9331,7 +9337,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -9534,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ42">
         <v>1.83</v>
@@ -9662,7 +9668,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9868,7 +9874,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10361,7 +10367,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10486,7 +10492,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10692,7 +10698,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10898,7 +10904,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11388,7 +11394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11516,7 +11522,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11597,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11928,7 +11934,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12134,7 +12140,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12546,7 +12552,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12624,7 +12630,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ57">
         <v>2.67</v>
@@ -12752,7 +12758,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12958,7 +12964,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13039,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13576,7 +13582,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13657,7 +13663,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.7</v>
@@ -13782,7 +13788,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13988,7 +13994,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14400,7 +14406,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14481,7 +14487,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -14606,7 +14612,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14812,7 +14818,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14890,7 +14896,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ68">
         <v>1.83</v>
@@ -15018,7 +15024,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15224,7 +15230,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15717,7 +15723,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.28</v>
@@ -15842,7 +15848,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16126,7 +16132,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16254,7 +16260,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16460,7 +16466,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16747,7 +16753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -16872,7 +16878,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17078,7 +17084,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17284,7 +17290,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17490,7 +17496,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2.1</v>
@@ -17696,7 +17702,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17902,7 +17908,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18314,7 +18320,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18470,6 +18476,624 @@
         <v>4.35</v>
       </c>
       <c r="BP85">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7537374</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86">
+        <v>2.63</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>4.75</v>
+      </c>
+      <c r="T86">
+        <v>1.5</v>
+      </c>
+      <c r="U86">
+        <v>2.5</v>
+      </c>
+      <c r="V86">
+        <v>3.4</v>
+      </c>
+      <c r="W86">
+        <v>1.3</v>
+      </c>
+      <c r="X86">
+        <v>10</v>
+      </c>
+      <c r="Y86">
+        <v>1.06</v>
+      </c>
+      <c r="Z86">
+        <v>1.92</v>
+      </c>
+      <c r="AA86">
+        <v>2.99</v>
+      </c>
+      <c r="AB86">
+        <v>3.4</v>
+      </c>
+      <c r="AC86">
+        <v>1.08</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>1.41</v>
+      </c>
+      <c r="AF86">
+        <v>2.95</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>1.7</v>
+      </c>
+      <c r="AI86">
+        <v>1.95</v>
+      </c>
+      <c r="AJ86">
+        <v>1.8</v>
+      </c>
+      <c r="AK86">
+        <v>1.23</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.71</v>
+      </c>
+      <c r="AN86">
+        <v>0.17</v>
+      </c>
+      <c r="AO86">
+        <v>0.83</v>
+      </c>
+      <c r="AP86">
+        <v>0.29</v>
+      </c>
+      <c r="AQ86">
+        <v>0.86</v>
+      </c>
+      <c r="AR86">
+        <v>1.38</v>
+      </c>
+      <c r="AS86">
+        <v>0.9</v>
+      </c>
+      <c r="AT86">
+        <v>2.28</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>1.48</v>
+      </c>
+      <c r="BE86">
+        <v>6.4</v>
+      </c>
+      <c r="BF86">
+        <v>3.6</v>
+      </c>
+      <c r="BG86">
+        <v>1.41</v>
+      </c>
+      <c r="BH86">
+        <v>2.52</v>
+      </c>
+      <c r="BI86">
+        <v>1.82</v>
+      </c>
+      <c r="BJ86">
+        <v>1.98</v>
+      </c>
+      <c r="BK86">
+        <v>2.26</v>
+      </c>
+      <c r="BL86">
+        <v>1.51</v>
+      </c>
+      <c r="BM86">
+        <v>3.02</v>
+      </c>
+      <c r="BN86">
+        <v>1.27</v>
+      </c>
+      <c r="BO86">
+        <v>4.1</v>
+      </c>
+      <c r="BP86">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7537375</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>140</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>3.25</v>
+      </c>
+      <c r="R87">
+        <v>1.91</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.57</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>3.75</v>
+      </c>
+      <c r="W87">
+        <v>1.25</v>
+      </c>
+      <c r="X87">
+        <v>13</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>2.33</v>
+      </c>
+      <c r="AA87">
+        <v>2.87</v>
+      </c>
+      <c r="AB87">
+        <v>2.91</v>
+      </c>
+      <c r="AC87">
+        <v>1.11</v>
+      </c>
+      <c r="AD87">
+        <v>6.8</v>
+      </c>
+      <c r="AE87">
+        <v>1.5</v>
+      </c>
+      <c r="AF87">
+        <v>2.4</v>
+      </c>
+      <c r="AG87">
+        <v>2.2</v>
+      </c>
+      <c r="AH87">
+        <v>1.6</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.33</v>
+      </c>
+      <c r="AL87">
+        <v>1.33</v>
+      </c>
+      <c r="AM87">
+        <v>1.49</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1.6</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.2</v>
+      </c>
+      <c r="AS87">
+        <v>0.93</v>
+      </c>
+      <c r="AT87">
+        <v>2.13</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>6</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>5</v>
+      </c>
+      <c r="BD87">
+        <v>1.46</v>
+      </c>
+      <c r="BE87">
+        <v>7.1</v>
+      </c>
+      <c r="BF87">
+        <v>3.3</v>
+      </c>
+      <c r="BG87">
+        <v>1.45</v>
+      </c>
+      <c r="BH87">
+        <v>2.66</v>
+      </c>
+      <c r="BI87">
+        <v>1.8</v>
+      </c>
+      <c r="BJ87">
+        <v>2</v>
+      </c>
+      <c r="BK87">
+        <v>2.26</v>
+      </c>
+      <c r="BL87">
+        <v>1.6</v>
+      </c>
+      <c r="BM87">
+        <v>3.2</v>
+      </c>
+      <c r="BN87">
+        <v>1.3</v>
+      </c>
+      <c r="BO87">
+        <v>4.5</v>
+      </c>
+      <c r="BP87">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7537373</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45626.64583333334</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>141</v>
+      </c>
+      <c r="P88" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>1.4</v>
+      </c>
+      <c r="AA88">
+        <v>3.87</v>
+      </c>
+      <c r="AB88">
+        <v>6.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE88">
+        <v>1.34</v>
+      </c>
+      <c r="AF88">
+        <v>3.3</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.7</v>
+      </c>
+      <c r="AI88">
+        <v>2.2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.62</v>
+      </c>
+      <c r="AK88">
+        <v>1.1</v>
+      </c>
+      <c r="AL88">
+        <v>1.19</v>
+      </c>
+      <c r="AM88">
+        <v>2.38</v>
+      </c>
+      <c r="AN88">
+        <v>2.33</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
+        <v>2.43</v>
+      </c>
+      <c r="AQ88">
+        <v>1.14</v>
+      </c>
+      <c r="AR88">
+        <v>1.86</v>
+      </c>
+      <c r="AS88">
+        <v>1.24</v>
+      </c>
+      <c r="AT88">
+        <v>3.1</v>
+      </c>
+      <c r="AU88">
+        <v>10</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>23</v>
+      </c>
+      <c r="AZ88">
+        <v>4</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.04</v>
+      </c>
+      <c r="BE88">
+        <v>12.5</v>
+      </c>
+      <c r="BF88">
+        <v>10.5</v>
+      </c>
+      <c r="BG88">
+        <v>1.45</v>
+      </c>
+      <c r="BH88">
+        <v>2.64</v>
+      </c>
+      <c r="BI88">
+        <v>1.82</v>
+      </c>
+      <c r="BJ88">
+        <v>1.98</v>
+      </c>
+      <c r="BK88">
+        <v>2.31</v>
+      </c>
+      <c r="BL88">
+        <v>1.58</v>
+      </c>
+      <c r="BM88">
+        <v>3.3</v>
+      </c>
+      <c r="BN88">
+        <v>1.28</v>
+      </c>
+      <c r="BO88">
+        <v>4.4</v>
+      </c>
+      <c r="BP88">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['17', '45', '58', '89']</t>
   </si>
   <si>
+    <t>['15', '82']</t>
+  </si>
+  <si>
+    <t>['21', '82']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -602,6 +611,15 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['60', '88']</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1240,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1303,7 +1321,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1428,7 +1446,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1506,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ3">
         <v>1.29</v>
@@ -1715,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1918,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2046,7 +2064,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2458,7 +2476,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2664,7 +2682,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2742,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2870,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2948,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3076,7 +3094,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3282,7 +3300,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3566,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3772,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3900,7 +3918,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3981,7 +3999,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4106,7 +4124,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4187,7 +4205,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4312,7 +4330,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4393,7 +4411,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4724,7 +4742,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4930,7 +4948,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5136,7 +5154,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5342,7 +5360,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5629,7 +5647,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -5754,7 +5772,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5835,7 +5853,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -5960,7 +5978,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6038,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6450,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>1.83</v>
@@ -6578,7 +6596,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6656,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6990,7 +7008,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7277,7 +7295,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7402,7 +7420,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7483,7 +7501,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7608,7 +7626,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7814,7 +7832,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7892,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>1.29</v>
@@ -8020,7 +8038,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8432,7 +8450,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8513,7 +8531,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -8638,7 +8656,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8844,7 +8862,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8922,7 +8940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9131,7 +9149,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9334,7 +9352,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>1.14</v>
@@ -9668,7 +9686,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9874,7 +9892,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10492,7 +10510,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10570,7 +10588,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -10698,7 +10716,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10779,7 +10797,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -10904,7 +10922,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11188,10 +11206,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11522,7 +11540,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11809,7 +11827,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -11934,7 +11952,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12140,7 +12158,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12218,7 +12236,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12427,7 +12445,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12552,7 +12570,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12758,7 +12776,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12964,7 +12982,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13248,7 +13266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13457,7 +13475,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -13582,7 +13600,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13660,7 +13678,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -13788,7 +13806,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13866,7 +13884,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
         <v>1.57</v>
@@ -13994,7 +14012,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14075,7 +14093,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR64">
         <v>1.31</v>
@@ -14612,7 +14630,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14818,7 +14836,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15024,7 +15042,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15230,7 +15248,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15848,7 +15866,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -15926,10 +15944,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.13</v>
@@ -16135,7 +16153,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>1.64</v>
@@ -16260,7 +16278,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16338,10 +16356,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16466,7 +16484,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16750,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
         <v>0.86</v>
@@ -16878,7 +16896,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -16956,10 +16974,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17084,7 +17102,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17290,7 +17308,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17496,7 +17514,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>2.1</v>
@@ -17702,7 +17720,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17908,7 +17926,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18320,7 +18338,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18493,7 +18511,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45626.5</v>
+        <v>45625.875</v>
       </c>
       <c r="F86">
         <v>13</v>
@@ -18732,7 +18750,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19095,6 +19113,830 @@
       </c>
       <c r="BP88">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7537378</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>142</v>
+      </c>
+      <c r="P89" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q89">
+        <v>3.5</v>
+      </c>
+      <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
+        <v>3.25</v>
+      </c>
+      <c r="T89">
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.4</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>10</v>
+      </c>
+      <c r="Y89">
+        <v>1.06</v>
+      </c>
+      <c r="Z89">
+        <v>2.93</v>
+      </c>
+      <c r="AA89">
+        <v>3.16</v>
+      </c>
+      <c r="AB89">
+        <v>2.45</v>
+      </c>
+      <c r="AC89">
+        <v>1.07</v>
+      </c>
+      <c r="AD89">
+        <v>8.4</v>
+      </c>
+      <c r="AE89">
+        <v>1.38</v>
+      </c>
+      <c r="AF89">
+        <v>3.1</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>1.65</v>
+      </c>
+      <c r="AI89">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89">
+        <v>1.91</v>
+      </c>
+      <c r="AK89">
+        <v>1.46</v>
+      </c>
+      <c r="AL89">
+        <v>1.31</v>
+      </c>
+      <c r="AM89">
+        <v>1.39</v>
+      </c>
+      <c r="AN89">
+        <v>0.8</v>
+      </c>
+      <c r="AO89">
+        <v>1.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89">
+        <v>1.29</v>
+      </c>
+      <c r="AR89">
+        <v>1.12</v>
+      </c>
+      <c r="AS89">
+        <v>0.93</v>
+      </c>
+      <c r="AT89">
+        <v>2.05</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>12</v>
+      </c>
+      <c r="BD89">
+        <v>2.4</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>1.82</v>
+      </c>
+      <c r="BG89">
+        <v>1.52</v>
+      </c>
+      <c r="BH89">
+        <v>2.32</v>
+      </c>
+      <c r="BI89">
+        <v>1.98</v>
+      </c>
+      <c r="BJ89">
+        <v>1.82</v>
+      </c>
+      <c r="BK89">
+        <v>2.65</v>
+      </c>
+      <c r="BL89">
+        <v>1.41</v>
+      </c>
+      <c r="BM89">
+        <v>3.8</v>
+      </c>
+      <c r="BN89">
+        <v>1.22</v>
+      </c>
+      <c r="BO89">
+        <v>4.8</v>
+      </c>
+      <c r="BP89">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7537376</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>2.4</v>
+      </c>
+      <c r="S90">
+        <v>1.91</v>
+      </c>
+      <c r="T90">
+        <v>1.33</v>
+      </c>
+      <c r="U90">
+        <v>3.25</v>
+      </c>
+      <c r="V90">
+        <v>2.63</v>
+      </c>
+      <c r="W90">
+        <v>1.44</v>
+      </c>
+      <c r="X90">
+        <v>6.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>7</v>
+      </c>
+      <c r="AA90">
+        <v>4.2</v>
+      </c>
+      <c r="AB90">
+        <v>1.4</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.24</v>
+      </c>
+      <c r="AF90">
+        <v>4.1</v>
+      </c>
+      <c r="AG90">
+        <v>1.8</v>
+      </c>
+      <c r="AH90">
+        <v>1.95</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.8</v>
+      </c>
+      <c r="AK90">
+        <v>2.5</v>
+      </c>
+      <c r="AL90">
+        <v>1.18</v>
+      </c>
+      <c r="AM90">
+        <v>1.08</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>1.67</v>
+      </c>
+      <c r="AP90">
+        <v>0.83</v>
+      </c>
+      <c r="AQ90">
+        <v>1.86</v>
+      </c>
+      <c r="AR90">
+        <v>1.22</v>
+      </c>
+      <c r="AS90">
+        <v>1.79</v>
+      </c>
+      <c r="AT90">
+        <v>3.01</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>18</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>6</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>4.44</v>
+      </c>
+      <c r="BE90">
+        <v>9.5</v>
+      </c>
+      <c r="BF90">
+        <v>1.3</v>
+      </c>
+      <c r="BG90">
+        <v>1.36</v>
+      </c>
+      <c r="BH90">
+        <v>2.7</v>
+      </c>
+      <c r="BI90">
+        <v>1.98</v>
+      </c>
+      <c r="BJ90">
+        <v>1.82</v>
+      </c>
+      <c r="BK90">
+        <v>2.1</v>
+      </c>
+      <c r="BL90">
+        <v>1.59</v>
+      </c>
+      <c r="BM90">
+        <v>2.73</v>
+      </c>
+      <c r="BN90">
+        <v>1.33</v>
+      </c>
+      <c r="BO90">
+        <v>4.5</v>
+      </c>
+      <c r="BP90">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7537379</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45627.58333333334</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>143</v>
+      </c>
+      <c r="P91" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q91">
+        <v>1.67</v>
+      </c>
+      <c r="R91">
+        <v>2.63</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.5</v>
+      </c>
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.53</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.18</v>
+      </c>
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>11</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.7</v>
+      </c>
+      <c r="AG91">
+        <v>1.57</v>
+      </c>
+      <c r="AH91">
+        <v>2.25</v>
+      </c>
+      <c r="AI91">
+        <v>2.2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.62</v>
+      </c>
+      <c r="AK91">
+        <v>1.05</v>
+      </c>
+      <c r="AL91">
+        <v>1.1</v>
+      </c>
+      <c r="AM91">
+        <v>3.2</v>
+      </c>
+      <c r="AN91">
+        <v>1.17</v>
+      </c>
+      <c r="AO91">
+        <v>0.67</v>
+      </c>
+      <c r="AP91">
+        <v>1.14</v>
+      </c>
+      <c r="AQ91">
+        <v>0.71</v>
+      </c>
+      <c r="AR91">
+        <v>1.68</v>
+      </c>
+      <c r="AS91">
+        <v>0.95</v>
+      </c>
+      <c r="AT91">
+        <v>2.63</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>18</v>
+      </c>
+      <c r="AZ91">
+        <v>9</v>
+      </c>
+      <c r="BA91">
+        <v>7</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>1.19</v>
+      </c>
+      <c r="BE91">
+        <v>13.2</v>
+      </c>
+      <c r="BF91">
+        <v>5.87</v>
+      </c>
+      <c r="BG91">
+        <v>1.4</v>
+      </c>
+      <c r="BH91">
+        <v>2.56</v>
+      </c>
+      <c r="BI91">
+        <v>1.76</v>
+      </c>
+      <c r="BJ91">
+        <v>1.95</v>
+      </c>
+      <c r="BK91">
+        <v>2.21</v>
+      </c>
+      <c r="BL91">
+        <v>1.53</v>
+      </c>
+      <c r="BM91">
+        <v>2.92</v>
+      </c>
+      <c r="BN91">
+        <v>1.29</v>
+      </c>
+      <c r="BO91">
+        <v>4.35</v>
+      </c>
+      <c r="BP91">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7537377</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45627.64583333334</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q92">
+        <v>2.05</v>
+      </c>
+      <c r="R92">
+        <v>2.25</v>
+      </c>
+      <c r="S92">
+        <v>6.5</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>1.38</v>
+      </c>
+      <c r="AA92">
+        <v>4.05</v>
+      </c>
+      <c r="AB92">
+        <v>7.7</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>9.4</v>
+      </c>
+      <c r="AE92">
+        <v>1.33</v>
+      </c>
+      <c r="AF92">
+        <v>3.35</v>
+      </c>
+      <c r="AG92">
+        <v>1.97</v>
+      </c>
+      <c r="AH92">
+        <v>1.69</v>
+      </c>
+      <c r="AI92">
+        <v>2.05</v>
+      </c>
+      <c r="AJ92">
+        <v>1.7</v>
+      </c>
+      <c r="AK92">
+        <v>1.11</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>2.29</v>
+      </c>
+      <c r="AN92">
+        <v>1.83</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>1.71</v>
+      </c>
+      <c r="AQ92">
+        <v>1.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.7</v>
+      </c>
+      <c r="AS92">
+        <v>1.23</v>
+      </c>
+      <c r="AT92">
+        <v>2.93</v>
+      </c>
+      <c r="AU92">
+        <v>8</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>18</v>
+      </c>
+      <c r="AZ92">
+        <v>7</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.27</v>
+      </c>
+      <c r="BE92">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF92">
+        <v>5.09</v>
+      </c>
+      <c r="BG92">
+        <v>1.37</v>
+      </c>
+      <c r="BH92">
+        <v>2.66</v>
+      </c>
+      <c r="BI92">
+        <v>1.71</v>
+      </c>
+      <c r="BJ92">
+        <v>2.02</v>
+      </c>
+      <c r="BK92">
+        <v>2.14</v>
+      </c>
+      <c r="BL92">
+        <v>1.57</v>
+      </c>
+      <c r="BM92">
+        <v>2.82</v>
+      </c>
+      <c r="BN92">
+        <v>1.31</v>
+      </c>
+      <c r="BO92">
+        <v>3.8</v>
+      </c>
+      <c r="BP92">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -442,15 +442,15 @@
     <t>['17', '45', '58', '89']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['15', '82']</t>
   </si>
   <si>
     <t>['21', '82']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -574,12 +574,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['59', '75']</t>
-  </si>
-  <si>
     <t>['8', '13', '25']</t>
   </si>
   <si>
@@ -613,13 +613,13 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['60', '88']</t>
   </si>
   <si>
     <t>['59', '90+1']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -15000,7 +15000,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7537354</v>
+        <v>7537357</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15015,49 +15015,49 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="P69" t="s">
         <v>186</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="R69">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S69">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V69">
         <v>2.63</v>
@@ -15066,19 +15066,19 @@
         <v>1.44</v>
       </c>
       <c r="X69">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y69">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z69">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA69">
-        <v>4.15</v>
+        <v>4.9</v>
       </c>
       <c r="AB69">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AC69">
         <v>1.01</v>
@@ -15087,118 +15087,118 @@
         <v>11</v>
       </c>
       <c r="AE69">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AF69">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AG69">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AH69">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AI69">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AJ69">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK69">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="AL69">
+        <v>1.15</v>
+      </c>
+      <c r="AM69">
+        <v>1.08</v>
+      </c>
+      <c r="AN69">
+        <v>0.5</v>
+      </c>
+      <c r="AO69">
+        <v>2.5</v>
+      </c>
+      <c r="AP69">
+        <v>0.5</v>
+      </c>
+      <c r="AQ69">
+        <v>2.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.11</v>
+      </c>
+      <c r="AS69">
         <v>1.21</v>
       </c>
-      <c r="AM69">
-        <v>1.14</v>
-      </c>
-      <c r="AN69">
-        <v>0.8</v>
-      </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>1</v>
-      </c>
-      <c r="AQ69">
-        <v>1.17</v>
-      </c>
-      <c r="AR69">
-        <v>1.44</v>
-      </c>
-      <c r="AS69">
-        <v>1.98</v>
-      </c>
       <c r="AT69">
-        <v>3.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW69">
         <v>3</v>
       </c>
       <c r="AX69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD69">
-        <v>4.95</v>
+        <v>6.9</v>
       </c>
       <c r="BE69">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF69">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="BG69">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BH69">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="BI69">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BJ69">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BK69">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="BL69">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BM69">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BN69">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BO69">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BP69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15206,7 +15206,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7537357</v>
+        <v>7537354</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15221,49 +15221,49 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P70" t="s">
         <v>187</v>
       </c>
       <c r="Q70">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="R70">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S70">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T70">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V70">
         <v>2.63</v>
@@ -15272,19 +15272,19 @@
         <v>1.44</v>
       </c>
       <c r="X70">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="AA70">
-        <v>4.9</v>
+        <v>4.15</v>
       </c>
       <c r="AB70">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AC70">
         <v>1.01</v>
@@ -15293,118 +15293,118 @@
         <v>11</v>
       </c>
       <c r="AE70">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AF70">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG70">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AH70">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AI70">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ70">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK70">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="AL70">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AM70">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AN70">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO70">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.98</v>
       </c>
       <c r="AT70">
-        <v>2.32</v>
+        <v>3.42</v>
       </c>
       <c r="AU70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW70">
         <v>3</v>
       </c>
       <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>6</v>
+      </c>
+      <c r="AZ70">
+        <v>8</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
         <v>7</v>
       </c>
-      <c r="AY70">
-        <v>9</v>
-      </c>
-      <c r="AZ70">
-        <v>17</v>
-      </c>
-      <c r="BA70">
-        <v>1</v>
-      </c>
-      <c r="BB70">
-        <v>9</v>
-      </c>
-      <c r="BC70">
-        <v>10</v>
-      </c>
       <c r="BD70">
-        <v>6.9</v>
+        <v>4.95</v>
       </c>
       <c r="BE70">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF70">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="BG70">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BH70">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="BI70">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BJ70">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BK70">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="BL70">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BM70">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BN70">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BO70">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BP70">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -18511,7 +18511,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45625.875</v>
+        <v>45626.5</v>
       </c>
       <c r="F86">
         <v>13</v>
@@ -19120,7 +19120,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7537378</v>
+        <v>7537377</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19129,196 +19129,196 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45627.4375</v>
+        <v>45626.875</v>
       </c>
       <c r="F89">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="Q89">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>6.5</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>1.38</v>
+      </c>
+      <c r="AA89">
+        <v>4.05</v>
+      </c>
+      <c r="AB89">
+        <v>7.7</v>
+      </c>
+      <c r="AC89">
+        <v>1.06</v>
+      </c>
+      <c r="AD89">
+        <v>9.4</v>
+      </c>
+      <c r="AE89">
+        <v>1.33</v>
+      </c>
+      <c r="AF89">
+        <v>3.35</v>
+      </c>
+      <c r="AG89">
+        <v>1.97</v>
+      </c>
+      <c r="AH89">
+        <v>1.69</v>
+      </c>
+      <c r="AI89">
         <v>2.05</v>
       </c>
-      <c r="S89">
-        <v>3.25</v>
-      </c>
-      <c r="T89">
-        <v>1.44</v>
-      </c>
-      <c r="U89">
-        <v>2.63</v>
-      </c>
-      <c r="V89">
-        <v>3.4</v>
-      </c>
-      <c r="W89">
-        <v>1.3</v>
-      </c>
-      <c r="X89">
-        <v>10</v>
-      </c>
-      <c r="Y89">
-        <v>1.06</v>
-      </c>
-      <c r="Z89">
+      <c r="AJ89">
+        <v>1.7</v>
+      </c>
+      <c r="AK89">
+        <v>1.11</v>
+      </c>
+      <c r="AL89">
+        <v>1.2</v>
+      </c>
+      <c r="AM89">
+        <v>2.29</v>
+      </c>
+      <c r="AN89">
+        <v>1.83</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>1.71</v>
+      </c>
+      <c r="AQ89">
+        <v>1.83</v>
+      </c>
+      <c r="AR89">
+        <v>1.7</v>
+      </c>
+      <c r="AS89">
+        <v>1.23</v>
+      </c>
+      <c r="AT89">
         <v>2.93</v>
-      </c>
-      <c r="AA89">
-        <v>3.16</v>
-      </c>
-      <c r="AB89">
-        <v>2.45</v>
-      </c>
-      <c r="AC89">
-        <v>1.07</v>
-      </c>
-      <c r="AD89">
-        <v>8.4</v>
-      </c>
-      <c r="AE89">
-        <v>1.38</v>
-      </c>
-      <c r="AF89">
-        <v>3.1</v>
-      </c>
-      <c r="AG89">
-        <v>2</v>
-      </c>
-      <c r="AH89">
-        <v>1.65</v>
-      </c>
-      <c r="AI89">
-        <v>1.91</v>
-      </c>
-      <c r="AJ89">
-        <v>1.91</v>
-      </c>
-      <c r="AK89">
-        <v>1.46</v>
-      </c>
-      <c r="AL89">
-        <v>1.31</v>
-      </c>
-      <c r="AM89">
-        <v>1.39</v>
-      </c>
-      <c r="AN89">
-        <v>0.8</v>
-      </c>
-      <c r="AO89">
-        <v>1.5</v>
-      </c>
-      <c r="AP89">
-        <v>1.17</v>
-      </c>
-      <c r="AQ89">
-        <v>1.29</v>
-      </c>
-      <c r="AR89">
-        <v>1.12</v>
-      </c>
-      <c r="AS89">
-        <v>0.93</v>
-      </c>
-      <c r="AT89">
-        <v>2.05</v>
       </c>
       <c r="AU89">
         <v>8</v>
       </c>
       <c r="AV89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>18</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
         <v>6</v>
       </c>
-      <c r="AY89">
-        <v>15</v>
-      </c>
-      <c r="AZ89">
-        <v>12</v>
-      </c>
-      <c r="BA89">
+      <c r="BB89">
+        <v>1</v>
+      </c>
+      <c r="BC89">
         <v>7</v>
       </c>
-      <c r="BB89">
-        <v>5</v>
-      </c>
-      <c r="BC89">
-        <v>12</v>
-      </c>
       <c r="BD89">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="BE89">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF89">
-        <v>1.82</v>
+        <v>5.09</v>
       </c>
       <c r="BG89">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="BH89">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="BI89">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="BJ89">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="BK89">
-        <v>2.65</v>
+        <v>2.14</v>
       </c>
       <c r="BL89">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="BM89">
+        <v>2.82</v>
+      </c>
+      <c r="BN89">
+        <v>1.31</v>
+      </c>
+      <c r="BO89">
         <v>3.8</v>
       </c>
-      <c r="BN89">
+      <c r="BP89">
         <v>1.22</v>
-      </c>
-      <c r="BO89">
-        <v>4.8</v>
-      </c>
-      <c r="BP89">
-        <v>1.14</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19335,7 +19335,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45627.5</v>
+        <v>45626.875</v>
       </c>
       <c r="F90">
         <v>13</v>
@@ -19368,7 +19368,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19532,7 +19532,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7537379</v>
+        <v>7537378</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19541,196 +19541,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45627.58333333334</v>
+        <v>45627.4375</v>
       </c>
       <c r="F91">
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O91" t="s">
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="Q91">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>3.25</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
         <v>2.63</v>
       </c>
-      <c r="S91">
+      <c r="V91">
+        <v>3.4</v>
+      </c>
+      <c r="W91">
+        <v>1.3</v>
+      </c>
+      <c r="X91">
         <v>10</v>
       </c>
-      <c r="T91">
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>2.93</v>
+      </c>
+      <c r="AA91">
+        <v>3.16</v>
+      </c>
+      <c r="AB91">
+        <v>2.45</v>
+      </c>
+      <c r="AC91">
+        <v>1.07</v>
+      </c>
+      <c r="AD91">
+        <v>8.4</v>
+      </c>
+      <c r="AE91">
+        <v>1.38</v>
+      </c>
+      <c r="AF91">
+        <v>3.1</v>
+      </c>
+      <c r="AG91">
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <v>1.65</v>
+      </c>
+      <c r="AI91">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91">
+        <v>1.91</v>
+      </c>
+      <c r="AK91">
+        <v>1.46</v>
+      </c>
+      <c r="AL91">
+        <v>1.31</v>
+      </c>
+      <c r="AM91">
+        <v>1.39</v>
+      </c>
+      <c r="AN91">
+        <v>0.8</v>
+      </c>
+      <c r="AO91">
+        <v>1.5</v>
+      </c>
+      <c r="AP91">
+        <v>1.17</v>
+      </c>
+      <c r="AQ91">
         <v>1.29</v>
       </c>
-      <c r="U91">
-        <v>3.5</v>
-      </c>
-      <c r="V91">
-        <v>2.38</v>
-      </c>
-      <c r="W91">
-        <v>1.53</v>
-      </c>
-      <c r="X91">
-        <v>5.5</v>
-      </c>
-      <c r="Y91">
-        <v>1.14</v>
-      </c>
-      <c r="Z91">
-        <v>1.18</v>
-      </c>
-      <c r="AA91">
-        <v>6</v>
-      </c>
-      <c r="AB91">
-        <v>11</v>
-      </c>
-      <c r="AC91">
-        <v>1.01</v>
-      </c>
-      <c r="AD91">
-        <v>13</v>
-      </c>
-      <c r="AE91">
-        <v>1.2</v>
-      </c>
-      <c r="AF91">
-        <v>4.7</v>
-      </c>
-      <c r="AG91">
-        <v>1.57</v>
-      </c>
-      <c r="AH91">
-        <v>2.25</v>
-      </c>
-      <c r="AI91">
-        <v>2.2</v>
-      </c>
-      <c r="AJ91">
-        <v>1.62</v>
-      </c>
-      <c r="AK91">
-        <v>1.05</v>
-      </c>
-      <c r="AL91">
-        <v>1.1</v>
-      </c>
-      <c r="AM91">
-        <v>3.2</v>
-      </c>
-      <c r="AN91">
-        <v>1.17</v>
-      </c>
-      <c r="AO91">
-        <v>0.67</v>
-      </c>
-      <c r="AP91">
-        <v>1.14</v>
-      </c>
-      <c r="AQ91">
-        <v>0.71</v>
-      </c>
       <c r="AR91">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="AS91">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AT91">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
         <v>5</v>
-      </c>
-      <c r="AV91">
-        <v>3</v>
       </c>
       <c r="AW91">
         <v>5</v>
       </c>
       <c r="AX91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY91">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ91">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA91">
         <v>7</v>
       </c>
       <c r="BB91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD91">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="BE91">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF91">
-        <v>5.87</v>
+        <v>1.82</v>
       </c>
       <c r="BG91">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BH91">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="BI91">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="BJ91">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BK91">
-        <v>2.21</v>
+        <v>2.65</v>
       </c>
       <c r="BL91">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="BM91">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="BN91">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BO91">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="BP91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19738,7 +19738,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7537377</v>
+        <v>7537379</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19747,16 +19747,16 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45627.64583333334</v>
+        <v>45627.58333333334</v>
       </c>
       <c r="F92">
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H92" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -19768,13 +19768,13 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
         <v>144</v>
@@ -19783,160 +19783,160 @@
         <v>201</v>
       </c>
       <c r="Q92">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="R92">
+        <v>2.63</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>1.29</v>
+      </c>
+      <c r="U92">
+        <v>3.5</v>
+      </c>
+      <c r="V92">
+        <v>2.38</v>
+      </c>
+      <c r="W92">
+        <v>1.53</v>
+      </c>
+      <c r="X92">
+        <v>5.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>1.18</v>
+      </c>
+      <c r="AA92">
+        <v>6</v>
+      </c>
+      <c r="AB92">
+        <v>11</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>13</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4.7</v>
+      </c>
+      <c r="AG92">
+        <v>1.57</v>
+      </c>
+      <c r="AH92">
         <v>2.25</v>
       </c>
-      <c r="S92">
-        <v>6.5</v>
-      </c>
-      <c r="T92">
-        <v>1.4</v>
-      </c>
-      <c r="U92">
-        <v>2.75</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>1.36</v>
-      </c>
-      <c r="X92">
-        <v>8</v>
-      </c>
-      <c r="Y92">
-        <v>1.08</v>
-      </c>
-      <c r="Z92">
-        <v>1.38</v>
-      </c>
-      <c r="AA92">
-        <v>4.05</v>
-      </c>
-      <c r="AB92">
-        <v>7.7</v>
-      </c>
-      <c r="AC92">
-        <v>1.06</v>
-      </c>
-      <c r="AD92">
-        <v>9.4</v>
-      </c>
-      <c r="AE92">
-        <v>1.33</v>
-      </c>
-      <c r="AF92">
-        <v>3.35</v>
-      </c>
-      <c r="AG92">
-        <v>1.97</v>
-      </c>
-      <c r="AH92">
-        <v>1.69</v>
-      </c>
       <c r="AI92">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AJ92">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AK92">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AL92">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AM92">
-        <v>2.29</v>
+        <v>3.2</v>
       </c>
       <c r="AN92">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="AT92">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="AU92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV92">
         <v>3</v>
       </c>
       <c r="AW92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY92">
         <v>18</v>
       </c>
       <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
         <v>7</v>
       </c>
-      <c r="BA92">
-        <v>6</v>
-      </c>
       <c r="BB92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC92">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD92">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BE92">
-        <v>9.800000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="BF92">
-        <v>5.09</v>
+        <v>5.87</v>
       </c>
       <c r="BG92">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BH92">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="BI92">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="BJ92">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BK92">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="BL92">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BM92">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="BN92">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BO92">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="BP92">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -19270,7 +19270,7 @@
         <v>18</v>
       </c>
       <c r="AZ89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA89">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -442,15 +442,15 @@
     <t>['17', '45', '58', '89']</t>
   </si>
   <si>
+    <t>['15', '82']</t>
+  </si>
+  <si>
+    <t>['21', '82']</t>
+  </si>
+  <si>
     <t>['16']</t>
   </si>
   <si>
-    <t>['15', '82']</t>
-  </si>
-  <si>
-    <t>['21', '82']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -574,12 +574,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['59', '75']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['8', '13', '25']</t>
   </si>
   <si>
@@ -613,13 +613,13 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['60', '88']</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
+  </si>
+  <si>
     <t>['90']</t>
-  </si>
-  <si>
-    <t>['60', '88']</t>
-  </si>
-  <si>
-    <t>['59', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -15000,7 +15000,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7537357</v>
+        <v>7537354</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15015,49 +15015,49 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P69" t="s">
         <v>186</v>
       </c>
       <c r="Q69">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="R69">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S69">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T69">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V69">
         <v>2.63</v>
@@ -15066,19 +15066,19 @@
         <v>1.44</v>
       </c>
       <c r="X69">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="AA69">
-        <v>4.9</v>
+        <v>4.15</v>
       </c>
       <c r="AB69">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AC69">
         <v>1.01</v>
@@ -15087,118 +15087,118 @@
         <v>11</v>
       </c>
       <c r="AE69">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AF69">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG69">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AH69">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AI69">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ69">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK69">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="AL69">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AM69">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO69">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AS69">
-        <v>1.21</v>
+        <v>1.98</v>
       </c>
       <c r="AT69">
-        <v>2.32</v>
+        <v>3.42</v>
       </c>
       <c r="AU69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW69">
         <v>3</v>
       </c>
       <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>6</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
         <v>7</v>
       </c>
-      <c r="AY69">
-        <v>9</v>
-      </c>
-      <c r="AZ69">
-        <v>17</v>
-      </c>
-      <c r="BA69">
-        <v>1</v>
-      </c>
-      <c r="BB69">
-        <v>9</v>
-      </c>
-      <c r="BC69">
-        <v>10</v>
-      </c>
       <c r="BD69">
-        <v>6.9</v>
+        <v>4.95</v>
       </c>
       <c r="BE69">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="BG69">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BH69">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="BI69">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BJ69">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BK69">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="BL69">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BM69">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BN69">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BO69">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BP69">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15206,7 +15206,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7537354</v>
+        <v>7537357</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15221,49 +15221,49 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="P70" t="s">
         <v>187</v>
       </c>
       <c r="Q70">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="R70">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V70">
         <v>2.63</v>
@@ -15272,19 +15272,19 @@
         <v>1.44</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z70">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA70">
-        <v>4.15</v>
+        <v>4.9</v>
       </c>
       <c r="AB70">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AC70">
         <v>1.01</v>
@@ -15293,118 +15293,118 @@
         <v>11</v>
       </c>
       <c r="AE70">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AF70">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AG70">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AH70">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AI70">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AJ70">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK70">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="AL70">
+        <v>1.15</v>
+      </c>
+      <c r="AM70">
+        <v>1.08</v>
+      </c>
+      <c r="AN70">
+        <v>0.5</v>
+      </c>
+      <c r="AO70">
+        <v>2.5</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>2.67</v>
+      </c>
+      <c r="AR70">
+        <v>1.11</v>
+      </c>
+      <c r="AS70">
         <v>1.21</v>
       </c>
-      <c r="AM70">
-        <v>1.14</v>
-      </c>
-      <c r="AN70">
-        <v>0.8</v>
-      </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AP70">
-        <v>1</v>
-      </c>
-      <c r="AQ70">
-        <v>1.17</v>
-      </c>
-      <c r="AR70">
-        <v>1.44</v>
-      </c>
-      <c r="AS70">
-        <v>1.98</v>
-      </c>
       <c r="AT70">
-        <v>3.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW70">
         <v>3</v>
       </c>
       <c r="AX70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB70">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD70">
-        <v>4.95</v>
+        <v>6.9</v>
       </c>
       <c r="BE70">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF70">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="BG70">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BH70">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="BI70">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BJ70">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BK70">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="BL70">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BM70">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BN70">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BO70">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BP70">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -19120,7 +19120,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7537377</v>
+        <v>7537378</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19129,196 +19129,196 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45626.875</v>
+        <v>45627.4375</v>
       </c>
       <c r="F89">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O89" t="s">
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="Q89">
+        <v>3.5</v>
+      </c>
+      <c r="R89">
         <v>2.05</v>
       </c>
-      <c r="R89">
-        <v>2.25</v>
-      </c>
       <c r="S89">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="T89">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V89">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W89">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y89">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z89">
+        <v>2.93</v>
+      </c>
+      <c r="AA89">
+        <v>3.16</v>
+      </c>
+      <c r="AB89">
+        <v>2.45</v>
+      </c>
+      <c r="AC89">
+        <v>1.07</v>
+      </c>
+      <c r="AD89">
+        <v>8.4</v>
+      </c>
+      <c r="AE89">
         <v>1.38</v>
       </c>
-      <c r="AA89">
-        <v>4.05</v>
-      </c>
-      <c r="AB89">
-        <v>7.7</v>
-      </c>
-      <c r="AC89">
-        <v>1.06</v>
-      </c>
-      <c r="AD89">
-        <v>9.4</v>
-      </c>
-      <c r="AE89">
-        <v>1.33</v>
-      </c>
       <c r="AF89">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG89">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AH89">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AI89">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89">
+        <v>1.91</v>
+      </c>
+      <c r="AK89">
+        <v>1.46</v>
+      </c>
+      <c r="AL89">
+        <v>1.31</v>
+      </c>
+      <c r="AM89">
+        <v>1.39</v>
+      </c>
+      <c r="AN89">
+        <v>0.8</v>
+      </c>
+      <c r="AO89">
+        <v>1.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89">
+        <v>1.29</v>
+      </c>
+      <c r="AR89">
+        <v>1.12</v>
+      </c>
+      <c r="AS89">
+        <v>0.93</v>
+      </c>
+      <c r="AT89">
         <v>2.05</v>
-      </c>
-      <c r="AJ89">
-        <v>1.7</v>
-      </c>
-      <c r="AK89">
-        <v>1.11</v>
-      </c>
-      <c r="AL89">
-        <v>1.2</v>
-      </c>
-      <c r="AM89">
-        <v>2.29</v>
-      </c>
-      <c r="AN89">
-        <v>1.83</v>
-      </c>
-      <c r="AO89">
-        <v>2</v>
-      </c>
-      <c r="AP89">
-        <v>1.71</v>
-      </c>
-      <c r="AQ89">
-        <v>1.83</v>
-      </c>
-      <c r="AR89">
-        <v>1.7</v>
-      </c>
-      <c r="AS89">
-        <v>1.23</v>
-      </c>
-      <c r="AT89">
-        <v>2.93</v>
       </c>
       <c r="AU89">
         <v>8</v>
       </c>
       <c r="AV89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
         <v>6</v>
       </c>
-      <c r="AX89">
-        <v>4</v>
-      </c>
       <c r="AY89">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ89">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC89">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD89">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="BE89">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="BF89">
-        <v>5.09</v>
+        <v>1.82</v>
       </c>
       <c r="BG89">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="BH89">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="BI89">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="BJ89">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="BK89">
-        <v>2.14</v>
+        <v>2.65</v>
       </c>
       <c r="BL89">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="BM89">
-        <v>2.82</v>
+        <v>3.8</v>
       </c>
       <c r="BN89">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="BO89">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="BP89">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19335,7 +19335,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45626.875</v>
+        <v>45627.5</v>
       </c>
       <c r="F90">
         <v>13</v>
@@ -19368,7 +19368,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19464,19 +19464,19 @@
         <v>3</v>
       </c>
       <c r="AV90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX90">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA90">
         <v>4</v>
@@ -19532,7 +19532,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7537378</v>
+        <v>7537379</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19541,196 +19541,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45627.4375</v>
+        <v>45627.58333333334</v>
       </c>
       <c r="F91">
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="Q91">
+        <v>1.67</v>
+      </c>
+      <c r="R91">
+        <v>2.63</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
         <v>3.5</v>
       </c>
-      <c r="R91">
-        <v>2.05</v>
-      </c>
-      <c r="S91">
-        <v>3.25</v>
-      </c>
-      <c r="T91">
-        <v>1.44</v>
-      </c>
-      <c r="U91">
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.53</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.18</v>
+      </c>
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>11</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.7</v>
+      </c>
+      <c r="AG91">
+        <v>1.57</v>
+      </c>
+      <c r="AH91">
+        <v>2.25</v>
+      </c>
+      <c r="AI91">
+        <v>2.2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.62</v>
+      </c>
+      <c r="AK91">
+        <v>1.05</v>
+      </c>
+      <c r="AL91">
+        <v>1.1</v>
+      </c>
+      <c r="AM91">
+        <v>3.2</v>
+      </c>
+      <c r="AN91">
+        <v>1.17</v>
+      </c>
+      <c r="AO91">
+        <v>0.67</v>
+      </c>
+      <c r="AP91">
+        <v>1.14</v>
+      </c>
+      <c r="AQ91">
+        <v>0.71</v>
+      </c>
+      <c r="AR91">
+        <v>1.68</v>
+      </c>
+      <c r="AS91">
+        <v>0.95</v>
+      </c>
+      <c r="AT91">
         <v>2.63</v>
       </c>
-      <c r="V91">
-        <v>3.4</v>
-      </c>
-      <c r="W91">
-        <v>1.3</v>
-      </c>
-      <c r="X91">
-        <v>10</v>
-      </c>
-      <c r="Y91">
-        <v>1.06</v>
-      </c>
-      <c r="Z91">
-        <v>2.93</v>
-      </c>
-      <c r="AA91">
-        <v>3.16</v>
-      </c>
-      <c r="AB91">
-        <v>2.45</v>
-      </c>
-      <c r="AC91">
-        <v>1.07</v>
-      </c>
-      <c r="AD91">
-        <v>8.4</v>
-      </c>
-      <c r="AE91">
-        <v>1.38</v>
-      </c>
-      <c r="AF91">
-        <v>3.1</v>
-      </c>
-      <c r="AG91">
-        <v>2</v>
-      </c>
-      <c r="AH91">
-        <v>1.65</v>
-      </c>
-      <c r="AI91">
-        <v>1.91</v>
-      </c>
-      <c r="AJ91">
-        <v>1.91</v>
-      </c>
-      <c r="AK91">
-        <v>1.46</v>
-      </c>
-      <c r="AL91">
-        <v>1.31</v>
-      </c>
-      <c r="AM91">
-        <v>1.39</v>
-      </c>
-      <c r="AN91">
-        <v>0.8</v>
-      </c>
-      <c r="AO91">
-        <v>1.5</v>
-      </c>
-      <c r="AP91">
-        <v>1.17</v>
-      </c>
-      <c r="AQ91">
-        <v>1.29</v>
-      </c>
-      <c r="AR91">
-        <v>1.12</v>
-      </c>
-      <c r="AS91">
-        <v>0.93</v>
-      </c>
-      <c r="AT91">
-        <v>2.05</v>
-      </c>
       <c r="AU91">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW91">
         <v>5</v>
       </c>
       <c r="AX91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA91">
         <v>7</v>
       </c>
       <c r="BB91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD91">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="BE91">
-        <v>7.5</v>
+        <v>13.2</v>
       </c>
       <c r="BF91">
-        <v>1.82</v>
+        <v>5.87</v>
       </c>
       <c r="BG91">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="BH91">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="BI91">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="BJ91">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BK91">
-        <v>2.65</v>
+        <v>2.21</v>
       </c>
       <c r="BL91">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BM91">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="BN91">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BO91">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="BP91">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19738,7 +19738,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7537379</v>
+        <v>7537377</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19747,16 +19747,16 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45627.58333333334</v>
+        <v>45627.64583333334</v>
       </c>
       <c r="F92">
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -19768,13 +19768,13 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
         <v>144</v>
@@ -19783,160 +19783,160 @@
         <v>201</v>
       </c>
       <c r="Q92">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R92">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="S92">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="T92">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U92">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V92">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W92">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X92">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y92">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z92">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AA92">
+        <v>4.05</v>
+      </c>
+      <c r="AB92">
+        <v>7.7</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>9.4</v>
+      </c>
+      <c r="AE92">
+        <v>1.33</v>
+      </c>
+      <c r="AF92">
+        <v>3.35</v>
+      </c>
+      <c r="AG92">
+        <v>1.97</v>
+      </c>
+      <c r="AH92">
+        <v>1.69</v>
+      </c>
+      <c r="AI92">
+        <v>2.05</v>
+      </c>
+      <c r="AJ92">
+        <v>1.7</v>
+      </c>
+      <c r="AK92">
+        <v>1.11</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>2.29</v>
+      </c>
+      <c r="AN92">
+        <v>1.83</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>1.71</v>
+      </c>
+      <c r="AQ92">
+        <v>1.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.7</v>
+      </c>
+      <c r="AS92">
+        <v>1.23</v>
+      </c>
+      <c r="AT92">
+        <v>2.93</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>16</v>
+      </c>
+      <c r="AZ92">
         <v>6</v>
       </c>
-      <c r="AB92">
-        <v>11</v>
-      </c>
-      <c r="AC92">
-        <v>1.01</v>
-      </c>
-      <c r="AD92">
-        <v>13</v>
-      </c>
-      <c r="AE92">
-        <v>1.2</v>
-      </c>
-      <c r="AF92">
-        <v>4.7</v>
-      </c>
-      <c r="AG92">
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.27</v>
+      </c>
+      <c r="BE92">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF92">
+        <v>5.09</v>
+      </c>
+      <c r="BG92">
+        <v>1.37</v>
+      </c>
+      <c r="BH92">
+        <v>2.66</v>
+      </c>
+      <c r="BI92">
+        <v>1.71</v>
+      </c>
+      <c r="BJ92">
+        <v>2.02</v>
+      </c>
+      <c r="BK92">
+        <v>2.14</v>
+      </c>
+      <c r="BL92">
         <v>1.57</v>
       </c>
-      <c r="AH92">
-        <v>2.25</v>
-      </c>
-      <c r="AI92">
-        <v>2.2</v>
-      </c>
-      <c r="AJ92">
-        <v>1.62</v>
-      </c>
-      <c r="AK92">
-        <v>1.05</v>
-      </c>
-      <c r="AL92">
-        <v>1.1</v>
-      </c>
-      <c r="AM92">
-        <v>3.2</v>
-      </c>
-      <c r="AN92">
-        <v>1.17</v>
-      </c>
-      <c r="AO92">
-        <v>0.67</v>
-      </c>
-      <c r="AP92">
-        <v>1.14</v>
-      </c>
-      <c r="AQ92">
-        <v>0.71</v>
-      </c>
-      <c r="AR92">
-        <v>1.68</v>
-      </c>
-      <c r="AS92">
-        <v>0.95</v>
-      </c>
-      <c r="AT92">
-        <v>2.63</v>
-      </c>
-      <c r="AU92">
-        <v>5</v>
-      </c>
-      <c r="AV92">
-        <v>3</v>
-      </c>
-      <c r="AW92">
-        <v>5</v>
-      </c>
-      <c r="AX92">
-        <v>5</v>
-      </c>
-      <c r="AY92">
-        <v>18</v>
-      </c>
-      <c r="AZ92">
-        <v>9</v>
-      </c>
-      <c r="BA92">
-        <v>7</v>
-      </c>
-      <c r="BB92">
-        <v>4</v>
-      </c>
-      <c r="BC92">
-        <v>11</v>
-      </c>
-      <c r="BD92">
-        <v>1.19</v>
-      </c>
-      <c r="BE92">
-        <v>13.2</v>
-      </c>
-      <c r="BF92">
-        <v>5.87</v>
-      </c>
-      <c r="BG92">
-        <v>1.4</v>
-      </c>
-      <c r="BH92">
-        <v>2.56</v>
-      </c>
-      <c r="BI92">
-        <v>1.76</v>
-      </c>
-      <c r="BJ92">
-        <v>1.95</v>
-      </c>
-      <c r="BK92">
-        <v>2.21</v>
-      </c>
-      <c r="BL92">
-        <v>1.53</v>
-      </c>
       <c r="BM92">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="BN92">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BO92">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="BP92">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['3', '41', '64']</t>
+  </si>
+  <si>
+    <t>['14', '36']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -620,6 +626,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1249,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1446,7 +1455,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2064,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2476,7 +2485,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2682,7 +2691,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2763,7 +2772,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2888,7 +2897,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3094,7 +3103,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3300,7 +3309,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3381,7 +3390,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3918,7 +3927,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3996,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4124,7 +4133,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4330,7 +4339,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4408,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
         <v>1.29</v>
@@ -4742,7 +4751,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4948,7 +4957,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5154,7 +5163,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5360,7 +5369,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5772,7 +5781,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5853,7 +5862,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -5978,7 +5987,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6262,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6596,7 +6605,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6883,7 +6892,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7008,7 +7017,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7292,7 +7301,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
         <v>1.86</v>
@@ -7420,7 +7429,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7626,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7832,7 +7841,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8038,7 +8047,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8450,7 +8459,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8656,7 +8665,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8862,7 +8871,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9146,10 +9155,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9686,7 +9695,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9892,7 +9901,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9973,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10382,7 +10391,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -10510,7 +10519,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10716,7 +10725,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10922,7 +10931,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11540,7 +11549,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11952,7 +11961,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12030,7 +12039,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12158,7 +12167,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12442,7 +12451,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
         <v>0.71</v>
@@ -12570,7 +12579,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12776,7 +12785,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12857,7 +12866,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -12982,7 +12991,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13600,7 +13609,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13806,7 +13815,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14012,7 +14021,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14093,7 +14102,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR64">
         <v>1.31</v>
@@ -14296,7 +14305,7 @@
         <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ65">
         <v>1.29</v>
@@ -14630,7 +14639,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14708,7 +14717,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -14836,7 +14845,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15042,7 +15051,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15248,7 +15257,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15866,7 +15875,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -15947,7 +15956,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.13</v>
@@ -16278,7 +16287,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16484,7 +16493,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16565,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -16896,7 +16905,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17102,7 +17111,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17308,7 +17317,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17514,7 +17523,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.1</v>
@@ -17592,10 +17601,10 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -17720,7 +17729,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17926,7 +17935,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18210,7 +18219,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -18338,7 +18347,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18750,7 +18759,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19368,7 +19377,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19574,7 +19583,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19780,7 +19789,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -19861,7 +19870,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.7</v>
@@ -19937,6 +19946,418 @@
       </c>
       <c r="BP92">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7537383</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F93">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q93">
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>15</v>
+      </c>
+      <c r="T93">
+        <v>1.25</v>
+      </c>
+      <c r="U93">
+        <v>3.75</v>
+      </c>
+      <c r="V93">
+        <v>2.2</v>
+      </c>
+      <c r="W93">
+        <v>1.62</v>
+      </c>
+      <c r="X93">
+        <v>5</v>
+      </c>
+      <c r="Y93">
+        <v>1.17</v>
+      </c>
+      <c r="Z93">
+        <v>1.06</v>
+      </c>
+      <c r="AA93">
+        <v>11</v>
+      </c>
+      <c r="AB93">
+        <v>31</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>17</v>
+      </c>
+      <c r="AE93">
+        <v>1.16</v>
+      </c>
+      <c r="AF93">
+        <v>5.4</v>
+      </c>
+      <c r="AG93">
+        <v>1.49</v>
+      </c>
+      <c r="AH93">
+        <v>2.44</v>
+      </c>
+      <c r="AI93">
+        <v>2.5</v>
+      </c>
+      <c r="AJ93">
+        <v>1.5</v>
+      </c>
+      <c r="AK93">
+        <v>1.04</v>
+      </c>
+      <c r="AL93">
+        <v>1.09</v>
+      </c>
+      <c r="AM93">
+        <v>5.6</v>
+      </c>
+      <c r="AN93">
+        <v>2.33</v>
+      </c>
+      <c r="AO93">
+        <v>2</v>
+      </c>
+      <c r="AP93">
+        <v>2.43</v>
+      </c>
+      <c r="AQ93">
+        <v>1.71</v>
+      </c>
+      <c r="AR93">
+        <v>1.95</v>
+      </c>
+      <c r="AS93">
+        <v>0.96</v>
+      </c>
+      <c r="AT93">
+        <v>2.91</v>
+      </c>
+      <c r="AU93">
+        <v>9</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>18</v>
+      </c>
+      <c r="AZ93">
+        <v>3</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>1.07</v>
+      </c>
+      <c r="BE93">
+        <v>33</v>
+      </c>
+      <c r="BF93">
+        <v>43</v>
+      </c>
+      <c r="BG93">
+        <v>1.39</v>
+      </c>
+      <c r="BH93">
+        <v>2.59</v>
+      </c>
+      <c r="BI93">
+        <v>1.88</v>
+      </c>
+      <c r="BJ93">
+        <v>1.92</v>
+      </c>
+      <c r="BK93">
+        <v>2.21</v>
+      </c>
+      <c r="BL93">
+        <v>1.53</v>
+      </c>
+      <c r="BM93">
+        <v>2.97</v>
+      </c>
+      <c r="BN93">
+        <v>1.28</v>
+      </c>
+      <c r="BO93">
+        <v>3.6</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7537382</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45633.60416666666</v>
+      </c>
+      <c r="F94">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>146</v>
+      </c>
+      <c r="P94" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q94">
+        <v>2.5</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>1.5</v>
+      </c>
+      <c r="U94">
+        <v>2.5</v>
+      </c>
+      <c r="V94">
+        <v>3.4</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+      <c r="X94">
+        <v>10</v>
+      </c>
+      <c r="Y94">
+        <v>1.06</v>
+      </c>
+      <c r="Z94">
+        <v>1.77</v>
+      </c>
+      <c r="AA94">
+        <v>3.65</v>
+      </c>
+      <c r="AB94">
+        <v>4.68</v>
+      </c>
+      <c r="AC94">
+        <v>1.09</v>
+      </c>
+      <c r="AD94">
+        <v>7.8</v>
+      </c>
+      <c r="AE94">
+        <v>1.41</v>
+      </c>
+      <c r="AF94">
+        <v>2.95</v>
+      </c>
+      <c r="AG94">
+        <v>2</v>
+      </c>
+      <c r="AH94">
+        <v>1.67</v>
+      </c>
+      <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.75</v>
+      </c>
+      <c r="AK94">
+        <v>1.24</v>
+      </c>
+      <c r="AL94">
+        <v>1.35</v>
+      </c>
+      <c r="AM94">
+        <v>1.95</v>
+      </c>
+      <c r="AN94">
+        <v>2.17</v>
+      </c>
+      <c r="AO94">
+        <v>1.83</v>
+      </c>
+      <c r="AP94">
+        <v>2.29</v>
+      </c>
+      <c r="AQ94">
+        <v>1.57</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>1.14</v>
+      </c>
+      <c r="AT94">
+        <v>2.7</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>1.42</v>
+      </c>
+      <c r="BE94">
+        <v>7.2</v>
+      </c>
+      <c r="BF94">
+        <v>3.5</v>
+      </c>
+      <c r="BG94">
+        <v>1.43</v>
+      </c>
+      <c r="BH94">
+        <v>2.46</v>
+      </c>
+      <c r="BI94">
+        <v>1.85</v>
+      </c>
+      <c r="BJ94">
+        <v>1.95</v>
+      </c>
+      <c r="BK94">
+        <v>2.3</v>
+      </c>
+      <c r="BL94">
+        <v>1.49</v>
+      </c>
+      <c r="BM94">
+        <v>3.08</v>
+      </c>
+      <c r="BN94">
+        <v>1.26</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['14', '36']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -604,9 +610,6 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['10', '90+2']</t>
   </si>
   <si>
@@ -629,6 +632,12 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['4', '36', '66', '87']</t>
+  </si>
+  <si>
+    <t>['45+6', '87']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1258,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1455,7 +1464,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2073,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2485,7 +2494,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2691,7 +2700,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2769,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9">
         <v>1.57</v>
@@ -2897,7 +2906,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2975,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3103,7 +3112,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3309,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3387,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -3596,7 +3605,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3927,7 +3936,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4133,7 +4142,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4211,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ16">
         <v>1.86</v>
@@ -4339,7 +4348,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4751,7 +4760,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4832,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4957,7 +4966,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5163,7 +5172,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5244,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5369,7 +5378,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5450,7 +5459,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5653,7 +5662,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -5781,7 +5790,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5859,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.57</v>
@@ -5987,7 +5996,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6065,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6274,7 +6283,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6480,7 +6489,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.95</v>
@@ -6605,7 +6614,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6683,7 +6692,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -7017,7 +7026,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7098,7 +7107,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ30">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7429,7 +7438,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7635,7 +7644,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7841,7 +7850,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8047,7 +8056,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8334,7 +8343,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8459,7 +8468,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8665,7 +8674,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8743,7 +8752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -8871,7 +8880,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8949,10 +8958,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -9570,7 +9579,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -9695,7 +9704,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9773,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -9901,7 +9910,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10188,7 +10197,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10519,7 +10528,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10597,7 +10606,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -10725,7 +10734,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10931,7 +10940,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11012,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11549,7 +11558,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11630,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11833,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ53">
         <v>1.29</v>
@@ -11961,7 +11970,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12167,7 +12176,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12245,10 +12254,10 @@
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12579,7 +12588,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12660,7 +12669,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ57">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -12785,7 +12794,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12991,7 +13000,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13275,10 +13284,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13481,7 +13490,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1.86</v>
@@ -13609,7 +13618,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13815,7 +13824,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14021,7 +14030,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14514,7 +14523,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -14639,7 +14648,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14845,7 +14854,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14926,7 +14935,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.45</v>
@@ -15051,7 +15060,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15132,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15257,7 +15266,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15335,10 +15344,10 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ70">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR70">
         <v>1.11</v>
@@ -15541,7 +15550,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.57</v>
@@ -15875,7 +15884,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -15953,7 +15962,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.57</v>
@@ -16287,7 +16296,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16365,7 +16374,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ75">
         <v>0.71</v>
@@ -16493,7 +16502,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16905,7 +16914,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17111,7 +17120,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17317,7 +17326,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17395,7 +17404,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ80">
         <v>1.57</v>
@@ -17523,7 +17532,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="Q81">
         <v>2.1</v>
@@ -17729,7 +17738,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17810,7 +17819,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.27</v>
@@ -17935,7 +17944,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18013,10 +18022,10 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18222,7 +18231,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>2.03</v>
@@ -18347,7 +18356,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18759,7 +18768,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18840,7 +18849,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19249,7 +19258,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
         <v>1.29</v>
@@ -19377,7 +19386,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19455,7 +19464,7 @@
         <v>1.67</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ90">
         <v>1.86</v>
@@ -19583,7 +19592,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19789,7 +19798,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20201,7 +20210,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20358,6 +20367,830 @@
       </c>
       <c r="BP94">
         <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7537386</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45634.4375</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95" t="s">
+        <v>147</v>
+      </c>
+      <c r="P95" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q95">
+        <v>8</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>1.8</v>
+      </c>
+      <c r="T95">
+        <v>1.3</v>
+      </c>
+      <c r="U95">
+        <v>3.4</v>
+      </c>
+      <c r="V95">
+        <v>2.5</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>6</v>
+      </c>
+      <c r="Y95">
+        <v>1.13</v>
+      </c>
+      <c r="Z95">
+        <v>8.65</v>
+      </c>
+      <c r="AA95">
+        <v>4.65</v>
+      </c>
+      <c r="AB95">
+        <v>1.35</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>4.4</v>
+      </c>
+      <c r="AG95">
+        <v>1.67</v>
+      </c>
+      <c r="AH95">
+        <v>2.07</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.75</v>
+      </c>
+      <c r="AK95">
+        <v>3.25</v>
+      </c>
+      <c r="AL95">
+        <v>1.19</v>
+      </c>
+      <c r="AM95">
+        <v>1.1</v>
+      </c>
+      <c r="AN95">
+        <v>1.17</v>
+      </c>
+      <c r="AO95">
+        <v>2.67</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>2.71</v>
+      </c>
+      <c r="AR95">
+        <v>1.27</v>
+      </c>
+      <c r="AS95">
+        <v>1.47</v>
+      </c>
+      <c r="AT95">
+        <v>2.74</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>13</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>24</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>7</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>7.7</v>
+      </c>
+      <c r="BE95">
+        <v>10.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.1</v>
+      </c>
+      <c r="BG95">
+        <v>1.43</v>
+      </c>
+      <c r="BH95">
+        <v>2.6</v>
+      </c>
+      <c r="BI95">
+        <v>1.8</v>
+      </c>
+      <c r="BJ95">
+        <v>2</v>
+      </c>
+      <c r="BK95">
+        <v>2.38</v>
+      </c>
+      <c r="BL95">
+        <v>1.5</v>
+      </c>
+      <c r="BM95">
+        <v>3.3</v>
+      </c>
+      <c r="BN95">
+        <v>1.28</v>
+      </c>
+      <c r="BO95">
+        <v>4</v>
+      </c>
+      <c r="BP95">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7537384</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45634.5</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
+      </c>
+      <c r="P96" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>2.38</v>
+      </c>
+      <c r="S96">
+        <v>1.95</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>8.5</v>
+      </c>
+      <c r="AA96">
+        <v>4.95</v>
+      </c>
+      <c r="AB96">
+        <v>1.36</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>1.75</v>
+      </c>
+      <c r="AH96">
+        <v>1.95</v>
+      </c>
+      <c r="AI96">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96">
+        <v>1.8</v>
+      </c>
+      <c r="AK96">
+        <v>2.8</v>
+      </c>
+      <c r="AL96">
+        <v>1.22</v>
+      </c>
+      <c r="AM96">
+        <v>1.13</v>
+      </c>
+      <c r="AN96">
+        <v>0.83</v>
+      </c>
+      <c r="AO96">
+        <v>1.17</v>
+      </c>
+      <c r="AP96">
+        <v>0.71</v>
+      </c>
+      <c r="AQ96">
+        <v>1.43</v>
+      </c>
+      <c r="AR96">
+        <v>1.22</v>
+      </c>
+      <c r="AS96">
+        <v>1.69</v>
+      </c>
+      <c r="AT96">
+        <v>2.91</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>4</v>
+      </c>
+      <c r="AZ96">
+        <v>17</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>14</v>
+      </c>
+      <c r="BC96">
+        <v>14</v>
+      </c>
+      <c r="BD96">
+        <v>6.3</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>1.18</v>
+      </c>
+      <c r="BG96">
+        <v>1.36</v>
+      </c>
+      <c r="BH96">
+        <v>2.85</v>
+      </c>
+      <c r="BI96">
+        <v>1.7</v>
+      </c>
+      <c r="BJ96">
+        <v>2</v>
+      </c>
+      <c r="BK96">
+        <v>2.22</v>
+      </c>
+      <c r="BL96">
+        <v>1.58</v>
+      </c>
+      <c r="BM96">
+        <v>3.1</v>
+      </c>
+      <c r="BN96">
+        <v>1.31</v>
+      </c>
+      <c r="BO96">
+        <v>4</v>
+      </c>
+      <c r="BP96">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7537380</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45634.58333333334</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>84</v>
+      </c>
+      <c r="P97" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q97">
+        <v>5.5</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>2.3</v>
+      </c>
+      <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>10</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>5</v>
+      </c>
+      <c r="AA97">
+        <v>3.6</v>
+      </c>
+      <c r="AB97">
+        <v>1.6</v>
+      </c>
+      <c r="AC97">
+        <v>1.08</v>
+      </c>
+      <c r="AD97">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE97">
+        <v>1.39</v>
+      </c>
+      <c r="AF97">
+        <v>3.05</v>
+      </c>
+      <c r="AG97">
+        <v>2.1</v>
+      </c>
+      <c r="AH97">
+        <v>1.65</v>
+      </c>
+      <c r="AI97">
+        <v>2.05</v>
+      </c>
+      <c r="AJ97">
+        <v>1.7</v>
+      </c>
+      <c r="AK97">
+        <v>2.19</v>
+      </c>
+      <c r="AL97">
+        <v>1.32</v>
+      </c>
+      <c r="AM97">
+        <v>1.18</v>
+      </c>
+      <c r="AN97">
+        <v>1.17</v>
+      </c>
+      <c r="AO97">
+        <v>1.83</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>1.4</v>
+      </c>
+      <c r="AS97">
+        <v>1.42</v>
+      </c>
+      <c r="AT97">
+        <v>2.82</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>7</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>16</v>
+      </c>
+      <c r="AZ97">
+        <v>24</v>
+      </c>
+      <c r="BA97">
+        <v>6</v>
+      </c>
+      <c r="BB97">
+        <v>9</v>
+      </c>
+      <c r="BC97">
+        <v>15</v>
+      </c>
+      <c r="BD97">
+        <v>6.5</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>1.18</v>
+      </c>
+      <c r="BG97">
+        <v>1.45</v>
+      </c>
+      <c r="BH97">
+        <v>2.52</v>
+      </c>
+      <c r="BI97">
+        <v>1.88</v>
+      </c>
+      <c r="BJ97">
+        <v>1.92</v>
+      </c>
+      <c r="BK97">
+        <v>2.45</v>
+      </c>
+      <c r="BL97">
+        <v>1.47</v>
+      </c>
+      <c r="BM97">
+        <v>3.55</v>
+      </c>
+      <c r="BN97">
+        <v>1.24</v>
+      </c>
+      <c r="BO97">
+        <v>4.2</v>
+      </c>
+      <c r="BP97">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7537387</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45634.64583333334</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q98">
+        <v>3.75</v>
+      </c>
+      <c r="R98">
+        <v>1.91</v>
+      </c>
+      <c r="S98">
+        <v>3.5</v>
+      </c>
+      <c r="T98">
+        <v>1.57</v>
+      </c>
+      <c r="U98">
+        <v>2.25</v>
+      </c>
+      <c r="V98">
+        <v>3.75</v>
+      </c>
+      <c r="W98">
+        <v>1.25</v>
+      </c>
+      <c r="X98">
+        <v>13</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.75</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>2.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.11</v>
+      </c>
+      <c r="AD98">
+        <v>6.8</v>
+      </c>
+      <c r="AE98">
+        <v>1.5</v>
+      </c>
+      <c r="AF98">
+        <v>2.4</v>
+      </c>
+      <c r="AG98">
+        <v>2.4</v>
+      </c>
+      <c r="AH98">
+        <v>1.5</v>
+      </c>
+      <c r="AI98">
+        <v>2.1</v>
+      </c>
+      <c r="AJ98">
+        <v>1.67</v>
+      </c>
+      <c r="AK98">
+        <v>1.52</v>
+      </c>
+      <c r="AL98">
+        <v>1.4</v>
+      </c>
+      <c r="AM98">
+        <v>1.46</v>
+      </c>
+      <c r="AN98">
+        <v>0.5</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.43</v>
+      </c>
+      <c r="AQ98">
+        <v>1.71</v>
+      </c>
+      <c r="AR98">
+        <v>1.1</v>
+      </c>
+      <c r="AS98">
+        <v>0.91</v>
+      </c>
+      <c r="AT98">
+        <v>2.01</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>3</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>7</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>2.15</v>
+      </c>
+      <c r="BE98">
+        <v>5.6</v>
+      </c>
+      <c r="BF98">
+        <v>2.05</v>
+      </c>
+      <c r="BG98">
+        <v>1.45</v>
+      </c>
+      <c r="BH98">
+        <v>2.52</v>
+      </c>
+      <c r="BI98">
+        <v>1.95</v>
+      </c>
+      <c r="BJ98">
+        <v>1.85</v>
+      </c>
+      <c r="BK98">
+        <v>2.45</v>
+      </c>
+      <c r="BL98">
+        <v>1.47</v>
+      </c>
+      <c r="BM98">
+        <v>3.55</v>
+      </c>
+      <c r="BN98">
+        <v>1.24</v>
+      </c>
+      <c r="BO98">
+        <v>4.6</v>
+      </c>
+      <c r="BP98">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['23', '52']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>['45+6', '87']</t>
+  </si>
+  <si>
+    <t>['56', '63', '69', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1464,7 +1470,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2082,7 +2088,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2494,7 +2500,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2700,7 +2706,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2906,7 +2912,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3112,7 +3118,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3318,7 +3324,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3811,7 +3817,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3936,7 +3942,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4142,7 +4148,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4348,7 +4354,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4760,7 +4766,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4966,7 +4972,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5172,7 +5178,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5378,7 +5384,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5456,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5790,7 +5796,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5996,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6077,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6614,7 +6620,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7026,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7438,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7644,7 +7650,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7850,7 +7856,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8056,7 +8062,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8340,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ36">
         <v>1.43</v>
@@ -8468,7 +8474,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8674,7 +8680,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8755,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8880,7 +8886,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9704,7 +9710,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9910,7 +9916,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10528,7 +10534,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10734,7 +10740,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10812,7 +10818,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ48">
         <v>1.29</v>
@@ -10940,7 +10946,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11558,7 +11564,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11970,7 +11976,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12051,7 +12057,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12176,7 +12182,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12588,7 +12594,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12794,7 +12800,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13000,7 +13006,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13618,7 +13624,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13824,7 +13830,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14030,7 +14036,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14108,7 +14114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ64">
         <v>1.57</v>
@@ -14520,7 +14526,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ66">
         <v>1.71</v>
@@ -14648,7 +14654,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14729,7 +14735,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -14854,7 +14860,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15060,7 +15066,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15266,7 +15272,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15884,7 +15890,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16296,7 +16302,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16502,7 +16508,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16914,7 +16920,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17120,7 +17126,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17198,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ79">
         <v>1.29</v>
@@ -17326,7 +17332,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17738,7 +17744,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17944,7 +17950,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18356,7 +18362,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18437,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18768,7 +18774,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19386,7 +19392,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19592,7 +19598,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19798,7 +19804,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20210,7 +20216,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20383,7 +20389,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45634.4375</v>
+        <v>45633.875</v>
       </c>
       <c r="F95">
         <v>14</v>
@@ -20416,7 +20422,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20580,7 +20586,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7537384</v>
+        <v>7537387</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20589,196 +20595,196 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45634.5</v>
+        <v>45633.875</v>
       </c>
       <c r="F96">
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>84</v>
+      </c>
+      <c r="P96" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q96">
+        <v>3.75</v>
+      </c>
+      <c r="R96">
+        <v>1.91</v>
+      </c>
+      <c r="S96">
+        <v>3.5</v>
+      </c>
+      <c r="T96">
+        <v>1.57</v>
+      </c>
+      <c r="U96">
+        <v>2.25</v>
+      </c>
+      <c r="V96">
+        <v>3.75</v>
+      </c>
+      <c r="W96">
+        <v>1.25</v>
+      </c>
+      <c r="X96">
+        <v>13</v>
+      </c>
+      <c r="Y96">
+        <v>1.04</v>
+      </c>
+      <c r="Z96">
+        <v>2.75</v>
+      </c>
+      <c r="AA96">
         <v>3</v>
       </c>
-      <c r="O96" t="s">
-        <v>148</v>
-      </c>
-      <c r="P96" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q96">
-        <v>7</v>
-      </c>
-      <c r="R96">
-        <v>2.38</v>
-      </c>
-      <c r="S96">
-        <v>1.95</v>
-      </c>
-      <c r="T96">
-        <v>1.33</v>
-      </c>
-      <c r="U96">
-        <v>3.25</v>
-      </c>
-      <c r="V96">
-        <v>2.63</v>
-      </c>
-      <c r="W96">
-        <v>1.44</v>
-      </c>
-      <c r="X96">
-        <v>6.5</v>
-      </c>
-      <c r="Y96">
+      <c r="AB96">
+        <v>2.5</v>
+      </c>
+      <c r="AC96">
         <v>1.11</v>
       </c>
-      <c r="Z96">
-        <v>8.5</v>
-      </c>
-      <c r="AA96">
-        <v>4.95</v>
-      </c>
-      <c r="AB96">
-        <v>1.36</v>
-      </c>
-      <c r="AC96">
-        <v>1.04</v>
-      </c>
       <c r="AD96">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="AE96">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AF96">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="AG96">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="AH96">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AI96">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AJ96">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK96">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="AL96">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AM96">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="AN96">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO96">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AS96">
-        <v>1.69</v>
+        <v>0.91</v>
       </c>
       <c r="AT96">
-        <v>2.91</v>
+        <v>2.01</v>
       </c>
       <c r="AU96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX96">
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ96">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BA96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB96">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BC96">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD96">
-        <v>6.3</v>
+        <v>2.15</v>
       </c>
       <c r="BE96">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="BF96">
-        <v>1.18</v>
+        <v>2.05</v>
       </c>
       <c r="BG96">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BH96">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="BI96">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BJ96">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BK96">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="BL96">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BM96">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="BN96">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="BO96">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BP96">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20786,7 +20792,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7537380</v>
+        <v>7537384</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20795,160 +20801,160 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45634.58333333334</v>
+        <v>45634.5</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="Q97">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="R97">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S97">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
         <v>1.44</v>
       </c>
-      <c r="U97">
-        <v>2.63</v>
-      </c>
-      <c r="V97">
-        <v>3.25</v>
-      </c>
-      <c r="W97">
-        <v>1.33</v>
-      </c>
       <c r="X97">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y97">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z97">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AA97">
-        <v>3.6</v>
+        <v>4.95</v>
       </c>
       <c r="AB97">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AC97">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD97">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AE97">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AF97">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="AG97">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AH97">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AI97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK97">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="AL97">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM97">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AN97">
+        <v>0.83</v>
+      </c>
+      <c r="AO97">
         <v>1.17</v>
       </c>
-      <c r="AO97">
-        <v>1.83</v>
-      </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AR97">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AS97">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="AT97">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV97">
         <v>7</v>
       </c>
       <c r="AW97">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX97">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY97">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AZ97">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB97">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BC97">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD97">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="BE97">
         <v>8</v>
@@ -20957,34 +20963,34 @@
         <v>1.18</v>
       </c>
       <c r="BG97">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BH97">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="BI97">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BJ97">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BK97">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="BL97">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BM97">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="BN97">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="BO97">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BP97">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -20992,7 +20998,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7537387</v>
+        <v>7537380</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21001,25 +21007,25 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45634.64583333334</v>
+        <v>45634.58333333334</v>
       </c>
       <c r="F98">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -21037,130 +21043,130 @@
         <v>170</v>
       </c>
       <c r="Q98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="R98">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S98">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="T98">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U98">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W98">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X98">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y98">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z98">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="AA98">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB98">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC98">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AD98">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE98">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AF98">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="AG98">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH98">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI98">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ98">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK98">
-        <v>1.52</v>
+        <v>2.19</v>
       </c>
       <c r="AL98">
+        <v>1.32</v>
+      </c>
+      <c r="AM98">
+        <v>1.18</v>
+      </c>
+      <c r="AN98">
+        <v>1.17</v>
+      </c>
+      <c r="AO98">
+        <v>1.83</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
         <v>1.4</v>
       </c>
-      <c r="AM98">
-        <v>1.46</v>
-      </c>
-      <c r="AN98">
-        <v>0.5</v>
-      </c>
-      <c r="AO98">
-        <v>1.5</v>
-      </c>
-      <c r="AP98">
-        <v>0.43</v>
-      </c>
-      <c r="AQ98">
-        <v>1.71</v>
-      </c>
-      <c r="AR98">
-        <v>1.1</v>
-      </c>
       <c r="AS98">
-        <v>0.91</v>
+        <v>1.42</v>
       </c>
       <c r="AT98">
-        <v>2.01</v>
+        <v>2.82</v>
       </c>
       <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>7</v>
+      </c>
+      <c r="AW98">
         <v>8</v>
       </c>
-      <c r="AV98">
-        <v>3</v>
-      </c>
-      <c r="AW98">
-        <v>3</v>
-      </c>
       <c r="AX98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY98">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ98">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB98">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC98">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD98">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="BE98">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="BF98">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="BG98">
         <v>1.45</v>
@@ -21169,10 +21175,10 @@
         <v>2.52</v>
       </c>
       <c r="BI98">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BJ98">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BK98">
         <v>2.45</v>
@@ -21187,10 +21193,216 @@
         <v>1.24</v>
       </c>
       <c r="BO98">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="BP98">
-        <v>1.16</v>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7537381</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45635.52083333334</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>6</v>
+      </c>
+      <c r="O99" t="s">
+        <v>149</v>
+      </c>
+      <c r="P99" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q99">
+        <v>3.2</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.5</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.5</v>
+      </c>
+      <c r="W99">
+        <v>1.29</v>
+      </c>
+      <c r="X99">
+        <v>11</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>2.4</v>
+      </c>
+      <c r="AA99">
+        <v>3.1</v>
+      </c>
+      <c r="AB99">
+        <v>3.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.09</v>
+      </c>
+      <c r="AD99">
+        <v>7.4</v>
+      </c>
+      <c r="AE99">
+        <v>1.43</v>
+      </c>
+      <c r="AF99">
+        <v>2.85</v>
+      </c>
+      <c r="AG99">
+        <v>2.38</v>
+      </c>
+      <c r="AH99">
+        <v>1.52</v>
+      </c>
+      <c r="AI99">
+        <v>1.95</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
+        <v>1.4</v>
+      </c>
+      <c r="AL99">
+        <v>1.4</v>
+      </c>
+      <c r="AM99">
+        <v>1.58</v>
+      </c>
+      <c r="AN99">
+        <v>0.5</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>0.43</v>
+      </c>
+      <c r="AQ99">
+        <v>0.86</v>
+      </c>
+      <c r="AR99">
+        <v>1.5</v>
+      </c>
+      <c r="AS99">
+        <v>1</v>
+      </c>
+      <c r="AT99">
+        <v>2.5</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>13</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>2.02</v>
+      </c>
+      <c r="BE99">
+        <v>5.6</v>
+      </c>
+      <c r="BF99">
+        <v>2.18</v>
+      </c>
+      <c r="BG99">
+        <v>1.44</v>
+      </c>
+      <c r="BH99">
+        <v>2.43</v>
+      </c>
+      <c r="BI99">
+        <v>1.83</v>
+      </c>
+      <c r="BJ99">
+        <v>1.87</v>
+      </c>
+      <c r="BK99">
+        <v>2.35</v>
+      </c>
+      <c r="BL99">
+        <v>1.47</v>
+      </c>
+      <c r="BM99">
+        <v>3.14</v>
+      </c>
+      <c r="BN99">
+        <v>1.25</v>
+      </c>
+      <c r="BO99">
+        <v>4.3</v>
+      </c>
+      <c r="BP99">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -20389,10 +20389,10 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45633.875</v>
+        <v>45634.4375</v>
       </c>
       <c r="F95">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>78</v>
@@ -20515,22 +20515,22 @@
         <v>2.74</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW95">
         <v>3</v>
       </c>
       <c r="AX95">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ95">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -20586,7 +20586,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7537387</v>
+        <v>7537384</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20595,196 +20595,196 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45633.875</v>
+        <v>45634.5</v>
       </c>
       <c r="F96">
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="Q96">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="R96">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="S96">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="U96">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V96">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>8.5</v>
+      </c>
+      <c r="AA96">
+        <v>4.95</v>
+      </c>
+      <c r="AB96">
+        <v>1.36</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
         <v>1.25</v>
       </c>
-      <c r="X96">
-        <v>13</v>
-      </c>
-      <c r="Y96">
-        <v>1.04</v>
-      </c>
-      <c r="Z96">
-        <v>2.75</v>
-      </c>
-      <c r="AA96">
-        <v>3</v>
-      </c>
-      <c r="AB96">
-        <v>2.5</v>
-      </c>
-      <c r="AC96">
-        <v>1.11</v>
-      </c>
-      <c r="AD96">
-        <v>6.8</v>
-      </c>
-      <c r="AE96">
-        <v>1.5</v>
-      </c>
       <c r="AF96">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AG96">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="AH96">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AI96">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ96">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK96">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="AL96">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AM96">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="AN96">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO96">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP96">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AS96">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
       <c r="AT96">
-        <v>2.01</v>
+        <v>2.91</v>
       </c>
       <c r="AU96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV96">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX96">
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AZ96">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BA96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB96">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BC96">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD96">
-        <v>2.15</v>
+        <v>6.3</v>
       </c>
       <c r="BE96">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="BF96">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="BG96">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BH96">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="BI96">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BJ96">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BK96">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="BL96">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BM96">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="BN96">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="BO96">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BP96">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20792,7 +20792,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7537384</v>
+        <v>7537380</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20801,160 +20801,160 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45634.5</v>
+        <v>45634.58333333334</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="Q97">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="R97">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
         <v>1.33</v>
       </c>
-      <c r="U97">
-        <v>3.25</v>
-      </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
       <c r="X97">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y97">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z97">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AA97">
-        <v>4.95</v>
+        <v>3.6</v>
       </c>
       <c r="AB97">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AC97">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AD97">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE97">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AF97">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="AG97">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH97">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AI97">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ97">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK97">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
       <c r="AL97">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM97">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AN97">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO97">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AR97">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="AT97">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="AU97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV97">
         <v>7</v>
       </c>
       <c r="AW97">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY97">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA97">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BC97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD97">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="BE97">
         <v>8</v>
@@ -20963,34 +20963,34 @@
         <v>1.18</v>
       </c>
       <c r="BG97">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BH97">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="BI97">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BJ97">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BK97">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="BL97">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BM97">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="BN97">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="BO97">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BP97">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -20998,7 +20998,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7537380</v>
+        <v>7537387</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21007,25 +21007,25 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45634.58333333334</v>
+        <v>45634.64583333334</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -21040,133 +21040,133 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q98">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="R98">
+        <v>1.91</v>
+      </c>
+      <c r="S98">
+        <v>3.5</v>
+      </c>
+      <c r="T98">
+        <v>1.57</v>
+      </c>
+      <c r="U98">
+        <v>2.25</v>
+      </c>
+      <c r="V98">
+        <v>3.75</v>
+      </c>
+      <c r="W98">
+        <v>1.25</v>
+      </c>
+      <c r="X98">
+        <v>13</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.75</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>2.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.11</v>
+      </c>
+      <c r="AD98">
+        <v>6.8</v>
+      </c>
+      <c r="AE98">
+        <v>1.5</v>
+      </c>
+      <c r="AF98">
+        <v>2.4</v>
+      </c>
+      <c r="AG98">
+        <v>2.4</v>
+      </c>
+      <c r="AH98">
+        <v>1.5</v>
+      </c>
+      <c r="AI98">
         <v>2.1</v>
       </c>
-      <c r="S98">
-        <v>2.3</v>
-      </c>
-      <c r="T98">
-        <v>1.44</v>
-      </c>
-      <c r="U98">
-        <v>2.63</v>
-      </c>
-      <c r="V98">
-        <v>3.25</v>
-      </c>
-      <c r="W98">
-        <v>1.33</v>
-      </c>
-      <c r="X98">
-        <v>10</v>
-      </c>
-      <c r="Y98">
-        <v>1.06</v>
-      </c>
-      <c r="Z98">
+      <c r="AJ98">
+        <v>1.67</v>
+      </c>
+      <c r="AK98">
+        <v>1.52</v>
+      </c>
+      <c r="AL98">
+        <v>1.4</v>
+      </c>
+      <c r="AM98">
+        <v>1.46</v>
+      </c>
+      <c r="AN98">
+        <v>0.5</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.43</v>
+      </c>
+      <c r="AQ98">
+        <v>1.71</v>
+      </c>
+      <c r="AR98">
+        <v>1.1</v>
+      </c>
+      <c r="AS98">
+        <v>0.91</v>
+      </c>
+      <c r="AT98">
+        <v>2.01</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
         <v>5</v>
       </c>
-      <c r="AA98">
-        <v>3.6</v>
-      </c>
-      <c r="AB98">
-        <v>1.6</v>
-      </c>
-      <c r="AC98">
-        <v>1.08</v>
-      </c>
-      <c r="AD98">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE98">
-        <v>1.39</v>
-      </c>
-      <c r="AF98">
-        <v>3.05</v>
-      </c>
-      <c r="AG98">
-        <v>2.1</v>
-      </c>
-      <c r="AH98">
-        <v>1.65</v>
-      </c>
-      <c r="AI98">
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>7</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>2.15</v>
+      </c>
+      <c r="BE98">
+        <v>5.6</v>
+      </c>
+      <c r="BF98">
         <v>2.05</v>
-      </c>
-      <c r="AJ98">
-        <v>1.7</v>
-      </c>
-      <c r="AK98">
-        <v>2.19</v>
-      </c>
-      <c r="AL98">
-        <v>1.32</v>
-      </c>
-      <c r="AM98">
-        <v>1.18</v>
-      </c>
-      <c r="AN98">
-        <v>1.17</v>
-      </c>
-      <c r="AO98">
-        <v>1.83</v>
-      </c>
-      <c r="AP98">
-        <v>1</v>
-      </c>
-      <c r="AQ98">
-        <v>2</v>
-      </c>
-      <c r="AR98">
-        <v>1.4</v>
-      </c>
-      <c r="AS98">
-        <v>1.42</v>
-      </c>
-      <c r="AT98">
-        <v>2.82</v>
-      </c>
-      <c r="AU98">
-        <v>6</v>
-      </c>
-      <c r="AV98">
-        <v>7</v>
-      </c>
-      <c r="AW98">
-        <v>8</v>
-      </c>
-      <c r="AX98">
-        <v>8</v>
-      </c>
-      <c r="AY98">
-        <v>16</v>
-      </c>
-      <c r="AZ98">
-        <v>24</v>
-      </c>
-      <c r="BA98">
-        <v>6</v>
-      </c>
-      <c r="BB98">
-        <v>9</v>
-      </c>
-      <c r="BC98">
-        <v>15</v>
-      </c>
-      <c r="BD98">
-        <v>6.5</v>
-      </c>
-      <c r="BE98">
-        <v>8</v>
-      </c>
-      <c r="BF98">
-        <v>1.18</v>
       </c>
       <c r="BG98">
         <v>1.45</v>
@@ -21175,10 +21175,10 @@
         <v>2.52</v>
       </c>
       <c r="BI98">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BJ98">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BK98">
         <v>2.45</v>
@@ -21193,10 +21193,10 @@
         <v>1.24</v>
       </c>
       <c r="BO98">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BP98">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="99" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['23', '52']</t>
   </si>
   <si>
+    <t>['51', '68']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
   </si>
   <si>
     <t>['56', '63', '69', '90+8']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1270,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1342,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ2">
         <v>1.86</v>
@@ -1470,7 +1476,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1963,7 +1969,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2088,7 +2094,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2375,7 +2381,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2500,7 +2506,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2706,7 +2712,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2912,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3118,7 +3124,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3324,7 +3330,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3942,7 +3948,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4148,7 +4154,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4226,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ16">
         <v>1.86</v>
@@ -4354,7 +4360,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4435,7 +4441,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4766,7 +4772,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4847,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4972,7 +4978,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5050,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ20">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5178,7 +5184,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5384,7 +5390,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5668,7 +5674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -5796,7 +5802,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6002,7 +6008,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6620,7 +6626,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7032,7 +7038,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7110,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ30">
         <v>2.71</v>
@@ -7444,7 +7450,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7525,7 +7531,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7650,7 +7656,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7731,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7856,7 +7862,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8062,7 +8068,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8349,7 +8355,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8474,7 +8480,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8552,7 +8558,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ37">
         <v>0.71</v>
@@ -8680,7 +8686,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8886,7 +8892,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9710,7 +9716,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9788,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -9916,7 +9922,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10203,7 +10209,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10534,7 +10540,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10615,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -10740,7 +10746,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10821,7 +10827,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -10946,7 +10952,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11436,7 +11442,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11564,7 +11570,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11848,10 +11854,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -11976,7 +11982,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12182,7 +12188,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12594,7 +12600,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12800,7 +12806,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13006,7 +13012,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13293,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13624,7 +13630,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13830,7 +13836,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13911,7 +13917,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14036,7 +14042,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14654,7 +14660,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14860,7 +14866,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14938,7 +14944,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15066,7 +15072,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15147,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15272,7 +15278,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15350,7 +15356,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ70">
         <v>2.71</v>
@@ -15559,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.51</v>
@@ -15890,7 +15896,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16177,7 +16183,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.64</v>
@@ -16302,7 +16308,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16508,7 +16514,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16920,7 +16926,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17126,7 +17132,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17332,7 +17338,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17410,10 +17416,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ80">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.08</v>
@@ -17744,7 +17750,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17950,7 +17956,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18237,7 +18243,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
         <v>2.03</v>
@@ -18362,7 +18368,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18646,7 +18652,7 @@
         <v>0.83</v>
       </c>
       <c r="AP86">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -18774,7 +18780,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19267,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.12</v>
@@ -19392,7 +19398,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19598,7 +19604,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19804,7 +19810,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20216,7 +20222,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20422,7 +20428,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20628,7 +20634,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20709,7 +20715,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -20834,7 +20840,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -21040,7 +21046,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21118,7 +21124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ98">
         <v>1.71</v>
@@ -21246,7 +21252,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21403,6 +21409,624 @@
       </c>
       <c r="BP99">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7537394</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q100">
+        <v>11</v>
+      </c>
+      <c r="R100">
+        <v>2.5</v>
+      </c>
+      <c r="S100">
+        <v>1.73</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>8.5</v>
+      </c>
+      <c r="AA100">
+        <v>5.3</v>
+      </c>
+      <c r="AB100">
+        <v>1.23</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE100">
+        <v>1.24</v>
+      </c>
+      <c r="AF100">
+        <v>4.1</v>
+      </c>
+      <c r="AG100">
+        <v>1.66</v>
+      </c>
+      <c r="AH100">
+        <v>2.05</v>
+      </c>
+      <c r="AI100">
+        <v>2.38</v>
+      </c>
+      <c r="AJ100">
+        <v>1.53</v>
+      </c>
+      <c r="AK100">
+        <v>3.85</v>
+      </c>
+      <c r="AL100">
+        <v>1.16</v>
+      </c>
+      <c r="AM100">
+        <v>1.07</v>
+      </c>
+      <c r="AN100">
+        <v>0.43</v>
+      </c>
+      <c r="AO100">
+        <v>1.43</v>
+      </c>
+      <c r="AP100">
+        <v>0.38</v>
+      </c>
+      <c r="AQ100">
+        <v>1.63</v>
+      </c>
+      <c r="AR100">
+        <v>1.18</v>
+      </c>
+      <c r="AS100">
+        <v>1.72</v>
+      </c>
+      <c r="AT100">
+        <v>2.9</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>1</v>
+      </c>
+      <c r="AX100">
+        <v>9</v>
+      </c>
+      <c r="AY100">
+        <v>4</v>
+      </c>
+      <c r="AZ100">
+        <v>18</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>13</v>
+      </c>
+      <c r="BE100">
+        <v>12</v>
+      </c>
+      <c r="BF100">
+        <v>1.03</v>
+      </c>
+      <c r="BG100">
+        <v>1.36</v>
+      </c>
+      <c r="BH100">
+        <v>2.85</v>
+      </c>
+      <c r="BI100">
+        <v>1.7</v>
+      </c>
+      <c r="BJ100">
+        <v>2</v>
+      </c>
+      <c r="BK100">
+        <v>2.22</v>
+      </c>
+      <c r="BL100">
+        <v>1.58</v>
+      </c>
+      <c r="BM100">
+        <v>3.1</v>
+      </c>
+      <c r="BN100">
+        <v>1.31</v>
+      </c>
+      <c r="BO100">
+        <v>4.25</v>
+      </c>
+      <c r="BP100">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7537390</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>77</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q101">
+        <v>2.63</v>
+      </c>
+      <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
+        <v>4.5</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>1.96</v>
+      </c>
+      <c r="AA101">
+        <v>3.35</v>
+      </c>
+      <c r="AB101">
+        <v>3.2</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>8.6</v>
+      </c>
+      <c r="AE101">
+        <v>1.35</v>
+      </c>
+      <c r="AF101">
+        <v>3.25</v>
+      </c>
+      <c r="AG101">
+        <v>1.78</v>
+      </c>
+      <c r="AH101">
+        <v>1.92</v>
+      </c>
+      <c r="AI101">
+        <v>1.91</v>
+      </c>
+      <c r="AJ101">
+        <v>1.91</v>
+      </c>
+      <c r="AK101">
+        <v>1.27</v>
+      </c>
+      <c r="AL101">
+        <v>1.36</v>
+      </c>
+      <c r="AM101">
+        <v>1.86</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>1.57</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.32</v>
+      </c>
+      <c r="AS101">
+        <v>1.11</v>
+      </c>
+      <c r="AT101">
+        <v>2.43</v>
+      </c>
+      <c r="AU101">
+        <v>4</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>4</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.68</v>
+      </c>
+      <c r="BE101">
+        <v>5.75</v>
+      </c>
+      <c r="BF101">
+        <v>2.78</v>
+      </c>
+      <c r="BG101">
+        <v>1.45</v>
+      </c>
+      <c r="BH101">
+        <v>2.52</v>
+      </c>
+      <c r="BI101">
+        <v>1.95</v>
+      </c>
+      <c r="BJ101">
+        <v>1.85</v>
+      </c>
+      <c r="BK101">
+        <v>2.45</v>
+      </c>
+      <c r="BL101">
+        <v>1.47</v>
+      </c>
+      <c r="BM101">
+        <v>3.55</v>
+      </c>
+      <c r="BN101">
+        <v>1.24</v>
+      </c>
+      <c r="BO101">
+        <v>4.6</v>
+      </c>
+      <c r="BP101">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7537391</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45640.64583333334</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>150</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>3.4</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>3.75</v>
+      </c>
+      <c r="T102">
+        <v>1.53</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>3.75</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>11</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.33</v>
+      </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>2.78</v>
+      </c>
+      <c r="AC102">
+        <v>1.1</v>
+      </c>
+      <c r="AD102">
+        <v>7.2</v>
+      </c>
+      <c r="AE102">
+        <v>1.48</v>
+      </c>
+      <c r="AF102">
+        <v>2.7</v>
+      </c>
+      <c r="AG102">
+        <v>2.38</v>
+      </c>
+      <c r="AH102">
+        <v>1.47</v>
+      </c>
+      <c r="AI102">
+        <v>2.05</v>
+      </c>
+      <c r="AJ102">
+        <v>1.7</v>
+      </c>
+      <c r="AK102">
+        <v>1.43</v>
+      </c>
+      <c r="AL102">
+        <v>1.4</v>
+      </c>
+      <c r="AM102">
+        <v>1.54</v>
+      </c>
+      <c r="AN102">
+        <v>0.29</v>
+      </c>
+      <c r="AO102">
+        <v>1.29</v>
+      </c>
+      <c r="AP102">
+        <v>0.63</v>
+      </c>
+      <c r="AQ102">
+        <v>1.13</v>
+      </c>
+      <c r="AR102">
+        <v>1.38</v>
+      </c>
+      <c r="AS102">
+        <v>1.02</v>
+      </c>
+      <c r="AT102">
+        <v>2.4</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>1</v>
+      </c>
+      <c r="AX102">
+        <v>7</v>
+      </c>
+      <c r="AY102">
+        <v>5</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>1</v>
+      </c>
+      <c r="BB102">
+        <v>10</v>
+      </c>
+      <c r="BC102">
+        <v>11</v>
+      </c>
+      <c r="BD102">
+        <v>1.88</v>
+      </c>
+      <c r="BE102">
+        <v>6.7</v>
+      </c>
+      <c r="BF102">
+        <v>2.22</v>
+      </c>
+      <c r="BG102">
+        <v>1.45</v>
+      </c>
+      <c r="BH102">
+        <v>2.38</v>
+      </c>
+      <c r="BI102">
+        <v>1.85</v>
+      </c>
+      <c r="BJ102">
+        <v>1.95</v>
+      </c>
+      <c r="BK102">
+        <v>2.35</v>
+      </c>
+      <c r="BL102">
+        <v>1.46</v>
+      </c>
+      <c r="BM102">
+        <v>3.2</v>
+      </c>
+      <c r="BN102">
+        <v>1.25</v>
+      </c>
+      <c r="BO102">
+        <v>3.9</v>
+      </c>
+      <c r="BP102">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1011,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1557,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
         <v>0.71</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>0.86</v>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.63</v>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5471,7 +5471,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR27">
         <v>1.95</v>
@@ -7119,7 +7119,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ30">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7322,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ31">
         <v>1.86</v>
@@ -7528,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -7734,7 +7734,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7943,7 +7943,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -9591,7 +9591,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -9797,7 +9797,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10412,7 +10412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -11030,10 +11030,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ49">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11445,7 +11445,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12269,7 +12269,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12472,7 +12472,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56">
         <v>0.71</v>
@@ -12681,7 +12681,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ57">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -12884,7 +12884,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>1.71</v>
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>0.86</v>
@@ -14329,7 +14329,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14738,7 +14738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14947,7 +14947,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR68">
         <v>1.45</v>
@@ -15359,7 +15359,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR70">
         <v>1.11</v>
@@ -15768,7 +15768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16592,7 +16592,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76">
         <v>1.71</v>
@@ -17213,7 +17213,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17622,7 +17622,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -17828,10 +17828,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR82">
         <v>1.27</v>
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18858,7 +18858,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
         <v>1.71</v>
@@ -20300,7 +20300,7 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20509,7 +20509,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20921,7 +20921,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -22027,6 +22027,624 @@
       </c>
       <c r="BP102">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7537389</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45641.4375</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>78</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>96</v>
+      </c>
+      <c r="P103" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q103">
+        <v>2.1</v>
+      </c>
+      <c r="R103">
+        <v>2.25</v>
+      </c>
+      <c r="S103">
+        <v>6</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.75</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>8</v>
+      </c>
+      <c r="Y103">
+        <v>1.08</v>
+      </c>
+      <c r="Z103">
+        <v>1.45</v>
+      </c>
+      <c r="AA103">
+        <v>4.2</v>
+      </c>
+      <c r="AB103">
+        <v>6.25</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>10</v>
+      </c>
+      <c r="AE103">
+        <v>1.28</v>
+      </c>
+      <c r="AF103">
+        <v>3.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.8</v>
+      </c>
+      <c r="AH103">
+        <v>1.9</v>
+      </c>
+      <c r="AI103">
+        <v>1.95</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.17</v>
+      </c>
+      <c r="AL103">
+        <v>1.26</v>
+      </c>
+      <c r="AM103">
+        <v>2.45</v>
+      </c>
+      <c r="AN103">
+        <v>2.29</v>
+      </c>
+      <c r="AO103">
+        <v>1.29</v>
+      </c>
+      <c r="AP103">
+        <v>2.38</v>
+      </c>
+      <c r="AQ103">
+        <v>1.13</v>
+      </c>
+      <c r="AR103">
+        <v>1.47</v>
+      </c>
+      <c r="AS103">
+        <v>1.33</v>
+      </c>
+      <c r="AT103">
+        <v>2.8</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>15</v>
+      </c>
+      <c r="AZ103">
+        <v>13</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>9</v>
+      </c>
+      <c r="BD103">
+        <v>1.1</v>
+      </c>
+      <c r="BE103">
+        <v>10.5</v>
+      </c>
+      <c r="BF103">
+        <v>7.7</v>
+      </c>
+      <c r="BG103">
+        <v>1.45</v>
+      </c>
+      <c r="BH103">
+        <v>2.38</v>
+      </c>
+      <c r="BI103">
+        <v>1.9</v>
+      </c>
+      <c r="BJ103">
+        <v>1.9</v>
+      </c>
+      <c r="BK103">
+        <v>2.35</v>
+      </c>
+      <c r="BL103">
+        <v>1.46</v>
+      </c>
+      <c r="BM103">
+        <v>3.2</v>
+      </c>
+      <c r="BN103">
+        <v>1.25</v>
+      </c>
+      <c r="BO103">
+        <v>4</v>
+      </c>
+      <c r="BP103">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7537392</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45641.54166666666</v>
+      </c>
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q104">
+        <v>7.5</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>6.2</v>
+      </c>
+      <c r="AA104">
+        <v>4.2</v>
+      </c>
+      <c r="AB104">
+        <v>1.49</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE104">
+        <v>1.31</v>
+      </c>
+      <c r="AF104">
+        <v>3.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.92</v>
+      </c>
+      <c r="AH104">
+        <v>1.85</v>
+      </c>
+      <c r="AI104">
+        <v>2.1</v>
+      </c>
+      <c r="AJ104">
+        <v>1.67</v>
+      </c>
+      <c r="AK104">
+        <v>2.8</v>
+      </c>
+      <c r="AL104">
+        <v>1.23</v>
+      </c>
+      <c r="AM104">
+        <v>1.12</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
+      <c r="AP104">
+        <v>0.88</v>
+      </c>
+      <c r="AQ104">
+        <v>2.13</v>
+      </c>
+      <c r="AR104">
+        <v>1.19</v>
+      </c>
+      <c r="AS104">
+        <v>1.49</v>
+      </c>
+      <c r="AT104">
+        <v>2.68</v>
+      </c>
+      <c r="AU104">
+        <v>3</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>1</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>6</v>
+      </c>
+      <c r="AZ104">
+        <v>16</v>
+      </c>
+      <c r="BA104">
+        <v>1</v>
+      </c>
+      <c r="BB104">
+        <v>11</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>4.15</v>
+      </c>
+      <c r="BE104">
+        <v>6.5</v>
+      </c>
+      <c r="BF104">
+        <v>1.36</v>
+      </c>
+      <c r="BG104">
+        <v>1.47</v>
+      </c>
+      <c r="BH104">
+        <v>2.3</v>
+      </c>
+      <c r="BI104">
+        <v>1.98</v>
+      </c>
+      <c r="BJ104">
+        <v>1.82</v>
+      </c>
+      <c r="BK104">
+        <v>2.43</v>
+      </c>
+      <c r="BL104">
+        <v>1.43</v>
+      </c>
+      <c r="BM104">
+        <v>3.35</v>
+      </c>
+      <c r="BN104">
+        <v>1.23</v>
+      </c>
+      <c r="BO104">
+        <v>4.75</v>
+      </c>
+      <c r="BP104">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7537393</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45641.58333333334</v>
+      </c>
+      <c r="F105">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q105">
+        <v>6.5</v>
+      </c>
+      <c r="R105">
+        <v>2.3</v>
+      </c>
+      <c r="S105">
+        <v>2.05</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>6.4</v>
+      </c>
+      <c r="AA105">
+        <v>4.2</v>
+      </c>
+      <c r="AB105">
+        <v>1.48</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>10</v>
+      </c>
+      <c r="AE105">
+        <v>1.28</v>
+      </c>
+      <c r="AF105">
+        <v>3.7</v>
+      </c>
+      <c r="AG105">
+        <v>1.84</v>
+      </c>
+      <c r="AH105">
+        <v>1.94</v>
+      </c>
+      <c r="AI105">
+        <v>1.95</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
+        <v>2.6</v>
+      </c>
+      <c r="AL105">
+        <v>1.24</v>
+      </c>
+      <c r="AM105">
+        <v>1.15</v>
+      </c>
+      <c r="AN105">
+        <v>1.43</v>
+      </c>
+      <c r="AO105">
+        <v>2.71</v>
+      </c>
+      <c r="AP105">
+        <v>1.25</v>
+      </c>
+      <c r="AQ105">
+        <v>2.75</v>
+      </c>
+      <c r="AR105">
+        <v>1.29</v>
+      </c>
+      <c r="AS105">
+        <v>1.62</v>
+      </c>
+      <c r="AT105">
+        <v>2.91</v>
+      </c>
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>16</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>7</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>6.4</v>
+      </c>
+      <c r="BE105">
+        <v>8.1</v>
+      </c>
+      <c r="BF105">
+        <v>1.18</v>
+      </c>
+      <c r="BG105">
+        <v>1.45</v>
+      </c>
+      <c r="BH105">
+        <v>2.38</v>
+      </c>
+      <c r="BI105">
+        <v>1.88</v>
+      </c>
+      <c r="BJ105">
+        <v>1.92</v>
+      </c>
+      <c r="BK105">
+        <v>2.35</v>
+      </c>
+      <c r="BL105">
+        <v>1.46</v>
+      </c>
+      <c r="BM105">
+        <v>3.2</v>
+      </c>
+      <c r="BN105">
+        <v>1.25</v>
+      </c>
+      <c r="BO105">
+        <v>3.8</v>
+      </c>
+      <c r="BP105">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,9 @@
     <t>['51', '68']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -479,9 +482,6 @@
   </si>
   <si>
     <t>['65']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['34']</t>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1273,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1351,7 +1354,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1476,7 +1479,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2094,7 +2097,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2506,7 +2509,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2712,7 +2715,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -4235,7 +4238,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ16">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5468,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -7325,7 +7328,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -8352,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>1.63</v>
@@ -10824,7 +10827,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -11239,7 +11242,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -13505,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -14120,7 +14123,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.57</v>
@@ -14532,7 +14535,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66">
         <v>1.71</v>
@@ -17007,7 +17010,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17210,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -19479,7 +19482,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -21330,7 +21333,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ99">
         <v>0.86</v>
@@ -22034,7 +22037,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7537389</v>
+        <v>7537392</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22043,16 +22046,16 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45641.4375</v>
+        <v>45640.875</v>
       </c>
       <c r="F103">
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22064,34 +22067,34 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="Q103">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="R103">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U103">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V103">
         <v>2.75</v>
@@ -22106,133 +22109,133 @@
         <v>1.08</v>
       </c>
       <c r="Z103">
-        <v>1.45</v>
+        <v>6.2</v>
       </c>
       <c r="AA103">
         <v>4.2</v>
       </c>
       <c r="AB103">
-        <v>6.25</v>
+        <v>1.49</v>
       </c>
       <c r="AC103">
         <v>1.05</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE103">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AF103">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG103">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AH103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI103">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AJ103">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK103">
-        <v>1.17</v>
+        <v>2.8</v>
       </c>
       <c r="AL103">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AM103">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="AN103">
-        <v>2.29</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="AR103">
+        <v>1.19</v>
+      </c>
+      <c r="AS103">
+        <v>1.49</v>
+      </c>
+      <c r="AT103">
+        <v>2.68</v>
+      </c>
+      <c r="AU103">
+        <v>3</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>1</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>6</v>
+      </c>
+      <c r="AZ103">
+        <v>16</v>
+      </c>
+      <c r="BA103">
+        <v>1</v>
+      </c>
+      <c r="BB103">
+        <v>11</v>
+      </c>
+      <c r="BC103">
+        <v>12</v>
+      </c>
+      <c r="BD103">
+        <v>4.15</v>
+      </c>
+      <c r="BE103">
+        <v>6.5</v>
+      </c>
+      <c r="BF103">
+        <v>1.36</v>
+      </c>
+      <c r="BG103">
         <v>1.47</v>
       </c>
-      <c r="AS103">
-        <v>1.33</v>
-      </c>
-      <c r="AT103">
-        <v>2.8</v>
-      </c>
-      <c r="AU103">
-        <v>4</v>
-      </c>
-      <c r="AV103">
-        <v>5</v>
-      </c>
-      <c r="AW103">
-        <v>7</v>
-      </c>
-      <c r="AX103">
-        <v>6</v>
-      </c>
-      <c r="AY103">
-        <v>15</v>
-      </c>
-      <c r="AZ103">
-        <v>13</v>
-      </c>
-      <c r="BA103">
-        <v>6</v>
-      </c>
-      <c r="BB103">
-        <v>3</v>
-      </c>
-      <c r="BC103">
-        <v>9</v>
-      </c>
-      <c r="BD103">
-        <v>1.1</v>
-      </c>
-      <c r="BE103">
-        <v>10.5</v>
-      </c>
-      <c r="BF103">
-        <v>7.7</v>
-      </c>
-      <c r="BG103">
-        <v>1.45</v>
-      </c>
       <c r="BH103">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="BI103">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BJ103">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BK103">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BL103">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BM103">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BN103">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BO103">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BP103">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22240,7 +22243,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7537392</v>
+        <v>7537393</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22249,16 +22252,16 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45641.54166666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F104">
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -22282,22 +22285,22 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="Q104">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="R104">
         <v>2.3</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
         <v>2.75</v>
@@ -22306,139 +22309,139 @@
         <v>1.4</v>
       </c>
       <c r="X104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y104">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA104">
         <v>4.2</v>
       </c>
       <c r="AB104">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AC104">
         <v>1.05</v>
       </c>
       <c r="AD104">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE104">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AF104">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AG104">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AH104">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AI104">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK104">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AL104">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AM104">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO104">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="AP104">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AR104">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AS104">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT104">
-        <v>2.68</v>
+        <v>2.91</v>
       </c>
       <c r="AU104">
         <v>3</v>
       </c>
       <c r="AV104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ104">
         <v>16</v>
       </c>
       <c r="BA104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB104">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD104">
-        <v>4.15</v>
+        <v>6.4</v>
       </c>
       <c r="BE104">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="BF104">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="BG104">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="BH104">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="BI104">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BJ104">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BK104">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BL104">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BM104">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="BN104">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BO104">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="BP104">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22446,7 +22449,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7537393</v>
+        <v>7537389</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22455,16 +22458,16 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45641.58333333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F105">
         <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -22476,28 +22479,28 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
       <c r="O105" t="s">
+        <v>96</v>
+      </c>
+      <c r="P105" t="s">
         <v>84</v>
       </c>
-      <c r="P105" t="s">
-        <v>89</v>
-      </c>
       <c r="Q105">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="R105">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="T105">
         <v>1.36</v>
@@ -22512,19 +22515,19 @@
         <v>1.4</v>
       </c>
       <c r="X105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y105">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z105">
-        <v>6.4</v>
+        <v>1.45</v>
       </c>
       <c r="AA105">
         <v>4.2</v>
       </c>
       <c r="AB105">
-        <v>1.48</v>
+        <v>6.25</v>
       </c>
       <c r="AC105">
         <v>1.05</v>
@@ -22536,13 +22539,13 @@
         <v>1.28</v>
       </c>
       <c r="AF105">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AG105">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AH105">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="AI105">
         <v>1.95</v>
@@ -22551,70 +22554,70 @@
         <v>1.8</v>
       </c>
       <c r="AK105">
-        <v>2.6</v>
+        <v>1.17</v>
       </c>
       <c r="AL105">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AM105">
-        <v>1.15</v>
+        <v>2.45</v>
       </c>
       <c r="AN105">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO105">
-        <v>2.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>2.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR105">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AS105">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>5</v>
+      </c>
+      <c r="AW105">
+        <v>7</v>
+      </c>
+      <c r="AX105">
+        <v>6</v>
+      </c>
+      <c r="AY105">
+        <v>15</v>
+      </c>
+      <c r="AZ105">
+        <v>13</v>
+      </c>
+      <c r="BA105">
+        <v>6</v>
+      </c>
+      <c r="BB105">
         <v>3</v>
       </c>
-      <c r="AV105">
-        <v>8</v>
-      </c>
-      <c r="AW105">
-        <v>4</v>
-      </c>
-      <c r="AX105">
-        <v>5</v>
-      </c>
-      <c r="AY105">
-        <v>10</v>
-      </c>
-      <c r="AZ105">
-        <v>16</v>
-      </c>
-      <c r="BA105">
-        <v>3</v>
-      </c>
-      <c r="BB105">
-        <v>7</v>
-      </c>
       <c r="BC105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD105">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="BE105">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="BF105">
-        <v>1.18</v>
+        <v>7.7</v>
       </c>
       <c r="BG105">
         <v>1.45</v>
@@ -22623,10 +22626,10 @@
         <v>2.38</v>
       </c>
       <c r="BI105">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BJ105">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="BK105">
         <v>2.35</v>
@@ -22641,10 +22644,216 @@
         <v>1.25</v>
       </c>
       <c r="BO105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BP105">
-        <v>1.22</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7537388</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45641.875</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>151</v>
+      </c>
+      <c r="P106" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q106">
+        <v>8.5</v>
+      </c>
+      <c r="R106">
+        <v>2.5</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>9.26</v>
+      </c>
+      <c r="AA106">
+        <v>1.96</v>
+      </c>
+      <c r="AB106">
+        <v>2.02</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE106">
+        <v>1.24</v>
+      </c>
+      <c r="AF106">
+        <v>4.1</v>
+      </c>
+      <c r="AG106">
+        <v>1.68</v>
+      </c>
+      <c r="AH106">
+        <v>2.18</v>
+      </c>
+      <c r="AI106">
+        <v>2.1</v>
+      </c>
+      <c r="AJ106">
+        <v>1.67</v>
+      </c>
+      <c r="AK106">
+        <v>3.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.19</v>
+      </c>
+      <c r="AM106">
+        <v>1.09</v>
+      </c>
+      <c r="AN106">
+        <v>0.43</v>
+      </c>
+      <c r="AO106">
+        <v>1.86</v>
+      </c>
+      <c r="AP106">
+        <v>0.5</v>
+      </c>
+      <c r="AQ106">
+        <v>1.75</v>
+      </c>
+      <c r="AR106">
+        <v>1.5</v>
+      </c>
+      <c r="AS106">
+        <v>1.8</v>
+      </c>
+      <c r="AT106">
+        <v>3.3</v>
+      </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>1</v>
+      </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
+      <c r="AY106">
+        <v>4</v>
+      </c>
+      <c r="AZ106">
+        <v>14</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>8.5</v>
+      </c>
+      <c r="BE106">
+        <v>9.5</v>
+      </c>
+      <c r="BF106">
+        <v>1.1</v>
+      </c>
+      <c r="BG106">
+        <v>1.42</v>
+      </c>
+      <c r="BH106">
+        <v>2.45</v>
+      </c>
+      <c r="BI106">
+        <v>1.75</v>
+      </c>
+      <c r="BJ106">
+        <v>1.85</v>
+      </c>
+      <c r="BK106">
+        <v>2.28</v>
+      </c>
+      <c r="BL106">
+        <v>1.49</v>
+      </c>
+      <c r="BM106">
+        <v>3.1</v>
+      </c>
+      <c r="BN106">
+        <v>1.27</v>
+      </c>
+      <c r="BO106">
+        <v>4.3</v>
+      </c>
+      <c r="BP106">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -22037,7 +22037,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7537392</v>
+        <v>7537389</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22046,16 +22046,16 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45640.875</v>
+        <v>45641.4375</v>
       </c>
       <c r="F103">
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22067,34 +22067,34 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103" t="s">
+        <v>96</v>
+      </c>
+      <c r="P103" t="s">
         <v>84</v>
       </c>
-      <c r="P103" t="s">
-        <v>159</v>
-      </c>
       <c r="Q103">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="R103">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T103">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V103">
         <v>2.75</v>
@@ -22109,133 +22109,133 @@
         <v>1.08</v>
       </c>
       <c r="Z103">
-        <v>6.2</v>
+        <v>1.45</v>
       </c>
       <c r="AA103">
         <v>4.2</v>
       </c>
       <c r="AB103">
-        <v>1.49</v>
+        <v>6.25</v>
       </c>
       <c r="AC103">
         <v>1.05</v>
       </c>
       <c r="AD103">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE103">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AF103">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG103">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AH103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI103">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ103">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK103">
+        <v>1.17</v>
+      </c>
+      <c r="AL103">
+        <v>1.26</v>
+      </c>
+      <c r="AM103">
+        <v>2.45</v>
+      </c>
+      <c r="AN103">
+        <v>2.29</v>
+      </c>
+      <c r="AO103">
+        <v>1.29</v>
+      </c>
+      <c r="AP103">
+        <v>2.38</v>
+      </c>
+      <c r="AQ103">
+        <v>1.13</v>
+      </c>
+      <c r="AR103">
+        <v>1.47</v>
+      </c>
+      <c r="AS103">
+        <v>1.33</v>
+      </c>
+      <c r="AT103">
         <v>2.8</v>
       </c>
-      <c r="AL103">
-        <v>1.23</v>
-      </c>
-      <c r="AM103">
-        <v>1.12</v>
-      </c>
-      <c r="AN103">
-        <v>1</v>
-      </c>
-      <c r="AO103">
-        <v>2</v>
-      </c>
-      <c r="AP103">
-        <v>0.88</v>
-      </c>
-      <c r="AQ103">
-        <v>2.13</v>
-      </c>
-      <c r="AR103">
-        <v>1.19</v>
-      </c>
-      <c r="AS103">
-        <v>1.49</v>
-      </c>
-      <c r="AT103">
-        <v>2.68</v>
-      </c>
       <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>15</v>
+      </c>
+      <c r="AZ103">
+        <v>13</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
         <v>3</v>
       </c>
-      <c r="AV103">
-        <v>6</v>
-      </c>
-      <c r="AW103">
-        <v>1</v>
-      </c>
-      <c r="AX103">
-        <v>7</v>
-      </c>
-      <c r="AY103">
-        <v>6</v>
-      </c>
-      <c r="AZ103">
-        <v>16</v>
-      </c>
-      <c r="BA103">
-        <v>1</v>
-      </c>
-      <c r="BB103">
-        <v>11</v>
-      </c>
       <c r="BC103">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD103">
-        <v>4.15</v>
+        <v>1.1</v>
       </c>
       <c r="BE103">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="BF103">
-        <v>1.36</v>
+        <v>7.7</v>
       </c>
       <c r="BG103">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="BH103">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="BI103">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BJ103">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BK103">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BL103">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BM103">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="BN103">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BO103">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BP103">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22243,7 +22243,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7537393</v>
+        <v>7537392</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22252,16 +22252,16 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45640.875</v>
+        <v>45641.54166666666</v>
       </c>
       <c r="F104">
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -22285,22 +22285,22 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="Q104">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="R104">
         <v>2.3</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V104">
         <v>2.75</v>
@@ -22309,139 +22309,139 @@
         <v>1.4</v>
       </c>
       <c r="X104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y104">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z104">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA104">
         <v>4.2</v>
       </c>
       <c r="AB104">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AC104">
         <v>1.05</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE104">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AF104">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AG104">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="AH104">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AI104">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AJ104">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK104">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AL104">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AM104">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AN104">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AQ104">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AR104">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS104">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT104">
-        <v>2.91</v>
+        <v>2.68</v>
       </c>
       <c r="AU104">
         <v>3</v>
       </c>
       <c r="AV104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX104">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ104">
         <v>16</v>
       </c>
       <c r="BA104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB104">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC104">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD104">
-        <v>6.4</v>
+        <v>4.15</v>
       </c>
       <c r="BE104">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="BF104">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="BG104">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="BH104">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="BI104">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BJ104">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BK104">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BL104">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BM104">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BN104">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BO104">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="BP104">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22449,7 +22449,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7537389</v>
+        <v>7537393</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22458,16 +22458,16 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45640.875</v>
+        <v>45641.58333333334</v>
       </c>
       <c r="F105">
         <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -22479,28 +22479,28 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P105" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q105">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="R105">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S105">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
         <v>1.36</v>
@@ -22515,19 +22515,19 @@
         <v>1.4</v>
       </c>
       <c r="X105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y105">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z105">
-        <v>1.45</v>
+        <v>6.4</v>
       </c>
       <c r="AA105">
         <v>4.2</v>
       </c>
       <c r="AB105">
-        <v>6.25</v>
+        <v>1.48</v>
       </c>
       <c r="AC105">
         <v>1.05</v>
@@ -22539,13 +22539,13 @@
         <v>1.28</v>
       </c>
       <c r="AF105">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AG105">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AH105">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AI105">
         <v>1.95</v>
@@ -22554,70 +22554,70 @@
         <v>1.8</v>
       </c>
       <c r="AK105">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="AL105">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM105">
-        <v>2.45</v>
+        <v>1.15</v>
       </c>
       <c r="AN105">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO105">
+        <v>2.71</v>
+      </c>
+      <c r="AP105">
+        <v>1.25</v>
+      </c>
+      <c r="AQ105">
+        <v>2.75</v>
+      </c>
+      <c r="AR105">
         <v>1.29</v>
       </c>
-      <c r="AP105">
-        <v>2.38</v>
-      </c>
-      <c r="AQ105">
-        <v>1.13</v>
-      </c>
-      <c r="AR105">
-        <v>1.47</v>
-      </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
         <v>4</v>
       </c>
-      <c r="AV105">
+      <c r="AX105">
         <v>5</v>
       </c>
-      <c r="AW105">
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>16</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
         <v>7</v>
       </c>
-      <c r="AX105">
-        <v>6</v>
-      </c>
-      <c r="AY105">
-        <v>15</v>
-      </c>
-      <c r="AZ105">
-        <v>13</v>
-      </c>
-      <c r="BA105">
-        <v>6</v>
-      </c>
-      <c r="BB105">
-        <v>3</v>
-      </c>
       <c r="BC105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD105">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="BE105">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="BF105">
-        <v>7.7</v>
+        <v>1.18</v>
       </c>
       <c r="BG105">
         <v>1.45</v>
@@ -22626,10 +22626,10 @@
         <v>2.38</v>
       </c>
       <c r="BI105">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BJ105">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BK105">
         <v>2.35</v>
@@ -22644,10 +22644,10 @@
         <v>1.25</v>
       </c>
       <c r="BO105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BP105">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22664,7 +22664,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45641.875</v>
+        <v>45642.64583333334</v>
       </c>
       <c r="F106">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -1014,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1479,7 +1482,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2097,7 +2100,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2509,7 +2512,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2590,7 +2593,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2921,7 +2924,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3127,7 +3130,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3208,7 +3211,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3333,7 +3336,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3951,7 +3954,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4029,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4157,7 +4160,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4363,7 +4366,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4775,7 +4778,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4981,7 +4984,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5187,7 +5190,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5393,7 +5396,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5805,7 +5808,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6011,7 +6014,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6295,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6629,7 +6632,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7041,7 +7044,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7453,7 +7456,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7659,7 +7662,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7865,7 +7868,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8071,7 +8074,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8152,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8483,7 +8486,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8689,7 +8692,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8895,7 +8898,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9179,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -9719,7 +9722,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9925,7 +9928,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10418,7 +10421,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10543,7 +10546,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10749,7 +10752,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10955,7 +10958,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11573,7 +11576,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11985,7 +11988,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12063,7 +12066,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12191,7 +12194,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12603,7 +12606,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12809,7 +12812,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13015,7 +13018,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13096,7 +13099,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13633,7 +13636,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13839,7 +13842,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14045,7 +14048,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14329,7 +14332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ65">
         <v>1.13</v>
@@ -14663,7 +14666,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14869,7 +14872,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15075,7 +15078,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15281,7 +15284,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15899,7 +15902,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16311,7 +16314,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16517,7 +16520,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16804,7 +16807,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -16929,7 +16932,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17135,7 +17138,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17341,7 +17344,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17753,7 +17756,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17959,7 +17962,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18243,7 +18246,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18371,7 +18374,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18658,7 +18661,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -18783,7 +18786,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19401,7 +19404,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19607,7 +19610,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19813,7 +19816,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20097,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP93">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93">
         <v>1.71</v>
@@ -20225,7 +20228,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20431,7 +20434,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20637,7 +20640,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20843,7 +20846,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -21049,7 +21052,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21255,7 +21258,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21873,7 +21876,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22285,7 +22288,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q104">
         <v>7.5</v>
@@ -22697,7 +22700,7 @@
         <v>151</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>8.5</v>
@@ -22854,6 +22857,212 @@
       </c>
       <c r="BP106">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7537397</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45647.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>152</v>
+      </c>
+      <c r="P107" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q107">
+        <v>1.5</v>
+      </c>
+      <c r="R107">
+        <v>2.88</v>
+      </c>
+      <c r="S107">
+        <v>15</v>
+      </c>
+      <c r="T107">
+        <v>1.29</v>
+      </c>
+      <c r="U107">
+        <v>3.5</v>
+      </c>
+      <c r="V107">
+        <v>2.25</v>
+      </c>
+      <c r="W107">
+        <v>1.57</v>
+      </c>
+      <c r="X107">
+        <v>5.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.14</v>
+      </c>
+      <c r="Z107">
+        <v>1.09</v>
+      </c>
+      <c r="AA107">
+        <v>13.89</v>
+      </c>
+      <c r="AB107">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>17</v>
+      </c>
+      <c r="AE107">
+        <v>1.19</v>
+      </c>
+      <c r="AF107">
+        <v>4.8</v>
+      </c>
+      <c r="AG107">
+        <v>1.54</v>
+      </c>
+      <c r="AH107">
+        <v>2.32</v>
+      </c>
+      <c r="AI107">
+        <v>2.63</v>
+      </c>
+      <c r="AJ107">
+        <v>1.44</v>
+      </c>
+      <c r="AK107">
+        <v>1.04</v>
+      </c>
+      <c r="AL107">
+        <v>1.1</v>
+      </c>
+      <c r="AM107">
+        <v>5.4</v>
+      </c>
+      <c r="AN107">
+        <v>2.43</v>
+      </c>
+      <c r="AO107">
+        <v>0.86</v>
+      </c>
+      <c r="AP107">
+        <v>2.5</v>
+      </c>
+      <c r="AQ107">
+        <v>0.75</v>
+      </c>
+      <c r="AR107">
+        <v>1.96</v>
+      </c>
+      <c r="AS107">
+        <v>0.96</v>
+      </c>
+      <c r="AT107">
+        <v>2.92</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>12</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>22</v>
+      </c>
+      <c r="AZ107">
+        <v>7</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>8</v>
+      </c>
+      <c r="BD107">
+        <v>1.04</v>
+      </c>
+      <c r="BE107">
+        <v>16.5</v>
+      </c>
+      <c r="BF107">
+        <v>19</v>
+      </c>
+      <c r="BG107">
+        <v>1.41</v>
+      </c>
+      <c r="BH107">
+        <v>2.65</v>
+      </c>
+      <c r="BI107">
+        <v>1.8</v>
+      </c>
+      <c r="BJ107">
+        <v>2</v>
+      </c>
+      <c r="BK107">
+        <v>2.35</v>
+      </c>
+      <c r="BL107">
+        <v>1.5</v>
+      </c>
+      <c r="BM107">
+        <v>3.35</v>
+      </c>
+      <c r="BN107">
+        <v>1.27</v>
+      </c>
+      <c r="BO107">
+        <v>3.8</v>
+      </c>
+      <c r="BP107">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['45+2', '49', '89']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -530,9 +536,6 @@
   </si>
   <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -656,6 +659,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1282,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1482,7 +1488,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1769,7 +1775,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1972,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
         <v>1.13</v>
@@ -2100,7 +2106,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2384,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2512,7 +2518,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2799,7 +2805,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2924,7 +2930,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3130,7 +3136,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3208,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3336,7 +3342,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3620,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3826,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3954,7 +3960,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4035,7 +4041,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4160,7 +4166,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4366,7 +4372,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4778,7 +4784,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4984,7 +4990,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5190,7 +5196,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5396,7 +5402,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5683,7 +5689,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -5808,7 +5814,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5889,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -6014,7 +6020,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6095,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6301,7 +6307,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6504,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>2.13</v>
@@ -6632,7 +6638,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6916,7 +6922,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1.71</v>
@@ -7044,7 +7050,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7456,7 +7462,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7662,7 +7668,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7868,7 +7874,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7946,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>1.13</v>
@@ -8074,7 +8080,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8486,7 +8492,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8567,7 +8573,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -8692,7 +8698,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8773,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8898,7 +8904,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8979,7 +8985,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -9185,7 +9191,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9388,7 +9394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
         <v>1.14</v>
@@ -9594,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
         <v>2.13</v>
@@ -9722,7 +9728,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9928,7 +9934,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10546,7 +10552,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10752,7 +10758,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10958,7 +10964,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11242,7 +11248,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -11576,7 +11582,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11988,7 +11994,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12069,7 +12075,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12194,7 +12200,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12481,7 +12487,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12606,7 +12612,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12684,7 +12690,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>2.75</v>
@@ -12812,7 +12818,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13018,7 +13024,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13636,7 +13642,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13714,7 +13720,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -13842,7 +13848,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13920,7 +13926,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14048,7 +14054,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14129,7 +14135,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.31</v>
@@ -14541,7 +14547,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -14666,7 +14672,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14747,7 +14753,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -14872,7 +14878,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15078,7 +15084,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15284,7 +15290,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15902,7 +15908,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -15983,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.13</v>
@@ -16186,7 +16192,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ74">
         <v>1.13</v>
@@ -16314,7 +16320,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16395,7 +16401,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16520,7 +16526,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16804,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
         <v>0.75</v>
@@ -16932,7 +16938,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17010,7 +17016,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
         <v>1.75</v>
@@ -17138,7 +17144,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17344,7 +17350,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17756,7 +17762,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17962,7 +17968,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18374,7 +18380,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18455,7 +18461,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18786,7 +18792,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18867,7 +18873,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR87">
         <v>1.2</v>
@@ -19070,7 +19076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
         <v>1.14</v>
@@ -19404,7 +19410,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19610,7 +19616,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19688,10 +19694,10 @@
         <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR91">
         <v>1.68</v>
@@ -19816,7 +19822,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -19894,10 +19900,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.7</v>
@@ -20228,7 +20234,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20309,7 +20315,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20434,7 +20440,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20640,7 +20646,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20846,7 +20852,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q97">
         <v>5.5</v>
@@ -21052,7 +21058,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21133,7 +21139,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ98">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
         <v>1.1</v>
@@ -21258,7 +21264,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21339,7 +21345,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21876,7 +21882,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22288,7 +22294,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q104">
         <v>7.5</v>
@@ -22700,7 +22706,7 @@
         <v>151</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>8.5</v>
@@ -23063,6 +23069,830 @@
       </c>
       <c r="BP107">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7537400</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45648.4375</v>
+      </c>
+      <c r="F108">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q108">
+        <v>3.2</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>3.75</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.4</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>2.4</v>
+      </c>
+      <c r="AA108">
+        <v>3.05</v>
+      </c>
+      <c r="AB108">
+        <v>3.03</v>
+      </c>
+      <c r="AC108">
+        <v>1.08</v>
+      </c>
+      <c r="AD108">
+        <v>7.8</v>
+      </c>
+      <c r="AE108">
+        <v>1.41</v>
+      </c>
+      <c r="AF108">
+        <v>2.95</v>
+      </c>
+      <c r="AG108">
+        <v>2.19</v>
+      </c>
+      <c r="AH108">
+        <v>1.6</v>
+      </c>
+      <c r="AI108">
+        <v>1.95</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.41</v>
+      </c>
+      <c r="AL108">
+        <v>1.38</v>
+      </c>
+      <c r="AM108">
+        <v>1.6</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.71</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.63</v>
+      </c>
+      <c r="AR108">
+        <v>1.22</v>
+      </c>
+      <c r="AS108">
+        <v>0.89</v>
+      </c>
+      <c r="AT108">
+        <v>2.11</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>11</v>
+      </c>
+      <c r="AX108">
+        <v>4</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>6.3</v>
+      </c>
+      <c r="BF108">
+        <v>2.32</v>
+      </c>
+      <c r="BG108">
+        <v>1.55</v>
+      </c>
+      <c r="BH108">
+        <v>2.22</v>
+      </c>
+      <c r="BI108">
+        <v>2.05</v>
+      </c>
+      <c r="BJ108">
+        <v>1.68</v>
+      </c>
+      <c r="BK108">
+        <v>2.82</v>
+      </c>
+      <c r="BL108">
+        <v>1.37</v>
+      </c>
+      <c r="BM108">
+        <v>4.1</v>
+      </c>
+      <c r="BN108">
+        <v>1.19</v>
+      </c>
+      <c r="BO108">
+        <v>4.6</v>
+      </c>
+      <c r="BP108">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7537399</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45648.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>83</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>95</v>
+      </c>
+      <c r="P109" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q109">
+        <v>1.67</v>
+      </c>
+      <c r="R109">
+        <v>2.6</v>
+      </c>
+      <c r="S109">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.5</v>
+      </c>
+      <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>1.26</v>
+      </c>
+      <c r="AA109">
+        <v>5.7</v>
+      </c>
+      <c r="AB109">
+        <v>12</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.23</v>
+      </c>
+      <c r="AF109">
+        <v>4.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.73</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>2.38</v>
+      </c>
+      <c r="AJ109">
+        <v>1.53</v>
+      </c>
+      <c r="AK109">
+        <v>1.06</v>
+      </c>
+      <c r="AL109">
+        <v>1.14</v>
+      </c>
+      <c r="AM109">
+        <v>4.1</v>
+      </c>
+      <c r="AN109">
+        <v>1.71</v>
+      </c>
+      <c r="AO109">
+        <v>0.71</v>
+      </c>
+      <c r="AP109">
+        <v>1.88</v>
+      </c>
+      <c r="AQ109">
+        <v>0.63</v>
+      </c>
+      <c r="AR109">
+        <v>1.74</v>
+      </c>
+      <c r="AS109">
+        <v>0.93</v>
+      </c>
+      <c r="AT109">
+        <v>2.67</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>12</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>35</v>
+      </c>
+      <c r="AZ109">
+        <v>3</v>
+      </c>
+      <c r="BA109">
+        <v>17</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>20</v>
+      </c>
+      <c r="BD109">
+        <v>1.06</v>
+      </c>
+      <c r="BE109">
+        <v>16</v>
+      </c>
+      <c r="BF109">
+        <v>15</v>
+      </c>
+      <c r="BG109">
+        <v>1.38</v>
+      </c>
+      <c r="BH109">
+        <v>2.78</v>
+      </c>
+      <c r="BI109">
+        <v>1.8</v>
+      </c>
+      <c r="BJ109">
+        <v>2</v>
+      </c>
+      <c r="BK109">
+        <v>2.22</v>
+      </c>
+      <c r="BL109">
+        <v>1.55</v>
+      </c>
+      <c r="BM109">
+        <v>3.05</v>
+      </c>
+      <c r="BN109">
+        <v>1.31</v>
+      </c>
+      <c r="BO109">
+        <v>3.9</v>
+      </c>
+      <c r="BP109">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7537401</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45648.60416666666</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>153</v>
+      </c>
+      <c r="P110" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q110">
+        <v>1.95</v>
+      </c>
+      <c r="R110">
+        <v>2.38</v>
+      </c>
+      <c r="S110">
+        <v>7</v>
+      </c>
+      <c r="T110">
+        <v>1.36</v>
+      </c>
+      <c r="U110">
+        <v>3</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.1</v>
+      </c>
+      <c r="Z110">
+        <v>1.27</v>
+      </c>
+      <c r="AA110">
+        <v>5.8</v>
+      </c>
+      <c r="AB110">
+        <v>11</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>11</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.75</v>
+      </c>
+      <c r="AG110">
+        <v>1.75</v>
+      </c>
+      <c r="AH110">
+        <v>1.95</v>
+      </c>
+      <c r="AI110">
+        <v>2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.75</v>
+      </c>
+      <c r="AK110">
+        <v>1.12</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>2.85</v>
+      </c>
+      <c r="AN110">
+        <v>1.14</v>
+      </c>
+      <c r="AO110">
+        <v>1.57</v>
+      </c>
+      <c r="AP110">
+        <v>1.38</v>
+      </c>
+      <c r="AQ110">
+        <v>1.38</v>
+      </c>
+      <c r="AR110">
+        <v>1.66</v>
+      </c>
+      <c r="AS110">
+        <v>1.13</v>
+      </c>
+      <c r="AT110">
+        <v>2.79</v>
+      </c>
+      <c r="AU110">
+        <v>6</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>6</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
+        <v>13</v>
+      </c>
+      <c r="BD110">
+        <v>1.15</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>7.1</v>
+      </c>
+      <c r="BG110">
+        <v>1.4</v>
+      </c>
+      <c r="BH110">
+        <v>2.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.8</v>
+      </c>
+      <c r="BJ110">
+        <v>2</v>
+      </c>
+      <c r="BK110">
+        <v>2.32</v>
+      </c>
+      <c r="BL110">
+        <v>1.52</v>
+      </c>
+      <c r="BM110">
+        <v>3.3</v>
+      </c>
+      <c r="BN110">
+        <v>1.28</v>
+      </c>
+      <c r="BO110">
+        <v>3.9</v>
+      </c>
+      <c r="BP110">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7537395</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45648.66666666666</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>154</v>
+      </c>
+      <c r="P111" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q111">
+        <v>1.57</v>
+      </c>
+      <c r="R111">
+        <v>2.75</v>
+      </c>
+      <c r="S111">
+        <v>12</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.25</v>
+      </c>
+      <c r="W111">
+        <v>1.57</v>
+      </c>
+      <c r="X111">
+        <v>5.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.14</v>
+      </c>
+      <c r="Z111">
+        <v>1.16</v>
+      </c>
+      <c r="AA111">
+        <v>7.7</v>
+      </c>
+      <c r="AB111">
+        <v>17</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>13</v>
+      </c>
+      <c r="AE111">
+        <v>1.19</v>
+      </c>
+      <c r="AF111">
+        <v>4.8</v>
+      </c>
+      <c r="AG111">
+        <v>1.57</v>
+      </c>
+      <c r="AH111">
+        <v>2.25</v>
+      </c>
+      <c r="AI111">
+        <v>2.5</v>
+      </c>
+      <c r="AJ111">
+        <v>1.5</v>
+      </c>
+      <c r="AK111">
+        <v>1.04</v>
+      </c>
+      <c r="AL111">
+        <v>1.11</v>
+      </c>
+      <c r="AM111">
+        <v>5</v>
+      </c>
+      <c r="AN111">
+        <v>2.43</v>
+      </c>
+      <c r="AO111">
+        <v>0.86</v>
+      </c>
+      <c r="AP111">
+        <v>2.25</v>
+      </c>
+      <c r="AQ111">
+        <v>0.88</v>
+      </c>
+      <c r="AR111">
+        <v>1.89</v>
+      </c>
+      <c r="AS111">
+        <v>1.1</v>
+      </c>
+      <c r="AT111">
+        <v>2.99</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>13</v>
+      </c>
+      <c r="AX111">
+        <v>1</v>
+      </c>
+      <c r="AY111">
+        <v>28</v>
+      </c>
+      <c r="AZ111">
+        <v>5</v>
+      </c>
+      <c r="BA111">
+        <v>9</v>
+      </c>
+      <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
+        <v>11</v>
+      </c>
+      <c r="BD111">
+        <v>1.07</v>
+      </c>
+      <c r="BE111">
+        <v>10.5</v>
+      </c>
+      <c r="BF111">
+        <v>10</v>
+      </c>
+      <c r="BG111">
+        <v>1.42</v>
+      </c>
+      <c r="BH111">
+        <v>2.62</v>
+      </c>
+      <c r="BI111">
+        <v>1.88</v>
+      </c>
+      <c r="BJ111">
+        <v>1.92</v>
+      </c>
+      <c r="BK111">
+        <v>2.35</v>
+      </c>
+      <c r="BL111">
+        <v>1.5</v>
+      </c>
+      <c r="BM111">
+        <v>3.3</v>
+      </c>
+      <c r="BN111">
+        <v>1.28</v>
+      </c>
+      <c r="BO111">
+        <v>3.75</v>
+      </c>
+      <c r="BP111">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['32', '41', '64', '90']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -1023,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1288,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1488,7 +1494,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2106,7 +2112,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2187,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2518,7 +2524,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2802,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -2930,7 +2936,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3011,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3136,7 +3142,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3342,7 +3348,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3420,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3960,7 +3966,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4166,7 +4172,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4372,7 +4378,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4784,7 +4790,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4990,7 +4996,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5196,7 +5202,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5402,7 +5408,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5814,7 +5820,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5892,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6020,7 +6026,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6638,7 +6644,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6716,10 +6722,10 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1</v>
@@ -6925,7 +6931,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7050,7 +7056,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7462,7 +7468,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7874,7 +7880,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8080,7 +8086,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8492,7 +8498,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8698,7 +8704,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8776,7 +8782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -8904,7 +8910,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8982,7 +8988,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9397,7 +9403,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -9728,7 +9734,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9934,7 +9940,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10015,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10552,7 +10558,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10758,7 +10764,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10964,7 +10970,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11582,7 +11588,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11994,7 +12000,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12200,7 +12206,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12278,7 +12284,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>2.13</v>
@@ -12612,7 +12618,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12818,7 +12824,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12899,7 +12905,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -13024,7 +13030,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13514,7 +13520,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -13642,7 +13648,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13723,7 +13729,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.7</v>
@@ -13848,7 +13854,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14054,7 +14060,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14672,7 +14678,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14878,7 +14884,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15084,7 +15090,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15290,7 +15296,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15574,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -15783,7 +15789,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.28</v>
@@ -15908,7 +15914,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16320,7 +16326,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16398,7 +16404,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -16526,7 +16532,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16607,7 +16613,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.06</v>
@@ -16938,7 +16944,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17144,7 +17150,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17350,7 +17356,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17637,7 +17643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.51</v>
@@ -17762,7 +17768,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17968,7 +17974,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18046,7 +18052,7 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>2.75</v>
@@ -18380,7 +18386,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18792,7 +18798,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19079,7 +19085,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.86</v>
@@ -19410,7 +19416,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19488,7 +19494,7 @@
         <v>1.67</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.75</v>
@@ -19616,7 +19622,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19822,7 +19828,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20109,7 +20115,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.95</v>
@@ -20234,7 +20240,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20440,7 +20446,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20646,7 +20652,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20724,7 +20730,7 @@
         <v>1.17</v>
       </c>
       <c r="AP96">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -20930,7 +20936,7 @@
         <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>2.13</v>
@@ -21058,7 +21064,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21264,7 +21270,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21882,7 +21888,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22294,7 +22300,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q104">
         <v>7.5</v>
@@ -22706,7 +22712,7 @@
         <v>151</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>8.5</v>
@@ -23076,7 +23082,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7537400</v>
+        <v>7537399</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23085,16 +23091,16 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45648.4375</v>
+        <v>45647.875</v>
       </c>
       <c r="F108">
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23106,175 +23112,175 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P108" t="s">
         <v>84</v>
       </c>
       <c r="Q108">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="S108">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3.25</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
         <v>1.5</v>
       </c>
-      <c r="U108">
-        <v>2.5</v>
-      </c>
-      <c r="V108">
-        <v>3.4</v>
-      </c>
-      <c r="W108">
-        <v>1.3</v>
-      </c>
       <c r="X108">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y108">
+        <v>1.11</v>
+      </c>
+      <c r="Z108">
+        <v>1.26</v>
+      </c>
+      <c r="AA108">
+        <v>5.7</v>
+      </c>
+      <c r="AB108">
+        <v>12</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>11</v>
+      </c>
+      <c r="AE108">
+        <v>1.23</v>
+      </c>
+      <c r="AF108">
+        <v>4.2</v>
+      </c>
+      <c r="AG108">
+        <v>1.73</v>
+      </c>
+      <c r="AH108">
+        <v>2</v>
+      </c>
+      <c r="AI108">
+        <v>2.38</v>
+      </c>
+      <c r="AJ108">
+        <v>1.53</v>
+      </c>
+      <c r="AK108">
         <v>1.06</v>
       </c>
-      <c r="Z108">
-        <v>2.4</v>
-      </c>
-      <c r="AA108">
+      <c r="AL108">
+        <v>1.14</v>
+      </c>
+      <c r="AM108">
+        <v>4.1</v>
+      </c>
+      <c r="AN108">
+        <v>1.71</v>
+      </c>
+      <c r="AO108">
+        <v>0.71</v>
+      </c>
+      <c r="AP108">
+        <v>1.88</v>
+      </c>
+      <c r="AQ108">
+        <v>0.63</v>
+      </c>
+      <c r="AR108">
+        <v>1.74</v>
+      </c>
+      <c r="AS108">
+        <v>0.93</v>
+      </c>
+      <c r="AT108">
+        <v>2.67</v>
+      </c>
+      <c r="AU108">
+        <v>8</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>12</v>
+      </c>
+      <c r="AX108">
+        <v>1</v>
+      </c>
+      <c r="AY108">
+        <v>35</v>
+      </c>
+      <c r="AZ108">
+        <v>3</v>
+      </c>
+      <c r="BA108">
+        <v>17</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>20</v>
+      </c>
+      <c r="BD108">
+        <v>1.06</v>
+      </c>
+      <c r="BE108">
+        <v>16</v>
+      </c>
+      <c r="BF108">
+        <v>15</v>
+      </c>
+      <c r="BG108">
+        <v>1.38</v>
+      </c>
+      <c r="BH108">
+        <v>2.78</v>
+      </c>
+      <c r="BI108">
+        <v>1.8</v>
+      </c>
+      <c r="BJ108">
+        <v>2</v>
+      </c>
+      <c r="BK108">
+        <v>2.22</v>
+      </c>
+      <c r="BL108">
+        <v>1.55</v>
+      </c>
+      <c r="BM108">
         <v>3.05</v>
       </c>
-      <c r="AB108">
-        <v>3.03</v>
-      </c>
-      <c r="AC108">
-        <v>1.08</v>
-      </c>
-      <c r="AD108">
-        <v>7.8</v>
-      </c>
-      <c r="AE108">
-        <v>1.41</v>
-      </c>
-      <c r="AF108">
-        <v>2.95</v>
-      </c>
-      <c r="AG108">
-        <v>2.19</v>
-      </c>
-      <c r="AH108">
-        <v>1.6</v>
-      </c>
-      <c r="AI108">
-        <v>1.95</v>
-      </c>
-      <c r="AJ108">
-        <v>1.8</v>
-      </c>
-      <c r="AK108">
-        <v>1.41</v>
-      </c>
-      <c r="AL108">
-        <v>1.38</v>
-      </c>
-      <c r="AM108">
-        <v>1.6</v>
-      </c>
-      <c r="AN108">
-        <v>1</v>
-      </c>
-      <c r="AO108">
-        <v>1.71</v>
-      </c>
-      <c r="AP108">
-        <v>1</v>
-      </c>
-      <c r="AQ108">
-        <v>1.63</v>
-      </c>
-      <c r="AR108">
-        <v>1.22</v>
-      </c>
-      <c r="AS108">
-        <v>0.89</v>
-      </c>
-      <c r="AT108">
-        <v>2.11</v>
-      </c>
-      <c r="AU108">
-        <v>4</v>
-      </c>
-      <c r="AV108">
-        <v>5</v>
-      </c>
-      <c r="AW108">
-        <v>11</v>
-      </c>
-      <c r="AX108">
-        <v>4</v>
-      </c>
-      <c r="AY108">
-        <v>16</v>
-      </c>
-      <c r="AZ108">
-        <v>12</v>
-      </c>
-      <c r="BA108">
-        <v>4</v>
-      </c>
-      <c r="BB108">
-        <v>6</v>
-      </c>
-      <c r="BC108">
-        <v>10</v>
-      </c>
-      <c r="BD108">
-        <v>1.82</v>
-      </c>
-      <c r="BE108">
-        <v>6.3</v>
-      </c>
-      <c r="BF108">
-        <v>2.32</v>
-      </c>
-      <c r="BG108">
-        <v>1.55</v>
-      </c>
-      <c r="BH108">
-        <v>2.22</v>
-      </c>
-      <c r="BI108">
-        <v>2.05</v>
-      </c>
-      <c r="BJ108">
-        <v>1.68</v>
-      </c>
-      <c r="BK108">
-        <v>2.82</v>
-      </c>
-      <c r="BL108">
-        <v>1.37</v>
-      </c>
-      <c r="BM108">
-        <v>4.1</v>
-      </c>
       <c r="BN108">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="BO108">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BP108">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23282,7 +23288,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7537399</v>
+        <v>7537400</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23291,16 +23297,16 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45648.54166666666</v>
+        <v>45648.4375</v>
       </c>
       <c r="F109">
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -23312,175 +23318,175 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P109" t="s">
         <v>84</v>
       </c>
       <c r="Q109">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="R109">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="S109">
+        <v>3.75</v>
+      </c>
+      <c r="T109">
+        <v>1.5</v>
+      </c>
+      <c r="U109">
+        <v>2.5</v>
+      </c>
+      <c r="V109">
+        <v>3.4</v>
+      </c>
+      <c r="W109">
+        <v>1.3</v>
+      </c>
+      <c r="X109">
+        <v>10</v>
+      </c>
+      <c r="Y109">
+        <v>1.06</v>
+      </c>
+      <c r="Z109">
+        <v>2.4</v>
+      </c>
+      <c r="AA109">
+        <v>3.05</v>
+      </c>
+      <c r="AB109">
+        <v>3.03</v>
+      </c>
+      <c r="AC109">
+        <v>1.08</v>
+      </c>
+      <c r="AD109">
+        <v>7.8</v>
+      </c>
+      <c r="AE109">
+        <v>1.41</v>
+      </c>
+      <c r="AF109">
+        <v>2.95</v>
+      </c>
+      <c r="AG109">
+        <v>2.19</v>
+      </c>
+      <c r="AH109">
+        <v>1.6</v>
+      </c>
+      <c r="AI109">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.41</v>
+      </c>
+      <c r="AL109">
+        <v>1.38</v>
+      </c>
+      <c r="AM109">
+        <v>1.6</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
+        <v>1.71</v>
+      </c>
+      <c r="AP109">
+        <v>1</v>
+      </c>
+      <c r="AQ109">
+        <v>1.63</v>
+      </c>
+      <c r="AR109">
+        <v>1.22</v>
+      </c>
+      <c r="AS109">
+        <v>0.89</v>
+      </c>
+      <c r="AT109">
+        <v>2.11</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
         <v>11</v>
       </c>
-      <c r="T109">
-        <v>1.33</v>
-      </c>
-      <c r="U109">
-        <v>3.25</v>
-      </c>
-      <c r="V109">
-        <v>2.5</v>
-      </c>
-      <c r="W109">
-        <v>1.5</v>
-      </c>
-      <c r="X109">
-        <v>6.5</v>
-      </c>
-      <c r="Y109">
-        <v>1.11</v>
-      </c>
-      <c r="Z109">
-        <v>1.26</v>
-      </c>
-      <c r="AA109">
-        <v>5.7</v>
-      </c>
-      <c r="AB109">
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
         <v>12</v>
       </c>
-      <c r="AC109">
-        <v>1.04</v>
-      </c>
-      <c r="AD109">
-        <v>11</v>
-      </c>
-      <c r="AE109">
-        <v>1.23</v>
-      </c>
-      <c r="AF109">
-        <v>4.2</v>
-      </c>
-      <c r="AG109">
-        <v>1.73</v>
-      </c>
-      <c r="AH109">
-        <v>2</v>
-      </c>
-      <c r="AI109">
-        <v>2.38</v>
-      </c>
-      <c r="AJ109">
-        <v>1.53</v>
-      </c>
-      <c r="AK109">
-        <v>1.06</v>
-      </c>
-      <c r="AL109">
-        <v>1.14</v>
-      </c>
-      <c r="AM109">
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>6</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.82</v>
+      </c>
+      <c r="BE109">
+        <v>6.3</v>
+      </c>
+      <c r="BF109">
+        <v>2.32</v>
+      </c>
+      <c r="BG109">
+        <v>1.55</v>
+      </c>
+      <c r="BH109">
+        <v>2.22</v>
+      </c>
+      <c r="BI109">
+        <v>2.05</v>
+      </c>
+      <c r="BJ109">
+        <v>1.68</v>
+      </c>
+      <c r="BK109">
+        <v>2.82</v>
+      </c>
+      <c r="BL109">
+        <v>1.37</v>
+      </c>
+      <c r="BM109">
         <v>4.1</v>
       </c>
-      <c r="AN109">
-        <v>1.71</v>
-      </c>
-      <c r="AO109">
-        <v>0.71</v>
-      </c>
-      <c r="AP109">
-        <v>1.88</v>
-      </c>
-      <c r="AQ109">
-        <v>0.63</v>
-      </c>
-      <c r="AR109">
-        <v>1.74</v>
-      </c>
-      <c r="AS109">
-        <v>0.93</v>
-      </c>
-      <c r="AT109">
-        <v>2.67</v>
-      </c>
-      <c r="AU109">
-        <v>8</v>
-      </c>
-      <c r="AV109">
-        <v>2</v>
-      </c>
-      <c r="AW109">
-        <v>12</v>
-      </c>
-      <c r="AX109">
-        <v>1</v>
-      </c>
-      <c r="AY109">
-        <v>35</v>
-      </c>
-      <c r="AZ109">
-        <v>3</v>
-      </c>
-      <c r="BA109">
-        <v>17</v>
-      </c>
-      <c r="BB109">
-        <v>3</v>
-      </c>
-      <c r="BC109">
-        <v>20</v>
-      </c>
-      <c r="BD109">
-        <v>1.06</v>
-      </c>
-      <c r="BE109">
-        <v>16</v>
-      </c>
-      <c r="BF109">
-        <v>15</v>
-      </c>
-      <c r="BG109">
-        <v>1.38</v>
-      </c>
-      <c r="BH109">
-        <v>2.78</v>
-      </c>
-      <c r="BI109">
-        <v>1.8</v>
-      </c>
-      <c r="BJ109">
-        <v>2</v>
-      </c>
-      <c r="BK109">
-        <v>2.22</v>
-      </c>
-      <c r="BL109">
-        <v>1.55</v>
-      </c>
-      <c r="BM109">
-        <v>3.05</v>
-      </c>
       <c r="BN109">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="BO109">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BP109">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23736,7 +23742,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -23893,6 +23899,418 @@
       </c>
       <c r="BP111">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7537396</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45649.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>82</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>155</v>
+      </c>
+      <c r="P112" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112">
+        <v>1.5</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>3.4</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>10</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>2.87</v>
+      </c>
+      <c r="AA112">
+        <v>3</v>
+      </c>
+      <c r="AB112">
+        <v>2.25</v>
+      </c>
+      <c r="AC112">
+        <v>1.08</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.4</v>
+      </c>
+      <c r="AF112">
+        <v>3</v>
+      </c>
+      <c r="AG112">
+        <v>2.1</v>
+      </c>
+      <c r="AH112">
+        <v>1.6</v>
+      </c>
+      <c r="AI112">
+        <v>1.91</v>
+      </c>
+      <c r="AJ112">
+        <v>1.91</v>
+      </c>
+      <c r="AK112">
+        <v>1.59</v>
+      </c>
+      <c r="AL112">
+        <v>1.39</v>
+      </c>
+      <c r="AM112">
+        <v>1.41</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>1.14</v>
+      </c>
+      <c r="AP112">
+        <v>1.25</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.43</v>
+      </c>
+      <c r="AS112">
+        <v>1.1</v>
+      </c>
+      <c r="AT112">
+        <v>2.53</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>7</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>13</v>
+      </c>
+      <c r="BA112">
+        <v>1</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>4</v>
+      </c>
+      <c r="BD112">
+        <v>2.3</v>
+      </c>
+      <c r="BE112">
+        <v>5.6</v>
+      </c>
+      <c r="BF112">
+        <v>1.95</v>
+      </c>
+      <c r="BG112">
+        <v>1.48</v>
+      </c>
+      <c r="BH112">
+        <v>2.4</v>
+      </c>
+      <c r="BI112">
+        <v>1.87</v>
+      </c>
+      <c r="BJ112">
+        <v>1.83</v>
+      </c>
+      <c r="BK112">
+        <v>2.45</v>
+      </c>
+      <c r="BL112">
+        <v>1.46</v>
+      </c>
+      <c r="BM112">
+        <v>3.34</v>
+      </c>
+      <c r="BN112">
+        <v>1.24</v>
+      </c>
+      <c r="BO112">
+        <v>3.9</v>
+      </c>
+      <c r="BP112">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7537398</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45649.54166666666</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>156</v>
+      </c>
+      <c r="P113" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q113">
+        <v>2.88</v>
+      </c>
+      <c r="R113">
+        <v>2.1</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.44</v>
+      </c>
+      <c r="U113">
+        <v>2.63</v>
+      </c>
+      <c r="V113">
+        <v>3.25</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>9</v>
+      </c>
+      <c r="Y113">
+        <v>1.07</v>
+      </c>
+      <c r="Z113">
+        <v>2.2</v>
+      </c>
+      <c r="AA113">
+        <v>3.35</v>
+      </c>
+      <c r="AB113">
+        <v>3.35</v>
+      </c>
+      <c r="AC113">
+        <v>1.07</v>
+      </c>
+      <c r="AD113">
+        <v>8.4</v>
+      </c>
+      <c r="AE113">
+        <v>1.35</v>
+      </c>
+      <c r="AF113">
+        <v>3.2</v>
+      </c>
+      <c r="AG113">
+        <v>2.06</v>
+      </c>
+      <c r="AH113">
+        <v>1.68</v>
+      </c>
+      <c r="AI113">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>1.32</v>
+      </c>
+      <c r="AL113">
+        <v>1.37</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>0.71</v>
+      </c>
+      <c r="AO113">
+        <v>1.71</v>
+      </c>
+      <c r="AP113">
+        <v>1</v>
+      </c>
+      <c r="AQ113">
+        <v>1.5</v>
+      </c>
+      <c r="AR113">
+        <v>1.13</v>
+      </c>
+      <c r="AS113">
+        <v>0.87</v>
+      </c>
+      <c r="AT113">
+        <v>2</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>20</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.58</v>
+      </c>
+      <c r="BE113">
+        <v>5.85</v>
+      </c>
+      <c r="BF113">
+        <v>3.1</v>
+      </c>
+      <c r="BG113">
+        <v>1.51</v>
+      </c>
+      <c r="BH113">
+        <v>2.32</v>
+      </c>
+      <c r="BI113">
+        <v>1.93</v>
+      </c>
+      <c r="BJ113">
+        <v>1.78</v>
+      </c>
+      <c r="BK113">
+        <v>2.54</v>
+      </c>
+      <c r="BL113">
+        <v>1.43</v>
+      </c>
+      <c r="BM113">
+        <v>3.5</v>
+      </c>
+      <c r="BN113">
+        <v>1.22</v>
+      </c>
+      <c r="BO113">
+        <v>4.95</v>
+      </c>
+      <c r="BP113">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -23082,7 +23082,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7537399</v>
+        <v>7537400</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23091,16 +23091,16 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45647.875</v>
+        <v>45648.4375</v>
       </c>
       <c r="F108">
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23112,175 +23112,175 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P108" t="s">
         <v>84</v>
       </c>
       <c r="Q108">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="R108">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="S108">
+        <v>3.75</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.4</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>2.4</v>
+      </c>
+      <c r="AA108">
+        <v>3.05</v>
+      </c>
+      <c r="AB108">
+        <v>3.03</v>
+      </c>
+      <c r="AC108">
+        <v>1.08</v>
+      </c>
+      <c r="AD108">
+        <v>7.8</v>
+      </c>
+      <c r="AE108">
+        <v>1.41</v>
+      </c>
+      <c r="AF108">
+        <v>2.95</v>
+      </c>
+      <c r="AG108">
+        <v>2.19</v>
+      </c>
+      <c r="AH108">
+        <v>1.6</v>
+      </c>
+      <c r="AI108">
+        <v>1.95</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.41</v>
+      </c>
+      <c r="AL108">
+        <v>1.38</v>
+      </c>
+      <c r="AM108">
+        <v>1.6</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.71</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.63</v>
+      </c>
+      <c r="AR108">
+        <v>1.22</v>
+      </c>
+      <c r="AS108">
+        <v>0.89</v>
+      </c>
+      <c r="AT108">
+        <v>2.11</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
         <v>11</v>
       </c>
-      <c r="T108">
-        <v>1.33</v>
-      </c>
-      <c r="U108">
-        <v>3.25</v>
-      </c>
-      <c r="V108">
-        <v>2.5</v>
-      </c>
-      <c r="W108">
-        <v>1.5</v>
-      </c>
-      <c r="X108">
-        <v>6.5</v>
-      </c>
-      <c r="Y108">
-        <v>1.11</v>
-      </c>
-      <c r="Z108">
-        <v>1.26</v>
-      </c>
-      <c r="AA108">
-        <v>5.7</v>
-      </c>
-      <c r="AB108">
+      <c r="AX108">
+        <v>4</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
         <v>12</v>
       </c>
-      <c r="AC108">
-        <v>1.04</v>
-      </c>
-      <c r="AD108">
-        <v>11</v>
-      </c>
-      <c r="AE108">
-        <v>1.23</v>
-      </c>
-      <c r="AF108">
-        <v>4.2</v>
-      </c>
-      <c r="AG108">
-        <v>1.73</v>
-      </c>
-      <c r="AH108">
-        <v>2</v>
-      </c>
-      <c r="AI108">
-        <v>2.38</v>
-      </c>
-      <c r="AJ108">
-        <v>1.53</v>
-      </c>
-      <c r="AK108">
-        <v>1.06</v>
-      </c>
-      <c r="AL108">
-        <v>1.14</v>
-      </c>
-      <c r="AM108">
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>6.3</v>
+      </c>
+      <c r="BF108">
+        <v>2.32</v>
+      </c>
+      <c r="BG108">
+        <v>1.55</v>
+      </c>
+      <c r="BH108">
+        <v>2.22</v>
+      </c>
+      <c r="BI108">
+        <v>2.05</v>
+      </c>
+      <c r="BJ108">
+        <v>1.68</v>
+      </c>
+      <c r="BK108">
+        <v>2.82</v>
+      </c>
+      <c r="BL108">
+        <v>1.37</v>
+      </c>
+      <c r="BM108">
         <v>4.1</v>
       </c>
-      <c r="AN108">
-        <v>1.71</v>
-      </c>
-      <c r="AO108">
-        <v>0.71</v>
-      </c>
-      <c r="AP108">
-        <v>1.88</v>
-      </c>
-      <c r="AQ108">
-        <v>0.63</v>
-      </c>
-      <c r="AR108">
-        <v>1.74</v>
-      </c>
-      <c r="AS108">
-        <v>0.93</v>
-      </c>
-      <c r="AT108">
-        <v>2.67</v>
-      </c>
-      <c r="AU108">
-        <v>8</v>
-      </c>
-      <c r="AV108">
-        <v>2</v>
-      </c>
-      <c r="AW108">
-        <v>12</v>
-      </c>
-      <c r="AX108">
-        <v>1</v>
-      </c>
-      <c r="AY108">
-        <v>35</v>
-      </c>
-      <c r="AZ108">
-        <v>3</v>
-      </c>
-      <c r="BA108">
-        <v>17</v>
-      </c>
-      <c r="BB108">
-        <v>3</v>
-      </c>
-      <c r="BC108">
-        <v>20</v>
-      </c>
-      <c r="BD108">
-        <v>1.06</v>
-      </c>
-      <c r="BE108">
-        <v>16</v>
-      </c>
-      <c r="BF108">
-        <v>15</v>
-      </c>
-      <c r="BG108">
-        <v>1.38</v>
-      </c>
-      <c r="BH108">
-        <v>2.78</v>
-      </c>
-      <c r="BI108">
-        <v>1.8</v>
-      </c>
-      <c r="BJ108">
-        <v>2</v>
-      </c>
-      <c r="BK108">
-        <v>2.22</v>
-      </c>
-      <c r="BL108">
-        <v>1.55</v>
-      </c>
-      <c r="BM108">
-        <v>3.05</v>
-      </c>
       <c r="BN108">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="BO108">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="BP108">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23288,7 +23288,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7537400</v>
+        <v>7537399</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23297,16 +23297,16 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45648.4375</v>
+        <v>45648.54166666666</v>
       </c>
       <c r="F109">
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -23318,175 +23318,175 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P109" t="s">
         <v>84</v>
       </c>
       <c r="Q109">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="S109">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.5</v>
+      </c>
+      <c r="W109">
         <v>1.5</v>
       </c>
-      <c r="U109">
-        <v>2.5</v>
-      </c>
-      <c r="V109">
-        <v>3.4</v>
-      </c>
-      <c r="W109">
-        <v>1.3</v>
-      </c>
       <c r="X109">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>1.26</v>
+      </c>
+      <c r="AA109">
+        <v>5.7</v>
+      </c>
+      <c r="AB109">
+        <v>12</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.23</v>
+      </c>
+      <c r="AF109">
+        <v>4.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.73</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>2.38</v>
+      </c>
+      <c r="AJ109">
+        <v>1.53</v>
+      </c>
+      <c r="AK109">
         <v>1.06</v>
       </c>
-      <c r="Z109">
-        <v>2.4</v>
-      </c>
-      <c r="AA109">
+      <c r="AL109">
+        <v>1.14</v>
+      </c>
+      <c r="AM109">
+        <v>4.1</v>
+      </c>
+      <c r="AN109">
+        <v>1.71</v>
+      </c>
+      <c r="AO109">
+        <v>0.71</v>
+      </c>
+      <c r="AP109">
+        <v>1.88</v>
+      </c>
+      <c r="AQ109">
+        <v>0.63</v>
+      </c>
+      <c r="AR109">
+        <v>1.74</v>
+      </c>
+      <c r="AS109">
+        <v>0.93</v>
+      </c>
+      <c r="AT109">
+        <v>2.67</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>12</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>35</v>
+      </c>
+      <c r="AZ109">
+        <v>3</v>
+      </c>
+      <c r="BA109">
+        <v>17</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>20</v>
+      </c>
+      <c r="BD109">
+        <v>1.06</v>
+      </c>
+      <c r="BE109">
+        <v>16</v>
+      </c>
+      <c r="BF109">
+        <v>15</v>
+      </c>
+      <c r="BG109">
+        <v>1.38</v>
+      </c>
+      <c r="BH109">
+        <v>2.78</v>
+      </c>
+      <c r="BI109">
+        <v>1.8</v>
+      </c>
+      <c r="BJ109">
+        <v>2</v>
+      </c>
+      <c r="BK109">
+        <v>2.22</v>
+      </c>
+      <c r="BL109">
+        <v>1.55</v>
+      </c>
+      <c r="BM109">
         <v>3.05</v>
       </c>
-      <c r="AB109">
-        <v>3.03</v>
-      </c>
-      <c r="AC109">
-        <v>1.08</v>
-      </c>
-      <c r="AD109">
-        <v>7.8</v>
-      </c>
-      <c r="AE109">
-        <v>1.41</v>
-      </c>
-      <c r="AF109">
-        <v>2.95</v>
-      </c>
-      <c r="AG109">
-        <v>2.19</v>
-      </c>
-      <c r="AH109">
-        <v>1.6</v>
-      </c>
-      <c r="AI109">
-        <v>1.95</v>
-      </c>
-      <c r="AJ109">
-        <v>1.8</v>
-      </c>
-      <c r="AK109">
-        <v>1.41</v>
-      </c>
-      <c r="AL109">
-        <v>1.38</v>
-      </c>
-      <c r="AM109">
-        <v>1.6</v>
-      </c>
-      <c r="AN109">
-        <v>1</v>
-      </c>
-      <c r="AO109">
-        <v>1.71</v>
-      </c>
-      <c r="AP109">
-        <v>1</v>
-      </c>
-      <c r="AQ109">
-        <v>1.63</v>
-      </c>
-      <c r="AR109">
-        <v>1.22</v>
-      </c>
-      <c r="AS109">
-        <v>0.89</v>
-      </c>
-      <c r="AT109">
-        <v>2.11</v>
-      </c>
-      <c r="AU109">
-        <v>4</v>
-      </c>
-      <c r="AV109">
-        <v>5</v>
-      </c>
-      <c r="AW109">
-        <v>11</v>
-      </c>
-      <c r="AX109">
-        <v>4</v>
-      </c>
-      <c r="AY109">
-        <v>16</v>
-      </c>
-      <c r="AZ109">
-        <v>12</v>
-      </c>
-      <c r="BA109">
-        <v>4</v>
-      </c>
-      <c r="BB109">
-        <v>6</v>
-      </c>
-      <c r="BC109">
-        <v>10</v>
-      </c>
-      <c r="BD109">
-        <v>1.82</v>
-      </c>
-      <c r="BE109">
-        <v>6.3</v>
-      </c>
-      <c r="BF109">
-        <v>2.32</v>
-      </c>
-      <c r="BG109">
-        <v>1.55</v>
-      </c>
-      <c r="BH109">
-        <v>2.22</v>
-      </c>
-      <c r="BI109">
-        <v>2.05</v>
-      </c>
-      <c r="BJ109">
-        <v>1.68</v>
-      </c>
-      <c r="BK109">
-        <v>2.82</v>
-      </c>
-      <c r="BL109">
-        <v>1.37</v>
-      </c>
-      <c r="BM109">
-        <v>4.1</v>
-      </c>
       <c r="BN109">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="BO109">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="BP109">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="110" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['32', '41', '64', '90']</t>
+  </si>
+  <si>
+    <t>['28', '52']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -1029,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1291,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1494,7 +1497,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -2112,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2524,7 +2527,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2605,7 +2608,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2936,7 +2939,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3142,7 +3145,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3223,7 +3226,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3348,7 +3351,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3966,7 +3969,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4172,7 +4175,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4378,7 +4381,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4790,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4996,7 +4999,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5202,7 +5205,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5408,7 +5411,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5486,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -5820,7 +5823,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6026,7 +6029,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6644,7 +6647,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7056,7 +7059,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7468,7 +7471,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7880,7 +7883,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -8086,7 +8089,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8167,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8370,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ36">
         <v>1.63</v>
@@ -8498,7 +8501,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8704,7 +8707,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8910,7 +8913,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9734,7 +9737,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9940,7 +9943,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10433,7 +10436,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10558,7 +10561,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10764,7 +10767,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10842,7 +10845,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -10970,7 +10973,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11588,7 +11591,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12000,7 +12003,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12206,7 +12209,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12618,7 +12621,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12824,7 +12827,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13030,7 +13033,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13111,7 +13114,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13648,7 +13651,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13854,7 +13857,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -14060,7 +14063,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14138,7 +14141,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -14550,7 +14553,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -14678,7 +14681,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14884,7 +14887,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -15090,7 +15093,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15296,7 +15299,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15914,7 +15917,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16326,7 +16329,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16532,7 +16535,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16819,7 +16822,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>1.69</v>
@@ -16944,7 +16947,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17150,7 +17153,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17228,7 +17231,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17356,7 +17359,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17768,7 +17771,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17974,7 +17977,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18386,7 +18389,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18673,7 +18676,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -18798,7 +18801,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19416,7 +19419,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19622,7 +19625,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19828,7 +19831,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -20240,7 +20243,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20446,7 +20449,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20652,7 +20655,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -21064,7 +21067,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21270,7 +21273,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21348,7 +21351,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
         <v>0.88</v>
@@ -21888,7 +21891,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22300,7 +22303,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q104">
         <v>7.5</v>
@@ -22712,7 +22715,7 @@
         <v>151</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>8.5</v>
@@ -22790,7 +22793,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ106">
         <v>1.75</v>
@@ -22999,7 +23002,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.96</v>
@@ -23742,7 +23745,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -23948,7 +23951,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24311,6 +24314,212 @@
       </c>
       <c r="BP113">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7537402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>83</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>157</v>
+      </c>
+      <c r="P114" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q114">
+        <v>3.2</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>3.75</v>
+      </c>
+      <c r="T114">
+        <v>1.53</v>
+      </c>
+      <c r="U114">
+        <v>2.38</v>
+      </c>
+      <c r="V114">
+        <v>3.5</v>
+      </c>
+      <c r="W114">
+        <v>1.29</v>
+      </c>
+      <c r="X114">
+        <v>11</v>
+      </c>
+      <c r="Y114">
+        <v>1.05</v>
+      </c>
+      <c r="Z114">
+        <v>2.25</v>
+      </c>
+      <c r="AA114">
+        <v>3.1</v>
+      </c>
+      <c r="AB114">
+        <v>3</v>
+      </c>
+      <c r="AC114">
+        <v>1.1</v>
+      </c>
+      <c r="AD114">
+        <v>7.2</v>
+      </c>
+      <c r="AE114">
+        <v>1.46</v>
+      </c>
+      <c r="AF114">
+        <v>2.75</v>
+      </c>
+      <c r="AG114">
+        <v>2.25</v>
+      </c>
+      <c r="AH114">
+        <v>1.57</v>
+      </c>
+      <c r="AI114">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114">
+        <v>1.8</v>
+      </c>
+      <c r="AK114">
+        <v>1.4</v>
+      </c>
+      <c r="AL114">
+        <v>1.4</v>
+      </c>
+      <c r="AM114">
+        <v>1.59</v>
+      </c>
+      <c r="AN114">
+        <v>0.5</v>
+      </c>
+      <c r="AO114">
+        <v>0.75</v>
+      </c>
+      <c r="AP114">
+        <v>0.78</v>
+      </c>
+      <c r="AQ114">
+        <v>0.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.39</v>
+      </c>
+      <c r="AS114">
+        <v>0.93</v>
+      </c>
+      <c r="AT114">
+        <v>2.32</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>13</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>7</v>
+      </c>
+      <c r="BD114">
+        <v>1.75</v>
+      </c>
+      <c r="BE114">
+        <v>7.5</v>
+      </c>
+      <c r="BF114">
+        <v>2.45</v>
+      </c>
+      <c r="BG114">
+        <v>1.45</v>
+      </c>
+      <c r="BH114">
+        <v>2.65</v>
+      </c>
+      <c r="BI114">
+        <v>1.8</v>
+      </c>
+      <c r="BJ114">
+        <v>2</v>
+      </c>
+      <c r="BK114">
+        <v>2.26</v>
+      </c>
+      <c r="BL114">
+        <v>1.6</v>
+      </c>
+      <c r="BM114">
+        <v>3.42</v>
+      </c>
+      <c r="BN114">
+        <v>1.23</v>
+      </c>
+      <c r="BO114">
+        <v>4.33</v>
+      </c>
+      <c r="BP114">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['28', '52']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['70', '90+4']</t>
+  </si>
+  <si>
+    <t>['12', '90']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -671,6 +680,18 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['58', '70']</t>
+  </si>
+  <si>
+    <t>['18', '52', '54', '86']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1312,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1369,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1497,7 +1518,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1578,7 +1599,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1781,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ4">
         <v>0.63</v>
@@ -1987,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2115,7 +2136,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2193,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2402,7 +2423,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2939,7 +2960,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3145,7 +3166,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3351,7 +3372,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3841,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -3969,7 +3990,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4175,7 +4196,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4381,7 +4402,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4459,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4668,7 +4689,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4793,7 +4814,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4871,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4999,7 +5020,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5077,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5205,7 +5226,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5283,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5411,7 +5432,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5823,7 +5844,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6029,7 +6050,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6647,7 +6668,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7059,7 +7080,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7137,10 +7158,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ30">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7343,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7471,7 +7492,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7552,7 +7573,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7755,10 +7776,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7883,7 +7904,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7961,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8089,7 +8110,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8167,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8376,7 +8397,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8501,7 +8522,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8579,7 +8600,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ37">
         <v>0.63</v>
@@ -8707,7 +8728,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8913,7 +8934,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9737,7 +9758,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9818,7 +9839,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -9943,7 +9964,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10021,7 +10042,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10230,7 +10251,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10433,7 +10454,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10561,7 +10582,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10642,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -10767,7 +10788,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10848,7 +10869,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -10973,7 +10994,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11051,10 +11072,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11257,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -11463,10 +11484,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11591,7 +11612,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11669,7 +11690,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52">
         <v>1.63</v>
@@ -11878,7 +11899,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12003,7 +12024,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12209,7 +12230,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12493,7 +12514,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
         <v>0.63</v>
@@ -12621,7 +12642,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12702,7 +12723,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -12827,7 +12848,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13033,7 +13054,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13111,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13320,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13651,7 +13672,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13729,7 +13750,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13857,7 +13878,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13938,7 +13959,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14063,7 +14084,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14350,7 +14371,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.98</v>
@@ -14681,7 +14702,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14759,7 +14780,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -14887,7 +14908,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14965,7 +14986,7 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ68">
         <v>2.13</v>
@@ -15093,7 +15114,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15171,10 +15192,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15299,7 +15320,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15380,7 +15401,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ70">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR70">
         <v>1.11</v>
@@ -15586,7 +15607,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.51</v>
@@ -15917,7 +15938,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16204,7 +16225,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.64</v>
@@ -16329,7 +16350,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16535,7 +16556,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16613,7 +16634,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -16819,7 +16840,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -16947,7 +16968,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17153,7 +17174,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17234,7 +17255,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17359,7 +17380,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17440,7 +17461,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.08</v>
@@ -17643,7 +17664,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -17771,7 +17792,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17977,7 +17998,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18058,7 +18079,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18264,7 +18285,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR84">
         <v>2.03</v>
@@ -18389,7 +18410,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18467,7 +18488,7 @@
         <v>0.6</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -18673,7 +18694,7 @@
         <v>0.83</v>
       </c>
       <c r="AP86">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -18801,7 +18822,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18879,7 +18900,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
         <v>1.63</v>
@@ -19294,7 +19315,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.12</v>
@@ -19419,7 +19440,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19625,7 +19646,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>1.67</v>
@@ -19831,7 +19852,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>2.05</v>
@@ -19909,7 +19930,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1.38</v>
@@ -20243,7 +20264,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>2.5</v>
@@ -20321,7 +20342,7 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -20449,7 +20470,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20530,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20655,7 +20676,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20736,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
         <v>1.22</v>
@@ -21067,7 +21088,7 @@
         <v>84</v>
       </c>
       <c r="P98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21273,7 +21294,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21560,7 +21581,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR100">
         <v>1.18</v>
@@ -21763,10 +21784,10 @@
         <v>1.57</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR101">
         <v>1.32</v>
@@ -21891,7 +21912,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -21969,10 +21990,10 @@
         <v>1.29</v>
       </c>
       <c r="AP102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22175,10 +22196,10 @@
         <v>1.29</v>
       </c>
       <c r="AP103">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.47</v>
@@ -22303,7 +22324,7 @@
         <v>84</v>
       </c>
       <c r="P104" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q104">
         <v>7.5</v>
@@ -22381,7 +22402,7 @@
         <v>2</v>
       </c>
       <c r="AP104">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
         <v>2.13</v>
@@ -22590,7 +22611,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -22715,7 +22736,7 @@
         <v>151</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>8.5</v>
@@ -23411,7 +23432,7 @@
         <v>0.71</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -23745,7 +23766,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>1.57</v>
@@ -23951,7 +23972,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24363,7 +24384,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24519,6 +24540,1036 @@
         <v>4.33</v>
       </c>
       <c r="BP114">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7537407</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45662.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>158</v>
+      </c>
+      <c r="P115" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>4.33</v>
+      </c>
+      <c r="T115">
+        <v>1.5</v>
+      </c>
+      <c r="U115">
+        <v>2.5</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>10</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>2.1</v>
+      </c>
+      <c r="AA115">
+        <v>3.25</v>
+      </c>
+      <c r="AB115">
+        <v>3.6</v>
+      </c>
+      <c r="AC115">
+        <v>1.08</v>
+      </c>
+      <c r="AD115">
+        <v>7.8</v>
+      </c>
+      <c r="AE115">
+        <v>1.41</v>
+      </c>
+      <c r="AF115">
+        <v>2.95</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.65</v>
+      </c>
+      <c r="AI115">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.31</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.7</v>
+      </c>
+      <c r="AN115">
+        <v>0.88</v>
+      </c>
+      <c r="AO115">
+        <v>1.13</v>
+      </c>
+      <c r="AP115">
+        <v>1.11</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.12</v>
+      </c>
+      <c r="AS115">
+        <v>1.32</v>
+      </c>
+      <c r="AT115">
+        <v>2.44</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>12</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>21</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>1.73</v>
+      </c>
+      <c r="BE115">
+        <v>5.8</v>
+      </c>
+      <c r="BF115">
+        <v>2.4</v>
+      </c>
+      <c r="BG115">
+        <v>1.57</v>
+      </c>
+      <c r="BH115">
+        <v>2.1</v>
+      </c>
+      <c r="BI115">
+        <v>1.95</v>
+      </c>
+      <c r="BJ115">
+        <v>1.67</v>
+      </c>
+      <c r="BK115">
+        <v>2.55</v>
+      </c>
+      <c r="BL115">
+        <v>1.4</v>
+      </c>
+      <c r="BM115">
+        <v>3.45</v>
+      </c>
+      <c r="BN115">
+        <v>1.22</v>
+      </c>
+      <c r="BO115">
+        <v>4.7</v>
+      </c>
+      <c r="BP115">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7537403</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45662.47916666666</v>
+      </c>
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>84</v>
+      </c>
+      <c r="P116" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q116">
+        <v>2.2</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>5.5</v>
+      </c>
+      <c r="T116">
+        <v>1.4</v>
+      </c>
+      <c r="U116">
+        <v>2.75</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>8</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>1.65</v>
+      </c>
+      <c r="AA116">
+        <v>3.7</v>
+      </c>
+      <c r="AB116">
+        <v>5.75</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE116">
+        <v>1.32</v>
+      </c>
+      <c r="AF116">
+        <v>3.45</v>
+      </c>
+      <c r="AG116">
+        <v>1.95</v>
+      </c>
+      <c r="AH116">
+        <v>1.85</v>
+      </c>
+      <c r="AI116">
+        <v>1.95</v>
+      </c>
+      <c r="AJ116">
+        <v>1.8</v>
+      </c>
+      <c r="AK116">
+        <v>1.16</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>2.2</v>
+      </c>
+      <c r="AN116">
+        <v>2.38</v>
+      </c>
+      <c r="AO116">
+        <v>1.5</v>
+      </c>
+      <c r="AP116">
+        <v>2.11</v>
+      </c>
+      <c r="AQ116">
+        <v>1.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.47</v>
+      </c>
+      <c r="AS116">
+        <v>1.02</v>
+      </c>
+      <c r="AT116">
+        <v>2.49</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>7</v>
+      </c>
+      <c r="BA116">
+        <v>12</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>14</v>
+      </c>
+      <c r="BD116">
+        <v>1.45</v>
+      </c>
+      <c r="BE116">
+        <v>8.5</v>
+      </c>
+      <c r="BF116">
+        <v>3.29</v>
+      </c>
+      <c r="BG116">
+        <v>1.27</v>
+      </c>
+      <c r="BH116">
+        <v>3.14</v>
+      </c>
+      <c r="BI116">
+        <v>1.85</v>
+      </c>
+      <c r="BJ116">
+        <v>1.95</v>
+      </c>
+      <c r="BK116">
+        <v>1.85</v>
+      </c>
+      <c r="BL116">
+        <v>1.95</v>
+      </c>
+      <c r="BM116">
+        <v>2.48</v>
+      </c>
+      <c r="BN116">
+        <v>1.45</v>
+      </c>
+      <c r="BO116">
+        <v>3.34</v>
+      </c>
+      <c r="BP116">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7537405</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117" t="s">
+        <v>159</v>
+      </c>
+      <c r="P117" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q117">
+        <v>8.5</v>
+      </c>
+      <c r="R117">
+        <v>2.4</v>
+      </c>
+      <c r="S117">
+        <v>1.83</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AA117">
+        <v>5.3</v>
+      </c>
+      <c r="AB117">
+        <v>1.3</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>9.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>4</v>
+      </c>
+      <c r="AG117">
+        <v>1.72</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>2.2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.62</v>
+      </c>
+      <c r="AK117">
+        <v>3.2</v>
+      </c>
+      <c r="AL117">
+        <v>1.16</v>
+      </c>
+      <c r="AM117">
+        <v>1.07</v>
+      </c>
+      <c r="AN117">
+        <v>0.63</v>
+      </c>
+      <c r="AO117">
+        <v>1.63</v>
+      </c>
+      <c r="AP117">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ117">
+        <v>1.78</v>
+      </c>
+      <c r="AR117">
+        <v>1.31</v>
+      </c>
+      <c r="AS117">
+        <v>1.71</v>
+      </c>
+      <c r="AT117">
+        <v>3.02</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>10</v>
+      </c>
+      <c r="AW117">
+        <v>1</v>
+      </c>
+      <c r="AX117">
+        <v>7</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>21</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>5.15</v>
+      </c>
+      <c r="BE117">
+        <v>10</v>
+      </c>
+      <c r="BF117">
+        <v>1.23</v>
+      </c>
+      <c r="BG117">
+        <v>1.32</v>
+      </c>
+      <c r="BH117">
+        <v>2.88</v>
+      </c>
+      <c r="BI117">
+        <v>1.7</v>
+      </c>
+      <c r="BJ117">
+        <v>2.05</v>
+      </c>
+      <c r="BK117">
+        <v>2.06</v>
+      </c>
+      <c r="BL117">
+        <v>1.68</v>
+      </c>
+      <c r="BM117">
+        <v>2.71</v>
+      </c>
+      <c r="BN117">
+        <v>1.38</v>
+      </c>
+      <c r="BO117">
+        <v>3.72</v>
+      </c>
+      <c r="BP117">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7537404</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45662.60416666666</v>
+      </c>
+      <c r="F118">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s">
+        <v>79</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>84</v>
+      </c>
+      <c r="P118" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q118">
+        <v>2.75</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>4.5</v>
+      </c>
+      <c r="T118">
+        <v>1.5</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>3.4</v>
+      </c>
+      <c r="W118">
+        <v>1.3</v>
+      </c>
+      <c r="X118">
+        <v>10</v>
+      </c>
+      <c r="Y118">
+        <v>1.06</v>
+      </c>
+      <c r="Z118">
+        <v>1.98</v>
+      </c>
+      <c r="AA118">
+        <v>3.15</v>
+      </c>
+      <c r="AB118">
+        <v>3.96</v>
+      </c>
+      <c r="AC118">
+        <v>1.09</v>
+      </c>
+      <c r="AD118">
+        <v>7.8</v>
+      </c>
+      <c r="AE118">
+        <v>1.42</v>
+      </c>
+      <c r="AF118">
+        <v>2.9</v>
+      </c>
+      <c r="AG118">
+        <v>2.23</v>
+      </c>
+      <c r="AH118">
+        <v>1.58</v>
+      </c>
+      <c r="AI118">
+        <v>2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.75</v>
+      </c>
+      <c r="AK118">
+        <v>1.26</v>
+      </c>
+      <c r="AL118">
+        <v>1.31</v>
+      </c>
+      <c r="AM118">
+        <v>1.75</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
+        <v>1.13</v>
+      </c>
+      <c r="AP118">
+        <v>0.89</v>
+      </c>
+      <c r="AQ118">
+        <v>1.33</v>
+      </c>
+      <c r="AR118">
+        <v>1.32</v>
+      </c>
+      <c r="AS118">
+        <v>1.1</v>
+      </c>
+      <c r="AT118">
+        <v>2.42</v>
+      </c>
+      <c r="AU118">
+        <v>2</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>8</v>
+      </c>
+      <c r="AZ118">
+        <v>14</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>8</v>
+      </c>
+      <c r="BC118">
+        <v>12</v>
+      </c>
+      <c r="BD118">
+        <v>1.66</v>
+      </c>
+      <c r="BE118">
+        <v>6.25</v>
+      </c>
+      <c r="BF118">
+        <v>2.48</v>
+      </c>
+      <c r="BG118">
+        <v>1.48</v>
+      </c>
+      <c r="BH118">
+        <v>2.28</v>
+      </c>
+      <c r="BI118">
+        <v>1.82</v>
+      </c>
+      <c r="BJ118">
+        <v>1.78</v>
+      </c>
+      <c r="BK118">
+        <v>2.33</v>
+      </c>
+      <c r="BL118">
+        <v>1.47</v>
+      </c>
+      <c r="BM118">
+        <v>3.05</v>
+      </c>
+      <c r="BN118">
+        <v>1.27</v>
+      </c>
+      <c r="BO118">
+        <v>4.2</v>
+      </c>
+      <c r="BP118">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7537408</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45662.64583333334</v>
+      </c>
+      <c r="F119">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>160</v>
+      </c>
+      <c r="P119" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q119">
+        <v>3.1</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>3.75</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>10</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>2.15</v>
+      </c>
+      <c r="AA119">
+        <v>3.1</v>
+      </c>
+      <c r="AB119">
+        <v>3.48</v>
+      </c>
+      <c r="AC119">
+        <v>1.07</v>
+      </c>
+      <c r="AD119">
+        <v>8.4</v>
+      </c>
+      <c r="AE119">
+        <v>1.37</v>
+      </c>
+      <c r="AF119">
+        <v>3.1</v>
+      </c>
+      <c r="AG119">
+        <v>2.06</v>
+      </c>
+      <c r="AH119">
+        <v>1.68</v>
+      </c>
+      <c r="AI119">
+        <v>1.91</v>
+      </c>
+      <c r="AJ119">
+        <v>1.91</v>
+      </c>
+      <c r="AK119">
+        <v>1.41</v>
+      </c>
+      <c r="AL119">
+        <v>1.31</v>
+      </c>
+      <c r="AM119">
+        <v>1.55</v>
+      </c>
+      <c r="AN119">
+        <v>1.88</v>
+      </c>
+      <c r="AO119">
+        <v>2.75</v>
+      </c>
+      <c r="AP119">
+        <v>2</v>
+      </c>
+      <c r="AQ119">
+        <v>2.44</v>
+      </c>
+      <c r="AR119">
+        <v>1.85</v>
+      </c>
+      <c r="AS119">
+        <v>1.65</v>
+      </c>
+      <c r="AT119">
+        <v>3.5</v>
+      </c>
+      <c r="AU119">
+        <v>11</v>
+      </c>
+      <c r="AV119">
+        <v>3</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>1</v>
+      </c>
+      <c r="AY119">
+        <v>20</v>
+      </c>
+      <c r="AZ119">
+        <v>4</v>
+      </c>
+      <c r="BA119">
+        <v>9</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>1.89</v>
+      </c>
+      <c r="BE119">
+        <v>6.25</v>
+      </c>
+      <c r="BF119">
+        <v>2.15</v>
+      </c>
+      <c r="BG119">
+        <v>1.42</v>
+      </c>
+      <c r="BH119">
+        <v>2.45</v>
+      </c>
+      <c r="BI119">
+        <v>1.72</v>
+      </c>
+      <c r="BJ119">
+        <v>1.88</v>
+      </c>
+      <c r="BK119">
+        <v>2.18</v>
+      </c>
+      <c r="BL119">
+        <v>1.53</v>
+      </c>
+      <c r="BM119">
+        <v>2.85</v>
+      </c>
+      <c r="BN119">
+        <v>1.32</v>
+      </c>
+      <c r="BO119">
+        <v>3.8</v>
+      </c>
+      <c r="BP119">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -24692,13 +24692,13 @@
         <v>12</v>
       </c>
       <c r="AX115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY115">
         <v>21</v>
       </c>
       <c r="AZ115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA115">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -693,6 +693,9 @@
   <si>
     <t>['2']</t>
   </si>
+  <si>
+    <t>['45+5', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1396,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2626,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -4277,7 +4280,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4686,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -7367,7 +7370,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7570,7 +7573,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -10248,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -11281,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -12926,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13547,7 +13550,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -15810,7 +15813,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -17049,7 +17052,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17870,7 +17873,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>2.13</v>
@@ -19521,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -22608,7 +22611,7 @@
         <v>2.71</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
         <v>2.44</v>
@@ -22817,7 +22820,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ106">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -24692,10 +24695,10 @@
         <v>12</v>
       </c>
       <c r="AX115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ115">
         <v>7</v>
@@ -25104,13 +25107,13 @@
         <v>1</v>
       </c>
       <c r="AX117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY117">
         <v>8</v>
       </c>
       <c r="AZ117">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25307,13 +25310,13 @@
         <v>2</v>
       </c>
       <c r="AW118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX118">
         <v>7</v>
       </c>
       <c r="AY118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ118">
         <v>14</v>
@@ -25519,7 +25522,7 @@
         <v>1</v>
       </c>
       <c r="AY119">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ119">
         <v>4</v>
@@ -25571,6 +25574,212 @@
       </c>
       <c r="BP119">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7537409</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45663.54166666666</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>84</v>
+      </c>
+      <c r="P120" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.63</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>9</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>5.93</v>
+      </c>
+      <c r="AA120">
+        <v>3.63</v>
+      </c>
+      <c r="AB120">
+        <v>1.38</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>9.4</v>
+      </c>
+      <c r="AE120">
+        <v>1.35</v>
+      </c>
+      <c r="AF120">
+        <v>3.25</v>
+      </c>
+      <c r="AG120">
+        <v>1.98</v>
+      </c>
+      <c r="AH120">
+        <v>1.72</v>
+      </c>
+      <c r="AI120">
+        <v>2.38</v>
+      </c>
+      <c r="AJ120">
+        <v>1.53</v>
+      </c>
+      <c r="AK120">
+        <v>2.7</v>
+      </c>
+      <c r="AL120">
+        <v>1.21</v>
+      </c>
+      <c r="AM120">
+        <v>1.09</v>
+      </c>
+      <c r="AN120">
+        <v>1.25</v>
+      </c>
+      <c r="AO120">
+        <v>1.75</v>
+      </c>
+      <c r="AP120">
+        <v>1.11</v>
+      </c>
+      <c r="AQ120">
+        <v>1.89</v>
+      </c>
+      <c r="AR120">
+        <v>1.23</v>
+      </c>
+      <c r="AS120">
+        <v>1.77</v>
+      </c>
+      <c r="AT120">
+        <v>3</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>7</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>9</v>
+      </c>
+      <c r="AY120">
+        <v>5</v>
+      </c>
+      <c r="AZ120">
+        <v>19</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>8</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>3.4</v>
+      </c>
+      <c r="BE120">
+        <v>6.75</v>
+      </c>
+      <c r="BF120">
+        <v>1.4</v>
+      </c>
+      <c r="BG120">
+        <v>1.45</v>
+      </c>
+      <c r="BH120">
+        <v>2.38</v>
+      </c>
+      <c r="BI120">
+        <v>1.77</v>
+      </c>
+      <c r="BJ120">
+        <v>1.83</v>
+      </c>
+      <c r="BK120">
+        <v>2.25</v>
+      </c>
+      <c r="BL120">
+        <v>1.5</v>
+      </c>
+      <c r="BM120">
+        <v>3</v>
+      </c>
+      <c r="BN120">
+        <v>1.29</v>
+      </c>
+      <c r="BO120">
+        <v>4</v>
+      </c>
+      <c r="BP120">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -25522,10 +25522,10 @@
         <v>1</v>
       </c>
       <c r="AY119">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA119">
         <v>9</v>
